--- a/documents/db_table_design.xlsx
+++ b/documents/db_table_design.xlsx
@@ -12,11 +12,12 @@
     <sheet name="story-task" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="442">
   <si>
     <t>Field Name</t>
   </si>
@@ -1315,9 +1316,6 @@
     <t>Closed</t>
   </si>
   <si>
-    <t>text field - can be null if not null qualification validation must be done</t>
-  </si>
-  <si>
     <t>create tbl_employee</t>
   </si>
   <si>
@@ -1333,13 +1331,19 @@
     <t>Create service to check the Authentication of the employee credentials</t>
   </si>
   <si>
-    <t>Create service to check the Authentication of the customer credentials</t>
-  </si>
-  <si>
     <t>Do Unit Test on Employee Creation</t>
   </si>
   <si>
     <t>Do Unit Test on Branch Creation</t>
+  </si>
+  <si>
+    <t>text field - not null email validation must be done</t>
+  </si>
+  <si>
+    <t>no UI - default 0 (0 - notApproved, 1 - approvedByManager)</t>
+  </si>
+  <si>
+    <t>text field - can be null</t>
   </si>
 </sst>
 </file>
@@ -1521,9 +1525,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1533,15 +1534,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1562,7 +1596,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1570,37 +1604,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1611,10 +1616,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1911,8 +1915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1926,22 +1930,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:7" ht="21.75" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -1959,10 +1963,10 @@
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="38"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
@@ -1980,10 +1984,10 @@
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="38"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
@@ -2001,10 +2005,10 @@
       <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="38"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
@@ -2022,10 +2026,10 @@
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="38"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
@@ -2043,10 +2047,10 @@
       <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="38"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
@@ -2064,10 +2068,10 @@
       <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="38"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
@@ -2083,12 +2087,12 @@
         <v>50</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="38"/>
+        <v>13</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
@@ -2106,10 +2110,10 @@
       <c r="E10" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="G10" s="38"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
@@ -2127,10 +2131,10 @@
       <c r="E11" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="G11" s="38"/>
+      <c r="F11" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
@@ -2148,10 +2152,10 @@
       <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="38"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
@@ -2167,10 +2171,10 @@
       <c r="E13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="38"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
@@ -2188,10 +2192,10 @@
       <c r="E14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="38"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
@@ -2207,28 +2211,28 @@
       <c r="E15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="38"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="G16" s="38"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="G17" s="38"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
@@ -2246,7 +2250,7 @@
       <c r="E18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="38"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
@@ -2264,10 +2268,10 @@
       <c r="E19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="38"/>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
@@ -2285,10 +2289,10 @@
       <c r="E20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="38"/>
+      <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
@@ -2306,10 +2310,10 @@
       <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="38"/>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
@@ -2327,10 +2331,10 @@
       <c r="E22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="38"/>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
@@ -2348,10 +2352,10 @@
       <c r="E23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="38"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
@@ -2369,10 +2373,10 @@
       <c r="E24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24" s="38"/>
+      <c r="F24" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
@@ -2390,10 +2394,10 @@
       <c r="E25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="G25" s="38"/>
+      <c r="F25" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
@@ -2411,7 +2415,7 @@
       <c r="E26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="38"/>
+      <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
@@ -2429,10 +2433,10 @@
       <c r="E27" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="G27" s="38"/>
+      <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
@@ -2450,10 +2454,10 @@
       <c r="E28" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="G28" s="38"/>
+      <c r="F28" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
@@ -2471,10 +2475,10 @@
       <c r="E29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G29" s="38"/>
+      <c r="G29" s="15"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1">
       <c r="A30" s="2">
@@ -2490,10 +2494,10 @@
       <c r="E30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G30" s="38"/>
+      <c r="G30" s="15"/>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1">
       <c r="A31" s="2">
@@ -2511,10 +2515,10 @@
       <c r="E31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G31" s="38"/>
+      <c r="G31" s="15"/>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1">
       <c r="A32" s="2">
@@ -2530,28 +2534,28 @@
       <c r="E32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G32" s="38"/>
+      <c r="G32" s="15"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="G33" s="38"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="G34" s="38"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="G34" s="15"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
@@ -2569,7 +2573,7 @@
       <c r="E35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G35" s="38"/>
+      <c r="G35" s="15"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
@@ -2587,10 +2591,10 @@
       <c r="E36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G36" s="38"/>
+      <c r="G36" s="15"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
@@ -2608,10 +2612,10 @@
       <c r="E37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G37" s="38"/>
+      <c r="G37" s="15"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
@@ -2629,10 +2633,10 @@
       <c r="E38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G38" s="38"/>
+      <c r="G38" s="15"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
@@ -2650,10 +2654,10 @@
       <c r="E39" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G39" s="38"/>
+      <c r="G39" s="15"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
@@ -2671,10 +2675,10 @@
       <c r="E40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="F40" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G40" s="38"/>
+      <c r="G40" s="15"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
@@ -2692,7 +2696,7 @@
       <c r="E41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="38"/>
+      <c r="G41" s="15"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
@@ -2710,10 +2714,10 @@
       <c r="E42" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G42" s="38"/>
+      <c r="G42" s="15"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
@@ -2731,10 +2735,10 @@
       <c r="E43" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="F43" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G43" s="38"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
@@ -2752,10 +2756,10 @@
       <c r="E44" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="G44" s="38"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
@@ -2773,10 +2777,10 @@
       <c r="E45" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="F45" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="G45" s="38"/>
+      <c r="G45" s="15"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
@@ -2794,10 +2798,10 @@
       <c r="E46" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="F46" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G46" s="38"/>
+      <c r="G46" s="15"/>
     </row>
     <row r="47" spans="1:7" ht="14.25" customHeight="1">
       <c r="A47" s="2">
@@ -2813,10 +2817,10 @@
       <c r="E47" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="11" t="s">
+      <c r="F47" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G47" s="38"/>
+      <c r="G47" s="15"/>
     </row>
     <row r="48" spans="1:7" ht="14.25" customHeight="1">
       <c r="A48" s="2">
@@ -2834,10 +2838,10 @@
       <c r="E48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G48" s="38"/>
+      <c r="G48" s="15"/>
     </row>
     <row r="49" spans="1:7" ht="14.25" customHeight="1">
       <c r="A49" s="2">
@@ -2853,28 +2857,28 @@
       <c r="E49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G49" s="38"/>
+      <c r="G49" s="15"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="G50" s="38"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="G50" s="15"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="G51" s="38"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="G51" s="15"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
@@ -2892,7 +2896,7 @@
       <c r="E52" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="38"/>
+      <c r="G52" s="15"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
@@ -2910,7 +2914,7 @@
       <c r="E53" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G53" s="38"/>
+      <c r="G53" s="15"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
@@ -2928,7 +2932,7 @@
       <c r="E54" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G54" s="38"/>
+      <c r="G54" s="15"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
@@ -2946,7 +2950,7 @@
       <c r="E55" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G55" s="38"/>
+      <c r="G55" s="15"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
@@ -2964,7 +2968,7 @@
       <c r="E56" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G56" s="38"/>
+      <c r="G56" s="15"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
@@ -2980,7 +2984,7 @@
       <c r="E57" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G57" s="38"/>
+      <c r="G57" s="15"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
@@ -2998,7 +3002,7 @@
       <c r="E58" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G58" s="38"/>
+      <c r="G58" s="15"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
@@ -3016,7 +3020,7 @@
       <c r="E59" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G59" s="38"/>
+      <c r="G59" s="15"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
@@ -3034,7 +3038,7 @@
       <c r="E60" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G60" s="38"/>
+      <c r="G60" s="15"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
@@ -3050,7 +3054,7 @@
       <c r="E61" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G61" s="38"/>
+      <c r="G61" s="15"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
@@ -3068,7 +3072,7 @@
       <c r="E62" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G62" s="38"/>
+      <c r="G62" s="15"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
@@ -3086,7 +3090,7 @@
       <c r="E63" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G63" s="38"/>
+      <c r="G63" s="15"/>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1">
       <c r="A64" s="2">
@@ -3102,7 +3106,7 @@
       <c r="E64" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G64" s="38"/>
+      <c r="G64" s="15"/>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1">
       <c r="A65" s="2">
@@ -3120,7 +3124,7 @@
       <c r="E65" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G65" s="38"/>
+      <c r="G65" s="15"/>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1">
       <c r="A66" s="2">
@@ -3136,25 +3140,25 @@
       <c r="E66" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G66" s="38"/>
+      <c r="G66" s="15"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="G67" s="38"/>
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="G67" s="15"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="G68" s="38"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="G68" s="15"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
@@ -3172,7 +3176,7 @@
       <c r="E69" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G69" s="38"/>
+      <c r="G69" s="15"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
@@ -3190,7 +3194,7 @@
       <c r="E70" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G70" s="38"/>
+      <c r="G70" s="15"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
@@ -3206,7 +3210,7 @@
       <c r="E71" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G71" s="38"/>
+      <c r="G71" s="15"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
@@ -3224,7 +3228,7 @@
       <c r="E72" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G72" s="38"/>
+      <c r="G72" s="15"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
@@ -3242,7 +3246,7 @@
       <c r="E73" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G73" s="38"/>
+      <c r="G73" s="15"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
@@ -3260,7 +3264,7 @@
       <c r="E74" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G74" s="38"/>
+      <c r="G74" s="15"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
@@ -3278,7 +3282,7 @@
       <c r="E75" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G75" s="38"/>
+      <c r="G75" s="15"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
@@ -3296,7 +3300,7 @@
       <c r="E76" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G76" s="38"/>
+      <c r="G76" s="15"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
@@ -3314,7 +3318,7 @@
       <c r="E77" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G77" s="38"/>
+      <c r="G77" s="15"/>
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1">
       <c r="A78" s="2">
@@ -3330,7 +3334,7 @@
       <c r="E78" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G78" s="38"/>
+      <c r="G78" s="15"/>
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1">
       <c r="A79" s="2">
@@ -3348,7 +3352,7 @@
       <c r="E79" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G79" s="38"/>
+      <c r="G79" s="15"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
@@ -3364,25 +3368,25 @@
       <c r="E80" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G80" s="38"/>
+      <c r="G80" s="15"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="G81" s="38"/>
+      <c r="A81" s="17"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="G81" s="15"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="G82" s="38"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="G82" s="15"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
@@ -3400,7 +3404,7 @@
       <c r="E83" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G83" s="38"/>
+      <c r="G83" s="15"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
@@ -3416,7 +3420,7 @@
       <c r="E84" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G84" s="38"/>
+      <c r="G84" s="15"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
@@ -3434,7 +3438,7 @@
       <c r="E85" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G85" s="38"/>
+      <c r="G85" s="15"/>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
@@ -3452,7 +3456,7 @@
       <c r="E86" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G86" s="38"/>
+      <c r="G86" s="15"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
@@ -3470,7 +3474,7 @@
       <c r="E87" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G87" s="38"/>
+      <c r="G87" s="15"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
@@ -3488,7 +3492,7 @@
       <c r="E88" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G88" s="38"/>
+      <c r="G88" s="15"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
@@ -3506,7 +3510,7 @@
       <c r="E89" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G89" s="38"/>
+      <c r="G89" s="15"/>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
@@ -3602,24 +3606,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="1" max="1" width="9.140625" style="7"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -3630,7 +3634,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -3641,7 +3645,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -3652,7 +3656,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -3663,7 +3667,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -3674,7 +3678,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -3685,7 +3689,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -3705,15 +3709,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:I237"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H107" sqref="H107"/>
+    <sheetView topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="3" width="44.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" style="5" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
     <col min="7" max="7" width="61.5703125" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
@@ -3750,7 +3754,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="25" t="s">
         <v>82</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -3759,1576 +3763,1576 @@
       <c r="C5" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="H5" s="31" t="s">
-        <v>434</v>
+      <c r="H5" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="14"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="30" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="H6" s="31" t="s">
-        <v>434</v>
+      <c r="H6" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="14"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="29" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="H7" s="31" t="s">
-        <v>434</v>
+      <c r="H7" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="14"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="30" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="H8" s="31" t="s">
-        <v>434</v>
+      <c r="H8" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="3" t="s">
         <v>152</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="H9" s="31" t="s">
-        <v>434</v>
+      <c r="H9" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="16" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="28" t="s">
         <v>97</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>273</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="31"/>
+      <c r="H10" s="12"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
       <c r="F11" s="3" t="s">
         <v>307</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="31"/>
+      <c r="H11" s="12"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="3" t="s">
         <v>308</v>
       </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="31"/>
+      <c r="H12" s="12"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="14"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="3" t="s">
         <v>309</v>
       </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="31"/>
+      <c r="H13" s="12"/>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="14"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="16" t="s">
+      <c r="A14" s="26"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="28" t="s">
         <v>98</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>274</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="31"/>
+      <c r="H14" s="12"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="14"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
       <c r="F15" s="3" t="s">
         <v>310</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="31"/>
+      <c r="H15" s="12"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="14"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
       <c r="F16" s="3" t="s">
         <v>311</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="31"/>
+      <c r="H16" s="12"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="14"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="3" t="s">
         <v>312</v>
       </c>
       <c r="G17" s="3"/>
-      <c r="H17" s="31"/>
+      <c r="H17" s="12"/>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="14"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="16" t="s">
+      <c r="A18" s="26"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="28" t="s">
         <v>137</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>275</v>
       </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="31"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="14"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
       <c r="F19" s="3" t="s">
         <v>313</v>
       </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="31"/>
+      <c r="H19" s="12"/>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="14"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
       <c r="F20" s="3" t="s">
         <v>314</v>
       </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="31"/>
+      <c r="H20" s="12"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="14"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
       <c r="F21" s="3" t="s">
         <v>315</v>
       </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="31"/>
+      <c r="H21" s="12"/>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="14"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="31"/>
+      <c r="H22" s="12"/>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="14"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="31"/>
+      <c r="H23" s="12"/>
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="14"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="31"/>
+      <c r="H24" s="12"/>
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="14"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="31"/>
+      <c r="H25" s="12"/>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="14"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="16" t="s">
+      <c r="A26" s="26"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="G26" s="30" t="s">
+      <c r="G26" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="H26" s="31" t="s">
+      <c r="H26" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="26"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="26"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="14"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="G27" s="29" t="s">
+      <c r="H28" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="26"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="26"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="26"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="26"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="26"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="26"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="26"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="26"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="H27" s="31" t="s">
-        <v>434</v>
-      </c>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="14"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="G28" s="30" t="s">
-        <v>436</v>
-      </c>
-      <c r="H28" s="31" t="s">
-        <v>434</v>
-      </c>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="14"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="G29" s="30" t="s">
+      <c r="H36" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="26"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="26"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="G38" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="H29" s="31" t="s">
-        <v>434</v>
-      </c>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="14"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="H30" s="31" t="s">
-        <v>434</v>
-      </c>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="14"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="14"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="24" t="s">
-        <v>317</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="14"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="14"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="24" t="s">
-        <v>319</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="14"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="G35" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="H35" s="31" t="s">
-        <v>434</v>
-      </c>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="14"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="G36" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="H36" s="31" t="s">
-        <v>434</v>
-      </c>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="14"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="G37" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="H37" s="31" t="s">
-        <v>434</v>
-      </c>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="14"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="G38" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="H38" s="31" t="s">
-        <v>434</v>
+      <c r="H38" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="14"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="24" t="s">
+      <c r="A39" s="26"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="9" t="s">
         <v>207</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="H39" s="31" t="s">
-        <v>434</v>
+      <c r="H39" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="14"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="16" t="s">
+      <c r="A40" s="26"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="F40" s="24" t="s">
+      <c r="F40" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="G40" s="30" t="s">
+      <c r="G40" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="H40" s="31" t="s">
-        <v>434</v>
+      <c r="H40" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="14"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="24" t="s">
+      <c r="A41" s="26"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="G41" s="29" t="s">
+      <c r="G41" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="H41" s="31" t="s">
-        <v>434</v>
+      <c r="H41" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I41" s="3"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="14"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="24" t="s">
+      <c r="A42" s="26"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="G42" s="30" t="s">
+      <c r="G42" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="H42" s="31" t="s">
-        <v>434</v>
+      <c r="H42" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I42" s="3"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="14"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="24" t="s">
+      <c r="A43" s="26"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="G43" s="30" t="s">
+      <c r="G43" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="H43" s="31" t="s">
-        <v>434</v>
+      <c r="H43" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I43" s="3"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="14"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="24" t="s">
+      <c r="A44" s="26"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="9" t="s">
         <v>233</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="H44" s="31" t="s">
-        <v>434</v>
+      <c r="H44" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I44" s="3"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="14"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="16" t="s">
+      <c r="A45" s="26"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="F45" s="24" t="s">
+      <c r="F45" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="G45" s="30" t="s">
+      <c r="G45" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="H45" s="31" t="s">
-        <v>434</v>
+      <c r="H45" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I45" s="3"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="14"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="24" t="s">
+      <c r="A46" s="26"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="G46" s="29" t="s">
+      <c r="G46" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="H46" s="31" t="s">
-        <v>434</v>
+      <c r="H46" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I46" s="3"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="14"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="24" t="s">
+      <c r="A47" s="26"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="G47" s="30" t="s">
+      <c r="G47" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="H47" s="31" t="s">
-        <v>434</v>
+      <c r="H47" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I47" s="3"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="14"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="24" t="s">
+      <c r="A48" s="26"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="G48" s="30" t="s">
+      <c r="G48" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="H48" s="31" t="s">
-        <v>434</v>
+      <c r="H48" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I48" s="3"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="14"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="24" t="s">
+      <c r="A49" s="26"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="9" t="s">
         <v>211</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="H49" s="31" t="s">
-        <v>434</v>
+      <c r="H49" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I49" s="3"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="14"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="16" t="s">
+      <c r="A50" s="26"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="F50" s="24" t="s">
+      <c r="F50" s="9" t="s">
         <v>276</v>
       </c>
       <c r="G50" s="3"/>
-      <c r="H50" s="31"/>
+      <c r="H50" s="12"/>
       <c r="I50" s="3"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="14"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="24" t="s">
+      <c r="A51" s="26"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="9" t="s">
         <v>320</v>
       </c>
       <c r="G51" s="3"/>
-      <c r="H51" s="31"/>
+      <c r="H51" s="12"/>
       <c r="I51" s="3"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="14"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="24" t="s">
+      <c r="A52" s="26"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="9" t="s">
         <v>321</v>
       </c>
       <c r="G52" s="3"/>
-      <c r="H52" s="31"/>
+      <c r="H52" s="12"/>
       <c r="I52" s="3"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="14"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="24" t="s">
+      <c r="A53" s="26"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="9" t="s">
         <v>322</v>
       </c>
       <c r="G53" s="3"/>
-      <c r="H53" s="31"/>
+      <c r="H53" s="12"/>
       <c r="I53" s="3"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="14"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="16" t="s">
+      <c r="A54" s="26"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="28" t="s">
         <v>105</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>277</v>
       </c>
       <c r="G54" s="3"/>
-      <c r="H54" s="31"/>
+      <c r="H54" s="12"/>
       <c r="I54" s="3"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="14"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
       <c r="F55" s="3" t="s">
         <v>323</v>
       </c>
       <c r="G55" s="3"/>
-      <c r="H55" s="31"/>
+      <c r="H55" s="12"/>
       <c r="I55" s="3"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="14"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
       <c r="F56" s="3" t="s">
         <v>324</v>
       </c>
       <c r="G56" s="3"/>
-      <c r="H56" s="31"/>
+      <c r="H56" s="12"/>
       <c r="I56" s="3"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="14"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
+      <c r="A57" s="26"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
       <c r="F57" s="3" t="s">
         <v>325</v>
       </c>
       <c r="G57" s="3"/>
-      <c r="H57" s="31"/>
+      <c r="H57" s="12"/>
       <c r="I57" s="3"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="14"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
+      <c r="A58" s="26"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="H58" s="31"/>
+      <c r="H58" s="12"/>
       <c r="I58" s="3"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="14"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
+      <c r="A59" s="26"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
-      <c r="H59" s="31"/>
+      <c r="H59" s="12"/>
       <c r="I59" s="3"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="14"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="12" t="s">
+      <c r="A60" s="26"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="D60" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="F60" s="24" t="s">
+      <c r="F60" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="G60" s="30" t="s">
+      <c r="G60" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="26"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H61" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="H60" s="31" t="s">
-        <v>435</v>
-      </c>
-      <c r="I60" s="3"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="14"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="G61" s="29" t="s">
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="26"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="26"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="26"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="26"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="E65" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="G65" s="3"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="3"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="26"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G66" s="3"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="3"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="26"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="G67" s="3"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="3"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="26"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="G68" s="3"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="3"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="26"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="E69" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="I69" s="3"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="26"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G70" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="H61" s="31" t="s">
-        <v>434</v>
-      </c>
-      <c r="I61" s="3"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="14"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="G62" s="30" t="s">
-        <v>437</v>
-      </c>
-      <c r="H62" s="31" t="s">
-        <v>434</v>
-      </c>
-      <c r="I62" s="3"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="14"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="G63" s="30" t="s">
+      <c r="H70" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="I70" s="3"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="26"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="26"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="G72" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="H63" s="31" t="s">
-        <v>434</v>
-      </c>
-      <c r="I63" s="3"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="14"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="H64" s="31" t="s">
-        <v>434</v>
-      </c>
-      <c r="I64" s="3"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="14"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="F65" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="G65" s="3"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="3"/>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="14"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="G66" s="3"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="3"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="14"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="24" t="s">
-        <v>327</v>
-      </c>
-      <c r="G67" s="3"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="3"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="14"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="G68" s="3"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="3"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="14"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="E69" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="F69" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="G69" s="30" t="s">
-        <v>239</v>
-      </c>
-      <c r="H69" s="31" t="s">
-        <v>434</v>
-      </c>
-      <c r="I69" s="3"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="14"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="G70" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="H70" s="31" t="s">
-        <v>434</v>
-      </c>
-      <c r="I70" s="3"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="14"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="G71" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="H71" s="31" t="s">
-        <v>434</v>
-      </c>
-      <c r="I71" s="3"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="14"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="G72" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="H72" s="31" t="s">
-        <v>434</v>
+      <c r="H72" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I72" s="3"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="14"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="24" t="s">
+      <c r="A73" s="26"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="9" t="s">
         <v>219</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="H73" s="31" t="s">
-        <v>434</v>
+      <c r="H73" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I73" s="3"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="14"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="16" t="s">
+      <c r="A74" s="26"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="F74" s="24" t="s">
+      <c r="F74" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="G74" s="30" t="s">
+      <c r="G74" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="H74" s="31" t="s">
-        <v>434</v>
+      <c r="H74" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I74" s="3"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="14"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="24" t="s">
+      <c r="A75" s="26"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="G75" s="29" t="s">
+      <c r="G75" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="H75" s="31" t="s">
-        <v>434</v>
+      <c r="H75" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I75" s="3"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="14"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="24" t="s">
+      <c r="A76" s="26"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="G76" s="30" t="s">
+      <c r="G76" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="H76" s="31" t="s">
-        <v>434</v>
+      <c r="H76" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I76" s="3"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="14"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="24" t="s">
+      <c r="A77" s="26"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="G77" s="30" t="s">
+      <c r="G77" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="H77" s="31" t="s">
-        <v>434</v>
+      <c r="H77" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I77" s="3"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="14"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="24" t="s">
+      <c r="A78" s="26"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="9" t="s">
         <v>306</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="H78" s="31" t="s">
-        <v>434</v>
+      <c r="H78" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I78" s="3"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="14"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="16" t="s">
+      <c r="A79" s="26"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F79" s="24" t="s">
+      <c r="F79" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="G79" s="30" t="s">
+      <c r="G79" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="H79" s="31" t="s">
-        <v>434</v>
+      <c r="H79" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I79" s="3"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="14"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="24" t="s">
+      <c r="A80" s="26"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="G80" s="29" t="s">
+      <c r="G80" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="H80" s="31" t="s">
-        <v>434</v>
+      <c r="H80" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I80" s="3"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="14"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="24" t="s">
+      <c r="A81" s="26"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="G81" s="30" t="s">
+      <c r="G81" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="H81" s="31" t="s">
-        <v>434</v>
+      <c r="H81" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I81" s="3"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="14"/>
-      <c r="B82" s="27"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="24" t="s">
+      <c r="A82" s="26"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="G82" s="30" t="s">
+      <c r="G82" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="H82" s="31" t="s">
-        <v>434</v>
+      <c r="H82" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I82" s="3"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="14"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="24" t="s">
+      <c r="A83" s="26"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="9" t="s">
         <v>223</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="H83" s="31" t="s">
-        <v>434</v>
+      <c r="H83" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I83" s="3"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="14"/>
-      <c r="B84" s="27"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="16" t="s">
+      <c r="A84" s="26"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="F84" s="24" t="s">
+      <c r="F84" s="9" t="s">
         <v>279</v>
       </c>
       <c r="G84" s="3"/>
-      <c r="H84" s="31"/>
+      <c r="H84" s="12"/>
       <c r="I84" s="3"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="14"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="24" t="s">
+      <c r="A85" s="26"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="9" t="s">
         <v>329</v>
       </c>
       <c r="G85" s="3"/>
-      <c r="H85" s="31"/>
+      <c r="H85" s="12"/>
       <c r="I85" s="3"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="14"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="24" t="s">
+      <c r="A86" s="26"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="9" t="s">
         <v>330</v>
       </c>
       <c r="G86" s="3"/>
-      <c r="H86" s="31"/>
+      <c r="H86" s="12"/>
       <c r="I86" s="3"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="14"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="24" t="s">
+      <c r="A87" s="26"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="9" t="s">
         <v>331</v>
       </c>
       <c r="G87" s="3"/>
-      <c r="H87" s="31"/>
+      <c r="H87" s="12"/>
       <c r="I87" s="3"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="14"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="16" t="s">
+      <c r="A88" s="26"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="28" t="s">
         <v>112</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>280</v>
       </c>
       <c r="G88" s="3"/>
-      <c r="H88" s="31"/>
+      <c r="H88" s="12"/>
       <c r="I88" s="3"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="14"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
+      <c r="A89" s="26"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
       <c r="F89" s="3" t="s">
         <v>332</v>
       </c>
       <c r="G89" s="3"/>
-      <c r="H89" s="31"/>
+      <c r="H89" s="12"/>
       <c r="I89" s="3"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="14"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
+      <c r="A90" s="26"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
       <c r="F90" s="3" t="s">
         <v>333</v>
       </c>
       <c r="G90" s="3"/>
-      <c r="H90" s="31"/>
+      <c r="H90" s="12"/>
       <c r="I90" s="3"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="14"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
+      <c r="A91" s="26"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="30"/>
       <c r="F91" s="3" t="s">
         <v>334</v>
       </c>
       <c r="G91" s="3"/>
-      <c r="H91" s="31"/>
+      <c r="H91" s="12"/>
       <c r="I91" s="3"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="14"/>
-      <c r="B92" s="27"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="16" t="s">
+      <c r="A92" s="26"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="28" t="s">
         <v>113</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>281</v>
       </c>
       <c r="G92" s="3"/>
-      <c r="H92" s="31"/>
+      <c r="H92" s="12"/>
       <c r="I92" s="3"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="14"/>
-      <c r="B93" s="27"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
+      <c r="A93" s="26"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
       <c r="F93" s="3" t="s">
         <v>335</v>
       </c>
       <c r="G93" s="3"/>
-      <c r="H93" s="31"/>
+      <c r="H93" s="12"/>
       <c r="I93" s="3"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="14"/>
-      <c r="B94" s="27"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
+      <c r="A94" s="26"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
       <c r="F94" s="3" t="s">
         <v>336</v>
       </c>
       <c r="G94" s="3"/>
-      <c r="H94" s="31"/>
+      <c r="H94" s="12"/>
       <c r="I94" s="3"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="14"/>
-      <c r="B95" s="27"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
+      <c r="A95" s="26"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="30"/>
       <c r="F95" s="3" t="s">
         <v>337</v>
       </c>
       <c r="G95" s="3"/>
-      <c r="H95" s="31"/>
+      <c r="H95" s="12"/>
       <c r="I95" s="3"/>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="14"/>
-      <c r="B96" s="27"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="34" t="s">
+      <c r="A96" s="26"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="E96" s="33" t="s">
+      <c r="E96" s="38" t="s">
         <v>114</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>282</v>
       </c>
       <c r="G96" s="3"/>
-      <c r="H96" s="31"/>
+      <c r="H96" s="12"/>
       <c r="I96" s="3"/>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="14"/>
-      <c r="B97" s="27"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="33"/>
+      <c r="A97" s="26"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="38"/>
       <c r="F97" s="3" t="s">
         <v>338</v>
       </c>
       <c r="G97" s="3"/>
-      <c r="H97" s="31"/>
+      <c r="H97" s="12"/>
       <c r="I97" s="3"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="14"/>
-      <c r="B98" s="27"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="33"/>
+      <c r="A98" s="26"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="38"/>
       <c r="F98" s="3" t="s">
         <v>339</v>
       </c>
       <c r="G98" s="3"/>
-      <c r="H98" s="31"/>
+      <c r="H98" s="12"/>
       <c r="I98" s="3"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="14"/>
-      <c r="B99" s="27"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="36"/>
-      <c r="E99" s="33"/>
+      <c r="A99" s="26"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="34"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="38"/>
       <c r="F99" s="3" t="s">
         <v>340</v>
       </c>
       <c r="G99" s="3"/>
-      <c r="H99" s="31"/>
+      <c r="H99" s="12"/>
       <c r="I99" s="3"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="14"/>
-      <c r="B100" s="27"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="16" t="s">
+      <c r="A100" s="26"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28" t="s">
         <v>115</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
-      <c r="H100" s="31"/>
+      <c r="H100" s="12"/>
       <c r="I100" s="3"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="14"/>
-      <c r="B101" s="27"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
+      <c r="A101" s="26"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="34"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
-      <c r="H101" s="31"/>
+      <c r="H101" s="12"/>
       <c r="I101" s="3"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="14"/>
-      <c r="B102" s="27"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
+      <c r="A102" s="26"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
-      <c r="H102" s="31"/>
+      <c r="H102" s="12"/>
       <c r="I102" s="3"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="14"/>
-      <c r="B103" s="27"/>
-      <c r="C103" s="12"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18"/>
+      <c r="A103" s="26"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="30"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
-      <c r="H103" s="31"/>
+      <c r="H103" s="12"/>
       <c r="I103" s="3"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="14"/>
-      <c r="B104" s="27"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="32"/>
-      <c r="E104" s="32"/>
+      <c r="A104" s="26"/>
+      <c r="B104" s="23"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
-      <c r="H104" s="31"/>
+      <c r="H104" s="12"/>
       <c r="I104" s="3"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="14"/>
-      <c r="B105" s="27"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="32"/>
-      <c r="E105" s="32"/>
+      <c r="A105" s="26"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
-      <c r="H105" s="31"/>
+      <c r="H105" s="12"/>
       <c r="I105" s="3"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="14"/>
-      <c r="B106" s="27"/>
-      <c r="C106" s="12" t="s">
+      <c r="A106" s="26"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="D106" s="16" t="s">
+      <c r="D106" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="E106" s="28" t="s">
         <v>116</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="G106" s="30" t="s">
+      <c r="G106" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="H106" s="31" t="s">
+      <c r="H106" s="12" t="s">
         <v>431</v>
       </c>
       <c r="I106" s="3" t="s">
@@ -5336,1852 +5340,1860 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="14"/>
-      <c r="B107" s="27"/>
-      <c r="C107" s="12"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="17"/>
+      <c r="A107" s="26"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="34"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="29"/>
       <c r="F107" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="G107" s="29" t="s">
+      <c r="G107" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="H107" s="31" t="s">
-        <v>434</v>
+      <c r="H107" s="12" t="s">
+        <v>431</v>
       </c>
       <c r="I107" s="3"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="14"/>
-      <c r="B108" s="27"/>
-      <c r="C108" s="12"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="17"/>
+      <c r="A108" s="26"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="34"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="29"/>
       <c r="F108" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="G108" s="30" t="s">
-        <v>438</v>
-      </c>
-      <c r="H108" s="31" t="s">
-        <v>434</v>
+      <c r="G108" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="H108" s="12" t="s">
+        <v>431</v>
       </c>
       <c r="I108" s="3"/>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="14"/>
-      <c r="B109" s="27"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="17"/>
+      <c r="A109" s="26"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="34"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
       <c r="F109" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="G109" s="30" t="s">
+      <c r="G109" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="H109" s="31" t="s">
-        <v>434</v>
+      <c r="H109" s="12" t="s">
+        <v>431</v>
       </c>
       <c r="I109" s="3"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="14"/>
-      <c r="B110" s="27"/>
-      <c r="C110" s="12"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="18"/>
+      <c r="A110" s="26"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="34"/>
+      <c r="D110" s="30"/>
+      <c r="E110" s="30"/>
       <c r="F110" s="3" t="s">
         <v>252</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="H110" s="31" t="s">
-        <v>434</v>
+      <c r="H110" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I110" s="3"/>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="14"/>
-      <c r="B111" s="27"/>
-      <c r="C111" s="12"/>
-      <c r="D111" s="16" t="s">
+      <c r="A111" s="26"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="34"/>
+      <c r="D111" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="E111" s="28" t="s">
         <v>117</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>283</v>
       </c>
       <c r="G111" s="3"/>
-      <c r="H111" s="31"/>
+      <c r="H111" s="12"/>
       <c r="I111" s="3"/>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="14"/>
-      <c r="B112" s="27"/>
-      <c r="C112" s="12"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="17"/>
+      <c r="A112" s="26"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="29"/>
       <c r="F112" s="3" t="s">
         <v>341</v>
       </c>
       <c r="G112" s="3"/>
-      <c r="H112" s="31"/>
+      <c r="H112" s="12"/>
       <c r="I112" s="3"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="14"/>
-      <c r="B113" s="27"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="17"/>
+      <c r="A113" s="26"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="34"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="29"/>
       <c r="F113" s="3" t="s">
         <v>342</v>
       </c>
       <c r="G113" s="3"/>
-      <c r="H113" s="31"/>
+      <c r="H113" s="12"/>
       <c r="I113" s="3"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="14"/>
-      <c r="B114" s="27"/>
-      <c r="C114" s="12"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="18"/>
+      <c r="A114" s="26"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="34"/>
+      <c r="D114" s="30"/>
+      <c r="E114" s="30"/>
       <c r="F114" s="3" t="s">
         <v>343</v>
       </c>
       <c r="G114" s="3"/>
-      <c r="H114" s="31"/>
+      <c r="H114" s="12"/>
       <c r="I114" s="3"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="14"/>
-      <c r="B115" s="27"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="16" t="s">
+      <c r="A115" s="26"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="34"/>
+      <c r="D115" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="E115" s="16" t="s">
+      <c r="E115" s="28" t="s">
         <v>118</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="G115" s="30" t="s">
+      <c r="G115" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="H115" s="31" t="s">
-        <v>434</v>
+      <c r="H115" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I115" s="3"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="14"/>
-      <c r="B116" s="27"/>
-      <c r="C116" s="12"/>
-      <c r="D116" s="17"/>
-      <c r="E116" s="17"/>
+      <c r="A116" s="26"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="34"/>
+      <c r="D116" s="29"/>
+      <c r="E116" s="29"/>
       <c r="F116" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="G116" s="29" t="s">
+      <c r="G116" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="H116" s="31" t="s">
-        <v>434</v>
+      <c r="H116" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I116" s="3"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="14"/>
-      <c r="B117" s="27"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="17"/>
-      <c r="E117" s="17"/>
+      <c r="A117" s="26"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="34"/>
+      <c r="D117" s="29"/>
+      <c r="E117" s="29"/>
       <c r="F117" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="G117" s="30" t="s">
+      <c r="G117" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="H117" s="31" t="s">
-        <v>434</v>
+      <c r="H117" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I117" s="3"/>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="14"/>
-      <c r="B118" s="27"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="17"/>
-      <c r="E118" s="17"/>
+      <c r="A118" s="26"/>
+      <c r="B118" s="23"/>
+      <c r="C118" s="34"/>
+      <c r="D118" s="29"/>
+      <c r="E118" s="29"/>
       <c r="F118" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="G118" s="30" t="s">
+      <c r="G118" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="H118" s="31" t="s">
-        <v>434</v>
+      <c r="H118" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I118" s="3"/>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="14"/>
-      <c r="B119" s="27"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="18"/>
-      <c r="E119" s="18"/>
+      <c r="A119" s="26"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="34"/>
+      <c r="D119" s="30"/>
+      <c r="E119" s="30"/>
       <c r="F119" s="3" t="s">
         <v>256</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="H119" s="31" t="s">
-        <v>434</v>
+      <c r="H119" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I119" s="3"/>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="14"/>
-      <c r="B120" s="27"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="16" t="s">
+      <c r="A120" s="26"/>
+      <c r="B120" s="23"/>
+      <c r="C120" s="34"/>
+      <c r="D120" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="E120" s="16" t="s">
+      <c r="E120" s="28" t="s">
         <v>119</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="G120" s="30" t="s">
+      <c r="G120" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="H120" s="31" t="s">
-        <v>434</v>
+      <c r="H120" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I120" s="3"/>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="14"/>
-      <c r="B121" s="27"/>
-      <c r="C121" s="12"/>
-      <c r="D121" s="17"/>
-      <c r="E121" s="17"/>
+      <c r="A121" s="26"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="34"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="29"/>
       <c r="F121" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="G121" s="29" t="s">
+      <c r="G121" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="H121" s="31" t="s">
-        <v>434</v>
+      <c r="H121" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I121" s="3"/>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="14"/>
-      <c r="B122" s="27"/>
-      <c r="C122" s="12"/>
-      <c r="D122" s="17"/>
-      <c r="E122" s="17"/>
+      <c r="A122" s="26"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="34"/>
+      <c r="D122" s="29"/>
+      <c r="E122" s="29"/>
       <c r="F122" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="G122" s="30" t="s">
+      <c r="G122" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="H122" s="31" t="s">
-        <v>434</v>
+      <c r="H122" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I122" s="3"/>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="14"/>
-      <c r="B123" s="27"/>
-      <c r="C123" s="12"/>
-      <c r="D123" s="17"/>
-      <c r="E123" s="17"/>
+      <c r="A123" s="26"/>
+      <c r="B123" s="23"/>
+      <c r="C123" s="34"/>
+      <c r="D123" s="29"/>
+      <c r="E123" s="29"/>
       <c r="F123" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="G123" s="30" t="s">
+      <c r="G123" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="H123" s="31" t="s">
-        <v>434</v>
+      <c r="H123" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I123" s="3"/>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="14"/>
-      <c r="B124" s="27"/>
-      <c r="C124" s="12"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="18"/>
+      <c r="A124" s="26"/>
+      <c r="B124" s="23"/>
+      <c r="C124" s="34"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="30"/>
       <c r="F124" s="3" t="s">
         <v>260</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="H124" s="31" t="s">
-        <v>434</v>
+      <c r="H124" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I124" s="3"/>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="14"/>
-      <c r="B125" s="27"/>
-      <c r="C125" s="12"/>
-      <c r="D125" s="16" t="s">
+      <c r="A125" s="26"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="34"/>
+      <c r="D125" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="E125" s="16" t="s">
+      <c r="E125" s="28" t="s">
         <v>120</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="G125" s="30" t="s">
+      <c r="G125" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="H125" s="31" t="s">
-        <v>434</v>
+      <c r="H125" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I125" s="3"/>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="14"/>
-      <c r="B126" s="27"/>
-      <c r="C126" s="12"/>
-      <c r="D126" s="17"/>
-      <c r="E126" s="17"/>
+      <c r="A126" s="26"/>
+      <c r="B126" s="23"/>
+      <c r="C126" s="34"/>
+      <c r="D126" s="29"/>
+      <c r="E126" s="29"/>
       <c r="F126" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="G126" s="29" t="s">
+      <c r="G126" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="H126" s="31" t="s">
-        <v>434</v>
+      <c r="H126" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I126" s="3"/>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="14"/>
-      <c r="B127" s="27"/>
-      <c r="C127" s="12"/>
-      <c r="D127" s="17"/>
-      <c r="E127" s="17"/>
+      <c r="A127" s="26"/>
+      <c r="B127" s="23"/>
+      <c r="C127" s="34"/>
+      <c r="D127" s="29"/>
+      <c r="E127" s="29"/>
       <c r="F127" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="G127" s="30" t="s">
+      <c r="G127" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="H127" s="31" t="s">
-        <v>434</v>
+      <c r="H127" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I127" s="3"/>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="14"/>
-      <c r="B128" s="27"/>
-      <c r="C128" s="12"/>
-      <c r="D128" s="17"/>
-      <c r="E128" s="17"/>
+      <c r="A128" s="26"/>
+      <c r="B128" s="23"/>
+      <c r="C128" s="34"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="29"/>
       <c r="F128" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="G128" s="30" t="s">
+      <c r="G128" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="H128" s="31" t="s">
-        <v>434</v>
+      <c r="H128" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I128" s="3"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="14"/>
-      <c r="B129" s="27"/>
-      <c r="C129" s="12"/>
-      <c r="D129" s="18"/>
-      <c r="E129" s="18"/>
+      <c r="A129" s="26"/>
+      <c r="B129" s="23"/>
+      <c r="C129" s="34"/>
+      <c r="D129" s="30"/>
+      <c r="E129" s="30"/>
       <c r="F129" s="3" t="s">
         <v>264</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="H129" s="31" t="s">
-        <v>434</v>
+      <c r="H129" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="I129" s="3"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="14"/>
-      <c r="B130" s="27"/>
-      <c r="C130" s="12"/>
-      <c r="D130" s="16" t="s">
+      <c r="A130" s="26"/>
+      <c r="B130" s="23"/>
+      <c r="C130" s="34"/>
+      <c r="D130" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="E130" s="16" t="s">
+      <c r="E130" s="28" t="s">
         <v>121</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>284</v>
       </c>
       <c r="G130" s="3"/>
-      <c r="H130" s="31"/>
+      <c r="H130" s="12"/>
       <c r="I130" s="3"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="14"/>
-      <c r="B131" s="27"/>
-      <c r="C131" s="12"/>
-      <c r="D131" s="17"/>
-      <c r="E131" s="17"/>
+      <c r="A131" s="26"/>
+      <c r="B131" s="23"/>
+      <c r="C131" s="34"/>
+      <c r="D131" s="29"/>
+      <c r="E131" s="29"/>
       <c r="F131" s="3" t="s">
         <v>344</v>
       </c>
       <c r="G131" s="3"/>
-      <c r="H131" s="31"/>
+      <c r="H131" s="12"/>
       <c r="I131" s="3"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="14"/>
-      <c r="B132" s="27"/>
-      <c r="C132" s="12"/>
-      <c r="D132" s="17"/>
-      <c r="E132" s="17"/>
+      <c r="A132" s="26"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="34"/>
+      <c r="D132" s="29"/>
+      <c r="E132" s="29"/>
       <c r="F132" s="3" t="s">
         <v>345</v>
       </c>
       <c r="G132" s="3"/>
-      <c r="H132" s="31"/>
+      <c r="H132" s="12"/>
       <c r="I132" s="3"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="14"/>
-      <c r="B133" s="27"/>
-      <c r="C133" s="12"/>
-      <c r="D133" s="18"/>
-      <c r="E133" s="18"/>
+      <c r="A133" s="26"/>
+      <c r="B133" s="23"/>
+      <c r="C133" s="34"/>
+      <c r="D133" s="30"/>
+      <c r="E133" s="30"/>
       <c r="F133" s="3" t="s">
         <v>346</v>
       </c>
       <c r="G133" s="3"/>
-      <c r="H133" s="31"/>
+      <c r="H133" s="12"/>
       <c r="I133" s="3"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="14"/>
-      <c r="B134" s="27"/>
-      <c r="C134" s="12"/>
-      <c r="D134" s="34" t="s">
+      <c r="A134" s="26"/>
+      <c r="B134" s="23"/>
+      <c r="C134" s="34"/>
+      <c r="D134" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="E134" s="33" t="s">
+      <c r="E134" s="38" t="s">
         <v>122</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>285</v>
       </c>
       <c r="G134" s="3"/>
-      <c r="H134" s="31"/>
+      <c r="H134" s="12"/>
       <c r="I134" s="3"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="14"/>
-      <c r="B135" s="27"/>
-      <c r="C135" s="12"/>
-      <c r="D135" s="35"/>
-      <c r="E135" s="33"/>
+      <c r="A135" s="26"/>
+      <c r="B135" s="23"/>
+      <c r="C135" s="34"/>
+      <c r="D135" s="36"/>
+      <c r="E135" s="38"/>
       <c r="F135" s="3" t="s">
         <v>347</v>
       </c>
       <c r="G135" s="3"/>
-      <c r="H135" s="31"/>
+      <c r="H135" s="12"/>
       <c r="I135" s="3"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="14"/>
-      <c r="B136" s="27"/>
-      <c r="C136" s="12"/>
-      <c r="D136" s="35"/>
-      <c r="E136" s="33"/>
+      <c r="A136" s="26"/>
+      <c r="B136" s="23"/>
+      <c r="C136" s="34"/>
+      <c r="D136" s="36"/>
+      <c r="E136" s="38"/>
       <c r="F136" s="3" t="s">
         <v>348</v>
       </c>
       <c r="G136" s="3"/>
-      <c r="H136" s="31"/>
+      <c r="H136" s="12"/>
       <c r="I136" s="3"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="14"/>
-      <c r="B137" s="27"/>
-      <c r="C137" s="12"/>
-      <c r="D137" s="36"/>
-      <c r="E137" s="33"/>
+      <c r="A137" s="26"/>
+      <c r="B137" s="23"/>
+      <c r="C137" s="34"/>
+      <c r="D137" s="37"/>
+      <c r="E137" s="38"/>
       <c r="F137" s="3" t="s">
         <v>349</v>
       </c>
       <c r="G137" s="3"/>
-      <c r="H137" s="31"/>
+      <c r="H137" s="12"/>
       <c r="I137" s="3"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="14"/>
-      <c r="B138" s="27"/>
-      <c r="C138" s="12"/>
-      <c r="D138" s="32"/>
-      <c r="E138" s="32"/>
+      <c r="A138" s="26"/>
+      <c r="B138" s="23"/>
+      <c r="C138" s="34"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
-      <c r="H138" s="31"/>
+      <c r="H138" s="12"/>
       <c r="I138" s="3"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="14"/>
-      <c r="B139" s="27"/>
-      <c r="C139" s="12"/>
-      <c r="D139" s="32"/>
-      <c r="E139" s="32"/>
+      <c r="A139" s="26"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="34"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="13"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
-      <c r="H139" s="31"/>
+      <c r="H139" s="12"/>
       <c r="I139" s="3"/>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="14"/>
-      <c r="B140" s="27"/>
-      <c r="C140" s="23" t="s">
+      <c r="A140" s="26"/>
+      <c r="B140" s="23"/>
+      <c r="C140" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="D140" s="16" t="s">
+      <c r="D140" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="E140" s="16" t="s">
+      <c r="E140" s="28" t="s">
         <v>123</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>286</v>
       </c>
       <c r="G140" s="3"/>
-      <c r="H140" s="31"/>
+      <c r="H140" s="12"/>
       <c r="I140" s="3"/>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="14"/>
-      <c r="B141" s="27"/>
-      <c r="C141" s="20"/>
-      <c r="D141" s="17"/>
-      <c r="E141" s="17"/>
+      <c r="A141" s="26"/>
+      <c r="B141" s="23"/>
+      <c r="C141" s="32"/>
+      <c r="D141" s="29"/>
+      <c r="E141" s="29"/>
       <c r="F141" s="3" t="s">
         <v>350</v>
       </c>
       <c r="G141" s="3"/>
-      <c r="H141" s="31"/>
+      <c r="H141" s="12"/>
       <c r="I141" s="3"/>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="14"/>
-      <c r="B142" s="27"/>
-      <c r="C142" s="20"/>
-      <c r="D142" s="17"/>
-      <c r="E142" s="17"/>
+      <c r="A142" s="26"/>
+      <c r="B142" s="23"/>
+      <c r="C142" s="32"/>
+      <c r="D142" s="29"/>
+      <c r="E142" s="29"/>
       <c r="F142" s="3" t="s">
         <v>351</v>
       </c>
       <c r="G142" s="3"/>
-      <c r="H142" s="31"/>
+      <c r="H142" s="12"/>
       <c r="I142" s="3"/>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="14"/>
-      <c r="B143" s="27"/>
-      <c r="C143" s="20"/>
-      <c r="D143" s="18"/>
-      <c r="E143" s="18"/>
+      <c r="A143" s="26"/>
+      <c r="B143" s="23"/>
+      <c r="C143" s="32"/>
+      <c r="D143" s="30"/>
+      <c r="E143" s="30"/>
       <c r="F143" s="3" t="s">
         <v>352</v>
       </c>
       <c r="G143" s="3"/>
-      <c r="H143" s="31"/>
+      <c r="H143" s="12"/>
       <c r="I143" s="3"/>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="14"/>
-      <c r="B144" s="27"/>
-      <c r="C144" s="20"/>
-      <c r="D144" s="16" t="s">
+      <c r="A144" s="26"/>
+      <c r="B144" s="23"/>
+      <c r="C144" s="32"/>
+      <c r="D144" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="E144" s="16" t="s">
+      <c r="E144" s="28" t="s">
         <v>124</v>
       </c>
       <c r="F144" s="3" t="s">
         <v>287</v>
       </c>
       <c r="G144" s="3"/>
-      <c r="H144" s="31"/>
+      <c r="H144" s="12"/>
       <c r="I144" s="3"/>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="14"/>
-      <c r="B145" s="27"/>
-      <c r="C145" s="20"/>
-      <c r="D145" s="17"/>
-      <c r="E145" s="17"/>
+      <c r="A145" s="26"/>
+      <c r="B145" s="23"/>
+      <c r="C145" s="32"/>
+      <c r="D145" s="29"/>
+      <c r="E145" s="29"/>
       <c r="F145" s="3" t="s">
         <v>353</v>
       </c>
       <c r="G145" s="3"/>
-      <c r="H145" s="31"/>
+      <c r="H145" s="12"/>
       <c r="I145" s="3"/>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="14"/>
-      <c r="B146" s="27"/>
-      <c r="C146" s="20"/>
-      <c r="D146" s="17"/>
-      <c r="E146" s="17"/>
+      <c r="A146" s="26"/>
+      <c r="B146" s="23"/>
+      <c r="C146" s="32"/>
+      <c r="D146" s="29"/>
+      <c r="E146" s="29"/>
       <c r="F146" s="3" t="s">
         <v>354</v>
       </c>
       <c r="G146" s="3"/>
-      <c r="H146" s="31"/>
+      <c r="H146" s="12"/>
       <c r="I146" s="3"/>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="14"/>
-      <c r="B147" s="27"/>
-      <c r="C147" s="20"/>
-      <c r="D147" s="18"/>
-      <c r="E147" s="18"/>
+      <c r="A147" s="26"/>
+      <c r="B147" s="23"/>
+      <c r="C147" s="32"/>
+      <c r="D147" s="30"/>
+      <c r="E147" s="30"/>
       <c r="F147" s="3" t="s">
         <v>355</v>
       </c>
       <c r="G147" s="3"/>
-      <c r="H147" s="31"/>
+      <c r="H147" s="12"/>
       <c r="I147" s="3"/>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="14"/>
-      <c r="B148" s="27"/>
-      <c r="C148" s="20"/>
-      <c r="D148" s="16" t="s">
+      <c r="A148" s="26"/>
+      <c r="B148" s="23"/>
+      <c r="C148" s="32"/>
+      <c r="D148" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="E148" s="16" t="s">
+      <c r="E148" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F148" s="3" t="s">
         <v>288</v>
       </c>
       <c r="G148" s="3"/>
-      <c r="H148" s="31"/>
+      <c r="H148" s="12"/>
       <c r="I148" s="3"/>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="14"/>
-      <c r="B149" s="27"/>
-      <c r="C149" s="20"/>
-      <c r="D149" s="17"/>
-      <c r="E149" s="17"/>
+      <c r="A149" s="26"/>
+      <c r="B149" s="23"/>
+      <c r="C149" s="32"/>
+      <c r="D149" s="29"/>
+      <c r="E149" s="29"/>
       <c r="F149" s="3" t="s">
         <v>356</v>
       </c>
       <c r="G149" s="3"/>
-      <c r="H149" s="31"/>
+      <c r="H149" s="12"/>
       <c r="I149" s="3"/>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="14"/>
-      <c r="B150" s="27"/>
-      <c r="C150" s="20"/>
-      <c r="D150" s="17"/>
-      <c r="E150" s="17"/>
+      <c r="A150" s="26"/>
+      <c r="B150" s="23"/>
+      <c r="C150" s="32"/>
+      <c r="D150" s="29"/>
+      <c r="E150" s="29"/>
       <c r="F150" s="3" t="s">
         <v>357</v>
       </c>
       <c r="G150" s="3"/>
-      <c r="H150" s="31"/>
+      <c r="H150" s="12"/>
       <c r="I150" s="3"/>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="14"/>
-      <c r="B151" s="27"/>
-      <c r="C151" s="20"/>
-      <c r="D151" s="18"/>
-      <c r="E151" s="18"/>
+      <c r="A151" s="26"/>
+      <c r="B151" s="23"/>
+      <c r="C151" s="32"/>
+      <c r="D151" s="30"/>
+      <c r="E151" s="30"/>
       <c r="F151" s="3" t="s">
         <v>358</v>
       </c>
       <c r="G151" s="3"/>
-      <c r="H151" s="31"/>
+      <c r="H151" s="12"/>
       <c r="I151" s="3"/>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="14"/>
-      <c r="B152" s="27"/>
-      <c r="C152" s="20"/>
-      <c r="D152" s="16" t="s">
+      <c r="A152" s="26"/>
+      <c r="B152" s="23"/>
+      <c r="C152" s="32"/>
+      <c r="D152" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="E152" s="16" t="s">
+      <c r="E152" s="28" t="s">
         <v>126</v>
       </c>
       <c r="F152" s="3" t="s">
         <v>289</v>
       </c>
       <c r="G152" s="3"/>
-      <c r="H152" s="31"/>
+      <c r="H152" s="12"/>
       <c r="I152" s="3"/>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="14"/>
-      <c r="B153" s="27"/>
-      <c r="C153" s="20"/>
-      <c r="D153" s="17"/>
-      <c r="E153" s="17"/>
+      <c r="A153" s="26"/>
+      <c r="B153" s="23"/>
+      <c r="C153" s="32"/>
+      <c r="D153" s="29"/>
+      <c r="E153" s="29"/>
       <c r="F153" s="3" t="s">
         <v>359</v>
       </c>
       <c r="G153" s="3"/>
-      <c r="H153" s="31"/>
+      <c r="H153" s="12"/>
       <c r="I153" s="3"/>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="14"/>
-      <c r="B154" s="27"/>
-      <c r="C154" s="20"/>
-      <c r="D154" s="17"/>
-      <c r="E154" s="17"/>
+      <c r="A154" s="26"/>
+      <c r="B154" s="23"/>
+      <c r="C154" s="32"/>
+      <c r="D154" s="29"/>
+      <c r="E154" s="29"/>
       <c r="F154" s="3" t="s">
         <v>360</v>
       </c>
       <c r="G154" s="3"/>
-      <c r="H154" s="31"/>
+      <c r="H154" s="12"/>
       <c r="I154" s="3"/>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="14"/>
-      <c r="B155" s="27"/>
-      <c r="C155" s="20"/>
-      <c r="D155" s="18"/>
-      <c r="E155" s="18"/>
+      <c r="A155" s="26"/>
+      <c r="B155" s="23"/>
+      <c r="C155" s="32"/>
+      <c r="D155" s="30"/>
+      <c r="E155" s="30"/>
       <c r="F155" s="3" t="s">
         <v>361</v>
       </c>
       <c r="G155" s="3"/>
-      <c r="H155" s="31"/>
+      <c r="H155" s="12"/>
       <c r="I155" s="3"/>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="14"/>
-      <c r="B156" s="27"/>
-      <c r="C156" s="20"/>
-      <c r="D156" s="32"/>
-      <c r="E156" s="32"/>
+      <c r="A156" s="26"/>
+      <c r="B156" s="23"/>
+      <c r="C156" s="32"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
-      <c r="H156" s="31"/>
+      <c r="H156" s="12"/>
       <c r="I156" s="3"/>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="14"/>
-      <c r="B157" s="27"/>
-      <c r="C157" s="21"/>
-      <c r="D157" s="32"/>
-      <c r="E157" s="32"/>
+      <c r="A157" s="26"/>
+      <c r="B157" s="23"/>
+      <c r="C157" s="33"/>
+      <c r="D157" s="13"/>
+      <c r="E157" s="13"/>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
-      <c r="H157" s="31"/>
+      <c r="H157" s="12"/>
       <c r="I157" s="3"/>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="14"/>
-      <c r="B158" s="27"/>
-      <c r="C158" s="12" t="s">
+      <c r="A158" s="26"/>
+      <c r="B158" s="23"/>
+      <c r="C158" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D158" s="16" t="s">
+      <c r="D158" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="E158" s="16" t="s">
+      <c r="E158" s="28" t="s">
         <v>129</v>
       </c>
       <c r="F158" s="3" t="s">
         <v>290</v>
       </c>
       <c r="G158" s="3"/>
-      <c r="H158" s="31"/>
+      <c r="H158" s="12"/>
       <c r="I158" s="3"/>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="14"/>
-      <c r="B159" s="27"/>
-      <c r="C159" s="12"/>
-      <c r="D159" s="17"/>
-      <c r="E159" s="17"/>
+      <c r="A159" s="26"/>
+      <c r="B159" s="23"/>
+      <c r="C159" s="34"/>
+      <c r="D159" s="29"/>
+      <c r="E159" s="29"/>
       <c r="F159" s="3" t="s">
         <v>362</v>
       </c>
       <c r="G159" s="3"/>
-      <c r="H159" s="31"/>
+      <c r="H159" s="12"/>
       <c r="I159" s="3"/>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="14"/>
-      <c r="B160" s="27"/>
-      <c r="C160" s="12"/>
-      <c r="D160" s="17"/>
-      <c r="E160" s="17"/>
+      <c r="A160" s="26"/>
+      <c r="B160" s="23"/>
+      <c r="C160" s="34"/>
+      <c r="D160" s="29"/>
+      <c r="E160" s="29"/>
       <c r="F160" s="3" t="s">
         <v>363</v>
       </c>
       <c r="G160" s="3"/>
-      <c r="H160" s="31"/>
+      <c r="H160" s="12"/>
       <c r="I160" s="3"/>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="14"/>
-      <c r="B161" s="27"/>
-      <c r="C161" s="12"/>
-      <c r="D161" s="18"/>
-      <c r="E161" s="18"/>
+      <c r="A161" s="26"/>
+      <c r="B161" s="23"/>
+      <c r="C161" s="34"/>
+      <c r="D161" s="30"/>
+      <c r="E161" s="30"/>
       <c r="F161" s="3" t="s">
         <v>364</v>
       </c>
       <c r="G161" s="3"/>
-      <c r="H161" s="31"/>
+      <c r="H161" s="12"/>
       <c r="I161" s="3"/>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="14"/>
-      <c r="B162" s="27"/>
-      <c r="C162" s="12"/>
-      <c r="D162" s="16" t="s">
+      <c r="A162" s="26"/>
+      <c r="B162" s="23"/>
+      <c r="C162" s="34"/>
+      <c r="D162" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="E162" s="16" t="s">
+      <c r="E162" s="28" t="s">
         <v>130</v>
       </c>
       <c r="F162" s="3" t="s">
         <v>291</v>
       </c>
       <c r="G162" s="3"/>
-      <c r="H162" s="31"/>
+      <c r="H162" s="12"/>
       <c r="I162" s="3"/>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" s="14"/>
-      <c r="B163" s="27"/>
-      <c r="C163" s="12"/>
-      <c r="D163" s="17"/>
-      <c r="E163" s="17"/>
+      <c r="A163" s="26"/>
+      <c r="B163" s="23"/>
+      <c r="C163" s="34"/>
+      <c r="D163" s="29"/>
+      <c r="E163" s="29"/>
       <c r="F163" s="3" t="s">
         <v>365</v>
       </c>
       <c r="G163" s="3"/>
-      <c r="H163" s="31"/>
+      <c r="H163" s="12"/>
       <c r="I163" s="3"/>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" s="14"/>
-      <c r="B164" s="27"/>
-      <c r="C164" s="12"/>
-      <c r="D164" s="17"/>
-      <c r="E164" s="17"/>
+      <c r="A164" s="26"/>
+      <c r="B164" s="23"/>
+      <c r="C164" s="34"/>
+      <c r="D164" s="29"/>
+      <c r="E164" s="29"/>
       <c r="F164" s="3" t="s">
         <v>366</v>
       </c>
       <c r="G164" s="3"/>
-      <c r="H164" s="31"/>
+      <c r="H164" s="12"/>
       <c r="I164" s="3"/>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="14"/>
-      <c r="B165" s="27"/>
-      <c r="C165" s="12"/>
-      <c r="D165" s="18"/>
-      <c r="E165" s="18"/>
+      <c r="A165" s="26"/>
+      <c r="B165" s="23"/>
+      <c r="C165" s="34"/>
+      <c r="D165" s="30"/>
+      <c r="E165" s="30"/>
       <c r="F165" s="3" t="s">
         <v>367</v>
       </c>
       <c r="G165" s="3"/>
-      <c r="H165" s="31"/>
+      <c r="H165" s="12"/>
       <c r="I165" s="3"/>
     </row>
     <row r="166" spans="1:9">
-      <c r="A166" s="14"/>
-      <c r="B166" s="27"/>
-      <c r="C166" s="12"/>
-      <c r="D166" s="33" t="s">
+      <c r="A166" s="26"/>
+      <c r="B166" s="23"/>
+      <c r="C166" s="34"/>
+      <c r="D166" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="E166" s="33" t="s">
+      <c r="E166" s="38" t="s">
         <v>127</v>
       </c>
       <c r="F166" s="3" t="s">
         <v>292</v>
       </c>
       <c r="G166" s="3"/>
-      <c r="H166" s="31"/>
+      <c r="H166" s="12"/>
       <c r="I166" s="3"/>
     </row>
     <row r="167" spans="1:9">
-      <c r="A167" s="14"/>
-      <c r="B167" s="27"/>
-      <c r="C167" s="12"/>
-      <c r="D167" s="33"/>
-      <c r="E167" s="33"/>
+      <c r="A167" s="26"/>
+      <c r="B167" s="23"/>
+      <c r="C167" s="34"/>
+      <c r="D167" s="38"/>
+      <c r="E167" s="38"/>
       <c r="F167" s="3" t="s">
         <v>368</v>
       </c>
       <c r="G167" s="3"/>
-      <c r="H167" s="31"/>
+      <c r="H167" s="12"/>
       <c r="I167" s="3"/>
     </row>
     <row r="168" spans="1:9">
-      <c r="A168" s="14"/>
-      <c r="B168" s="27"/>
-      <c r="C168" s="12"/>
-      <c r="D168" s="33"/>
-      <c r="E168" s="33"/>
+      <c r="A168" s="26"/>
+      <c r="B168" s="23"/>
+      <c r="C168" s="34"/>
+      <c r="D168" s="38"/>
+      <c r="E168" s="38"/>
       <c r="F168" s="3" t="s">
         <v>369</v>
       </c>
       <c r="G168" s="3"/>
-      <c r="H168" s="31"/>
+      <c r="H168" s="12"/>
       <c r="I168" s="3"/>
     </row>
     <row r="169" spans="1:9">
-      <c r="A169" s="14"/>
-      <c r="B169" s="27"/>
-      <c r="C169" s="12"/>
-      <c r="D169" s="33"/>
-      <c r="E169" s="33"/>
+      <c r="A169" s="26"/>
+      <c r="B169" s="23"/>
+      <c r="C169" s="34"/>
+      <c r="D169" s="38"/>
+      <c r="E169" s="38"/>
       <c r="F169" s="3" t="s">
         <v>370</v>
       </c>
       <c r="G169" s="3"/>
-      <c r="H169" s="31"/>
+      <c r="H169" s="12"/>
       <c r="I169" s="3"/>
     </row>
     <row r="170" spans="1:9">
-      <c r="A170" s="14"/>
-      <c r="B170" s="27"/>
-      <c r="C170" s="12"/>
-      <c r="D170" s="33" t="s">
+      <c r="A170" s="26"/>
+      <c r="B170" s="23"/>
+      <c r="C170" s="34"/>
+      <c r="D170" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="E170" s="33" t="s">
+      <c r="E170" s="38" t="s">
         <v>128</v>
       </c>
       <c r="F170" s="3" t="s">
         <v>293</v>
       </c>
       <c r="G170" s="3"/>
-      <c r="H170" s="31"/>
+      <c r="H170" s="12"/>
       <c r="I170" s="3"/>
     </row>
     <row r="171" spans="1:9">
-      <c r="A171" s="14"/>
-      <c r="B171" s="27"/>
-      <c r="C171" s="12"/>
-      <c r="D171" s="33"/>
-      <c r="E171" s="33"/>
+      <c r="A171" s="26"/>
+      <c r="B171" s="23"/>
+      <c r="C171" s="34"/>
+      <c r="D171" s="38"/>
+      <c r="E171" s="38"/>
       <c r="F171" s="3" t="s">
         <v>371</v>
       </c>
       <c r="G171" s="3"/>
-      <c r="H171" s="31"/>
+      <c r="H171" s="12"/>
       <c r="I171" s="3"/>
     </row>
     <row r="172" spans="1:9">
-      <c r="A172" s="14"/>
-      <c r="B172" s="27"/>
-      <c r="C172" s="12"/>
-      <c r="D172" s="33"/>
-      <c r="E172" s="33"/>
+      <c r="A172" s="26"/>
+      <c r="B172" s="23"/>
+      <c r="C172" s="34"/>
+      <c r="D172" s="38"/>
+      <c r="E172" s="38"/>
       <c r="F172" s="3" t="s">
         <v>372</v>
       </c>
       <c r="G172" s="3"/>
-      <c r="H172" s="31"/>
+      <c r="H172" s="12"/>
       <c r="I172" s="3"/>
     </row>
     <row r="173" spans="1:9">
-      <c r="A173" s="14"/>
-      <c r="B173" s="27"/>
-      <c r="C173" s="12"/>
-      <c r="D173" s="33"/>
-      <c r="E173" s="33"/>
+      <c r="A173" s="26"/>
+      <c r="B173" s="23"/>
+      <c r="C173" s="34"/>
+      <c r="D173" s="38"/>
+      <c r="E173" s="38"/>
       <c r="F173" s="3" t="s">
         <v>373</v>
       </c>
       <c r="G173" s="3"/>
-      <c r="H173" s="31"/>
+      <c r="H173" s="12"/>
       <c r="I173" s="3"/>
     </row>
     <row r="174" spans="1:9">
-      <c r="A174" s="14"/>
-      <c r="B174" s="27"/>
-      <c r="C174" s="12"/>
-      <c r="D174" s="32"/>
-      <c r="E174" s="32"/>
+      <c r="A174" s="26"/>
+      <c r="B174" s="23"/>
+      <c r="C174" s="34"/>
+      <c r="D174" s="13"/>
+      <c r="E174" s="13"/>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
-      <c r="H174" s="31"/>
+      <c r="H174" s="12"/>
       <c r="I174" s="3"/>
     </row>
     <row r="175" spans="1:9">
-      <c r="A175" s="14"/>
-      <c r="B175" s="27"/>
-      <c r="C175" s="12"/>
-      <c r="D175" s="32"/>
-      <c r="E175" s="32"/>
+      <c r="A175" s="26"/>
+      <c r="B175" s="23"/>
+      <c r="C175" s="34"/>
+      <c r="D175" s="13"/>
+      <c r="E175" s="13"/>
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
-      <c r="H175" s="31"/>
+      <c r="H175" s="12"/>
       <c r="I175" s="3"/>
     </row>
     <row r="176" spans="1:9">
-      <c r="A176" s="14"/>
-      <c r="B176" s="27"/>
-      <c r="C176" s="23" t="s">
+      <c r="A176" s="26"/>
+      <c r="B176" s="23"/>
+      <c r="C176" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="D176" s="16" t="s">
+      <c r="D176" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="E176" s="16"/>
+      <c r="E176" s="28"/>
       <c r="F176" s="3" t="s">
         <v>401</v>
       </c>
       <c r="G176" s="3"/>
-      <c r="H176" s="31"/>
+      <c r="H176" s="12"/>
       <c r="I176" s="3"/>
     </row>
     <row r="177" spans="1:9">
-      <c r="A177" s="14"/>
-      <c r="B177" s="27"/>
-      <c r="C177" s="20"/>
-      <c r="D177" s="17"/>
-      <c r="E177" s="17"/>
+      <c r="A177" s="26"/>
+      <c r="B177" s="23"/>
+      <c r="C177" s="32"/>
+      <c r="D177" s="29"/>
+      <c r="E177" s="29"/>
       <c r="F177" s="3" t="s">
         <v>402</v>
       </c>
       <c r="G177" s="3"/>
-      <c r="H177" s="31"/>
+      <c r="H177" s="12"/>
       <c r="I177" s="3"/>
     </row>
     <row r="178" spans="1:9">
-      <c r="A178" s="14"/>
-      <c r="B178" s="27"/>
-      <c r="C178" s="20"/>
-      <c r="D178" s="17"/>
-      <c r="E178" s="17"/>
+      <c r="A178" s="26"/>
+      <c r="B178" s="23"/>
+      <c r="C178" s="32"/>
+      <c r="D178" s="29"/>
+      <c r="E178" s="29"/>
       <c r="F178" s="3" t="s">
         <v>403</v>
       </c>
       <c r="G178" s="3"/>
-      <c r="H178" s="31"/>
+      <c r="H178" s="12"/>
       <c r="I178" s="3"/>
     </row>
     <row r="179" spans="1:9">
-      <c r="A179" s="14"/>
-      <c r="B179" s="27"/>
-      <c r="C179" s="20"/>
-      <c r="D179" s="18"/>
-      <c r="E179" s="18"/>
+      <c r="A179" s="26"/>
+      <c r="B179" s="23"/>
+      <c r="C179" s="32"/>
+      <c r="D179" s="30"/>
+      <c r="E179" s="30"/>
       <c r="F179" s="3" t="s">
         <v>404</v>
       </c>
       <c r="G179" s="3"/>
-      <c r="H179" s="31"/>
+      <c r="H179" s="12"/>
       <c r="I179" s="3"/>
     </row>
     <row r="180" spans="1:9">
-      <c r="A180" s="14"/>
-      <c r="B180" s="27"/>
-      <c r="C180" s="20"/>
-      <c r="D180" s="16" t="s">
+      <c r="A180" s="26"/>
+      <c r="B180" s="23"/>
+      <c r="C180" s="32"/>
+      <c r="D180" s="28" t="s">
         <v>398</v>
       </c>
-      <c r="E180" s="16"/>
+      <c r="E180" s="28"/>
       <c r="F180" s="3" t="s">
         <v>405</v>
       </c>
       <c r="G180" s="3"/>
-      <c r="H180" s="31"/>
+      <c r="H180" s="12"/>
       <c r="I180" s="3"/>
     </row>
     <row r="181" spans="1:9">
-      <c r="A181" s="14"/>
-      <c r="B181" s="27"/>
-      <c r="C181" s="20"/>
-      <c r="D181" s="17"/>
-      <c r="E181" s="17"/>
+      <c r="A181" s="26"/>
+      <c r="B181" s="23"/>
+      <c r="C181" s="32"/>
+      <c r="D181" s="29"/>
+      <c r="E181" s="29"/>
       <c r="F181" s="3" t="s">
         <v>414</v>
       </c>
       <c r="G181" s="3"/>
-      <c r="H181" s="31"/>
+      <c r="H181" s="12"/>
       <c r="I181" s="3"/>
     </row>
     <row r="182" spans="1:9">
-      <c r="A182" s="14"/>
-      <c r="B182" s="27"/>
-      <c r="C182" s="20"/>
-      <c r="D182" s="17"/>
-      <c r="E182" s="17"/>
+      <c r="A182" s="26"/>
+      <c r="B182" s="23"/>
+      <c r="C182" s="32"/>
+      <c r="D182" s="29"/>
+      <c r="E182" s="29"/>
       <c r="F182" s="3" t="s">
         <v>415</v>
       </c>
       <c r="G182" s="3"/>
-      <c r="H182" s="31"/>
+      <c r="H182" s="12"/>
       <c r="I182" s="3"/>
     </row>
     <row r="183" spans="1:9">
-      <c r="A183" s="14"/>
-      <c r="B183" s="27"/>
-      <c r="C183" s="20"/>
-      <c r="D183" s="18"/>
-      <c r="E183" s="18"/>
+      <c r="A183" s="26"/>
+      <c r="B183" s="23"/>
+      <c r="C183" s="32"/>
+      <c r="D183" s="30"/>
+      <c r="E183" s="30"/>
       <c r="F183" s="3" t="s">
         <v>416</v>
       </c>
       <c r="G183" s="3"/>
-      <c r="H183" s="31"/>
+      <c r="H183" s="12"/>
       <c r="I183" s="3"/>
     </row>
     <row r="184" spans="1:9">
-      <c r="A184" s="14"/>
-      <c r="B184" s="27"/>
-      <c r="C184" s="20"/>
-      <c r="D184" s="16" t="s">
+      <c r="A184" s="26"/>
+      <c r="B184" s="23"/>
+      <c r="C184" s="32"/>
+      <c r="D184" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="E184" s="16"/>
+      <c r="E184" s="28"/>
       <c r="F184" s="3" t="s">
         <v>406</v>
       </c>
       <c r="G184" s="3"/>
-      <c r="H184" s="31"/>
+      <c r="H184" s="12"/>
       <c r="I184" s="3"/>
     </row>
     <row r="185" spans="1:9">
-      <c r="A185" s="14"/>
-      <c r="B185" s="27"/>
-      <c r="C185" s="20"/>
-      <c r="D185" s="17"/>
-      <c r="E185" s="17"/>
+      <c r="A185" s="26"/>
+      <c r="B185" s="23"/>
+      <c r="C185" s="32"/>
+      <c r="D185" s="29"/>
+      <c r="E185" s="29"/>
       <c r="F185" s="3" t="s">
         <v>408</v>
       </c>
       <c r="G185" s="3"/>
-      <c r="H185" s="31"/>
+      <c r="H185" s="12"/>
       <c r="I185" s="3"/>
     </row>
     <row r="186" spans="1:9">
-      <c r="A186" s="14"/>
-      <c r="B186" s="27"/>
-      <c r="C186" s="20"/>
-      <c r="D186" s="17"/>
-      <c r="E186" s="17"/>
+      <c r="A186" s="26"/>
+      <c r="B186" s="23"/>
+      <c r="C186" s="32"/>
+      <c r="D186" s="29"/>
+      <c r="E186" s="29"/>
       <c r="F186" s="3" t="s">
         <v>409</v>
       </c>
       <c r="G186" s="3"/>
-      <c r="H186" s="31"/>
+      <c r="H186" s="12"/>
       <c r="I186" s="3"/>
     </row>
     <row r="187" spans="1:9">
-      <c r="A187" s="14"/>
-      <c r="B187" s="27"/>
-      <c r="C187" s="20"/>
-      <c r="D187" s="18"/>
-      <c r="E187" s="18"/>
+      <c r="A187" s="26"/>
+      <c r="B187" s="23"/>
+      <c r="C187" s="32"/>
+      <c r="D187" s="30"/>
+      <c r="E187" s="30"/>
       <c r="F187" s="3" t="s">
         <v>410</v>
       </c>
       <c r="G187" s="3"/>
-      <c r="H187" s="31"/>
+      <c r="H187" s="12"/>
       <c r="I187" s="3"/>
     </row>
     <row r="188" spans="1:9">
-      <c r="A188" s="14"/>
-      <c r="B188" s="27"/>
-      <c r="C188" s="20"/>
-      <c r="D188" s="16" t="s">
+      <c r="A188" s="26"/>
+      <c r="B188" s="23"/>
+      <c r="C188" s="32"/>
+      <c r="D188" s="28" t="s">
         <v>400</v>
       </c>
-      <c r="E188" s="16"/>
+      <c r="E188" s="28"/>
       <c r="F188" s="3" t="s">
         <v>407</v>
       </c>
       <c r="G188" s="3"/>
-      <c r="H188" s="31"/>
+      <c r="H188" s="12"/>
       <c r="I188" s="3"/>
     </row>
     <row r="189" spans="1:9">
-      <c r="A189" s="14"/>
-      <c r="B189" s="27"/>
-      <c r="C189" s="20"/>
-      <c r="D189" s="17"/>
-      <c r="E189" s="17"/>
+      <c r="A189" s="26"/>
+      <c r="B189" s="23"/>
+      <c r="C189" s="32"/>
+      <c r="D189" s="29"/>
+      <c r="E189" s="29"/>
       <c r="F189" s="3" t="s">
         <v>411</v>
       </c>
       <c r="G189" s="3"/>
-      <c r="H189" s="31"/>
+      <c r="H189" s="12"/>
       <c r="I189" s="3"/>
     </row>
     <row r="190" spans="1:9">
-      <c r="A190" s="14"/>
-      <c r="B190" s="27"/>
-      <c r="C190" s="20"/>
-      <c r="D190" s="17"/>
-      <c r="E190" s="17"/>
+      <c r="A190" s="26"/>
+      <c r="B190" s="23"/>
+      <c r="C190" s="32"/>
+      <c r="D190" s="29"/>
+      <c r="E190" s="29"/>
       <c r="F190" s="3" t="s">
         <v>412</v>
       </c>
       <c r="G190" s="3"/>
-      <c r="H190" s="31"/>
+      <c r="H190" s="12"/>
       <c r="I190" s="3"/>
     </row>
     <row r="191" spans="1:9">
-      <c r="A191" s="14"/>
-      <c r="B191" s="27"/>
-      <c r="C191" s="20"/>
-      <c r="D191" s="18"/>
-      <c r="E191" s="18"/>
+      <c r="A191" s="26"/>
+      <c r="B191" s="23"/>
+      <c r="C191" s="32"/>
+      <c r="D191" s="30"/>
+      <c r="E191" s="30"/>
       <c r="F191" s="3" t="s">
         <v>413</v>
       </c>
       <c r="G191" s="3"/>
-      <c r="H191" s="31"/>
+      <c r="H191" s="12"/>
       <c r="I191" s="3"/>
     </row>
     <row r="192" spans="1:9">
-      <c r="A192" s="14"/>
-      <c r="B192" s="27"/>
-      <c r="C192" s="20"/>
-      <c r="D192" s="32"/>
-      <c r="E192" s="32"/>
+      <c r="A192" s="26"/>
+      <c r="B192" s="23"/>
+      <c r="C192" s="32"/>
+      <c r="D192" s="13"/>
+      <c r="E192" s="13"/>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
-      <c r="H192" s="31"/>
+      <c r="H192" s="12"/>
       <c r="I192" s="3"/>
     </row>
     <row r="193" spans="1:9">
-      <c r="A193" s="14"/>
-      <c r="B193" s="27"/>
-      <c r="C193" s="21"/>
-      <c r="D193" s="32"/>
-      <c r="E193" s="32"/>
+      <c r="A193" s="26"/>
+      <c r="B193" s="23"/>
+      <c r="C193" s="33"/>
+      <c r="D193" s="13"/>
+      <c r="E193" s="13"/>
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
-      <c r="H193" s="31"/>
+      <c r="H193" s="12"/>
       <c r="I193" s="3"/>
     </row>
     <row r="194" spans="1:9">
-      <c r="A194" s="14"/>
-      <c r="B194" s="27"/>
-      <c r="C194" s="12" t="s">
+      <c r="A194" s="26"/>
+      <c r="B194" s="23"/>
+      <c r="C194" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="D194" s="16" t="s">
+      <c r="D194" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="E194" s="16" t="s">
+      <c r="E194" s="28" t="s">
         <v>134</v>
       </c>
       <c r="F194" s="3" t="s">
         <v>294</v>
       </c>
       <c r="G194" s="3"/>
-      <c r="H194" s="31"/>
+      <c r="H194" s="12"/>
       <c r="I194" s="3"/>
     </row>
     <row r="195" spans="1:9">
-      <c r="A195" s="14"/>
-      <c r="B195" s="27"/>
-      <c r="C195" s="12"/>
-      <c r="D195" s="17"/>
-      <c r="E195" s="17"/>
+      <c r="A195" s="26"/>
+      <c r="B195" s="23"/>
+      <c r="C195" s="34"/>
+      <c r="D195" s="29"/>
+      <c r="E195" s="29"/>
       <c r="F195" s="3" t="s">
         <v>374</v>
       </c>
       <c r="G195" s="3"/>
-      <c r="H195" s="31"/>
+      <c r="H195" s="12"/>
       <c r="I195" s="3"/>
     </row>
     <row r="196" spans="1:9">
-      <c r="A196" s="14"/>
-      <c r="B196" s="27"/>
-      <c r="C196" s="12"/>
-      <c r="D196" s="17"/>
-      <c r="E196" s="17"/>
+      <c r="A196" s="26"/>
+      <c r="B196" s="23"/>
+      <c r="C196" s="34"/>
+      <c r="D196" s="29"/>
+      <c r="E196" s="29"/>
       <c r="F196" s="3" t="s">
         <v>375</v>
       </c>
       <c r="G196" s="3"/>
-      <c r="H196" s="31"/>
+      <c r="H196" s="12"/>
       <c r="I196" s="3"/>
     </row>
     <row r="197" spans="1:9">
-      <c r="A197" s="14"/>
-      <c r="B197" s="27"/>
-      <c r="C197" s="12"/>
-      <c r="D197" s="18"/>
-      <c r="E197" s="18"/>
+      <c r="A197" s="26"/>
+      <c r="B197" s="23"/>
+      <c r="C197" s="34"/>
+      <c r="D197" s="30"/>
+      <c r="E197" s="30"/>
       <c r="F197" s="3" t="s">
         <v>376</v>
       </c>
       <c r="G197" s="3"/>
-      <c r="H197" s="31"/>
+      <c r="H197" s="12"/>
       <c r="I197" s="3"/>
     </row>
     <row r="198" spans="1:9">
-      <c r="A198" s="14"/>
-      <c r="B198" s="27"/>
-      <c r="C198" s="12"/>
-      <c r="D198" s="16" t="s">
+      <c r="A198" s="26"/>
+      <c r="B198" s="23"/>
+      <c r="C198" s="34"/>
+      <c r="D198" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="E198" s="16" t="s">
+      <c r="E198" s="28" t="s">
         <v>135</v>
       </c>
       <c r="F198" s="3" t="s">
         <v>295</v>
       </c>
       <c r="G198" s="3"/>
-      <c r="H198" s="31"/>
+      <c r="H198" s="12"/>
       <c r="I198" s="3"/>
     </row>
     <row r="199" spans="1:9">
-      <c r="A199" s="14"/>
-      <c r="B199" s="27"/>
-      <c r="C199" s="12"/>
-      <c r="D199" s="17"/>
-      <c r="E199" s="17"/>
+      <c r="A199" s="26"/>
+      <c r="B199" s="23"/>
+      <c r="C199" s="34"/>
+      <c r="D199" s="29"/>
+      <c r="E199" s="29"/>
       <c r="F199" s="3" t="s">
         <v>377</v>
       </c>
       <c r="G199" s="3"/>
-      <c r="H199" s="31"/>
+      <c r="H199" s="12"/>
       <c r="I199" s="3"/>
     </row>
     <row r="200" spans="1:9">
-      <c r="A200" s="14"/>
-      <c r="B200" s="27"/>
-      <c r="C200" s="12"/>
-      <c r="D200" s="17"/>
-      <c r="E200" s="17"/>
+      <c r="A200" s="26"/>
+      <c r="B200" s="23"/>
+      <c r="C200" s="34"/>
+      <c r="D200" s="29"/>
+      <c r="E200" s="29"/>
       <c r="F200" s="3" t="s">
         <v>378</v>
       </c>
       <c r="G200" s="3"/>
-      <c r="H200" s="31"/>
+      <c r="H200" s="12"/>
       <c r="I200" s="3"/>
     </row>
     <row r="201" spans="1:9">
-      <c r="A201" s="14"/>
-      <c r="B201" s="27"/>
-      <c r="C201" s="12"/>
-      <c r="D201" s="18"/>
-      <c r="E201" s="18"/>
+      <c r="A201" s="26"/>
+      <c r="B201" s="23"/>
+      <c r="C201" s="34"/>
+      <c r="D201" s="30"/>
+      <c r="E201" s="30"/>
       <c r="F201" s="3" t="s">
         <v>379</v>
       </c>
       <c r="G201" s="3"/>
-      <c r="H201" s="31"/>
+      <c r="H201" s="12"/>
       <c r="I201" s="3"/>
     </row>
     <row r="202" spans="1:9">
-      <c r="A202" s="14"/>
-      <c r="B202" s="27"/>
-      <c r="C202" s="12"/>
-      <c r="D202" s="16" t="s">
+      <c r="A202" s="26"/>
+      <c r="B202" s="23"/>
+      <c r="C202" s="34"/>
+      <c r="D202" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="E202" s="16" t="s">
+      <c r="E202" s="28" t="s">
         <v>133</v>
       </c>
       <c r="F202" s="3" t="s">
         <v>296</v>
       </c>
       <c r="G202" s="3"/>
-      <c r="H202" s="31"/>
+      <c r="H202" s="12"/>
       <c r="I202" s="3"/>
     </row>
     <row r="203" spans="1:9">
-      <c r="A203" s="14"/>
-      <c r="B203" s="27"/>
-      <c r="C203" s="12"/>
-      <c r="D203" s="17"/>
-      <c r="E203" s="17"/>
+      <c r="A203" s="26"/>
+      <c r="B203" s="23"/>
+      <c r="C203" s="34"/>
+      <c r="D203" s="29"/>
+      <c r="E203" s="29"/>
       <c r="F203" s="3" t="s">
         <v>380</v>
       </c>
       <c r="G203" s="3"/>
-      <c r="H203" s="31"/>
+      <c r="H203" s="12"/>
       <c r="I203" s="3"/>
     </row>
     <row r="204" spans="1:9">
-      <c r="A204" s="14"/>
-      <c r="B204" s="27"/>
-      <c r="C204" s="12"/>
-      <c r="D204" s="17"/>
-      <c r="E204" s="17"/>
+      <c r="A204" s="26"/>
+      <c r="B204" s="23"/>
+      <c r="C204" s="34"/>
+      <c r="D204" s="29"/>
+      <c r="E204" s="29"/>
       <c r="F204" s="3" t="s">
         <v>381</v>
       </c>
       <c r="G204" s="3"/>
-      <c r="H204" s="31"/>
+      <c r="H204" s="12"/>
       <c r="I204" s="3"/>
     </row>
     <row r="205" spans="1:9">
-      <c r="A205" s="14"/>
-      <c r="B205" s="27"/>
-      <c r="C205" s="12"/>
-      <c r="D205" s="18"/>
-      <c r="E205" s="18"/>
+      <c r="A205" s="26"/>
+      <c r="B205" s="23"/>
+      <c r="C205" s="34"/>
+      <c r="D205" s="30"/>
+      <c r="E205" s="30"/>
       <c r="F205" s="3" t="s">
         <v>382</v>
       </c>
       <c r="G205" s="3"/>
-      <c r="H205" s="31"/>
+      <c r="H205" s="12"/>
       <c r="I205" s="3"/>
     </row>
     <row r="206" spans="1:9">
-      <c r="A206" s="14"/>
-      <c r="B206" s="27"/>
-      <c r="C206" s="12"/>
-      <c r="D206" s="16" t="s">
+      <c r="A206" s="26"/>
+      <c r="B206" s="23"/>
+      <c r="C206" s="34"/>
+      <c r="D206" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="E206" s="16" t="s">
+      <c r="E206" s="28" t="s">
         <v>132</v>
       </c>
       <c r="F206" s="3" t="s">
         <v>297</v>
       </c>
       <c r="G206" s="3"/>
-      <c r="H206" s="31"/>
+      <c r="H206" s="12"/>
       <c r="I206" s="3"/>
     </row>
     <row r="207" spans="1:9">
-      <c r="A207" s="14"/>
-      <c r="B207" s="27"/>
-      <c r="C207" s="12"/>
-      <c r="D207" s="17"/>
-      <c r="E207" s="17"/>
+      <c r="A207" s="26"/>
+      <c r="B207" s="23"/>
+      <c r="C207" s="34"/>
+      <c r="D207" s="29"/>
+      <c r="E207" s="29"/>
       <c r="F207" s="3" t="s">
         <v>383</v>
       </c>
       <c r="G207" s="3"/>
-      <c r="H207" s="31"/>
+      <c r="H207" s="12"/>
       <c r="I207" s="3"/>
     </row>
     <row r="208" spans="1:9">
-      <c r="A208" s="14"/>
-      <c r="B208" s="27"/>
-      <c r="C208" s="12"/>
-      <c r="D208" s="17"/>
-      <c r="E208" s="17"/>
+      <c r="A208" s="26"/>
+      <c r="B208" s="23"/>
+      <c r="C208" s="34"/>
+      <c r="D208" s="29"/>
+      <c r="E208" s="29"/>
       <c r="F208" s="3" t="s">
         <v>384</v>
       </c>
       <c r="G208" s="3"/>
-      <c r="H208" s="31"/>
+      <c r="H208" s="12"/>
       <c r="I208" s="3"/>
     </row>
     <row r="209" spans="1:9">
-      <c r="A209" s="14"/>
-      <c r="B209" s="27"/>
-      <c r="C209" s="12"/>
-      <c r="D209" s="18"/>
-      <c r="E209" s="18"/>
+      <c r="A209" s="26"/>
+      <c r="B209" s="23"/>
+      <c r="C209" s="34"/>
+      <c r="D209" s="30"/>
+      <c r="E209" s="30"/>
       <c r="F209" s="3" t="s">
         <v>385</v>
       </c>
       <c r="G209" s="3"/>
-      <c r="H209" s="31"/>
+      <c r="H209" s="12"/>
       <c r="I209" s="3"/>
     </row>
     <row r="210" spans="1:9">
-      <c r="A210" s="14"/>
-      <c r="B210" s="27"/>
-      <c r="C210" s="12"/>
-      <c r="D210" s="34" t="s">
+      <c r="A210" s="26"/>
+      <c r="B210" s="23"/>
+      <c r="C210" s="34"/>
+      <c r="D210" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="E210" s="33" t="s">
+      <c r="E210" s="38" t="s">
         <v>131</v>
       </c>
       <c r="F210" s="3" t="s">
         <v>298</v>
       </c>
       <c r="G210" s="3"/>
-      <c r="H210" s="31"/>
+      <c r="H210" s="12"/>
       <c r="I210" s="3"/>
     </row>
     <row r="211" spans="1:9">
-      <c r="A211" s="14"/>
-      <c r="B211" s="27"/>
-      <c r="C211" s="12"/>
-      <c r="D211" s="35"/>
-      <c r="E211" s="33"/>
+      <c r="A211" s="26"/>
+      <c r="B211" s="23"/>
+      <c r="C211" s="34"/>
+      <c r="D211" s="36"/>
+      <c r="E211" s="38"/>
       <c r="F211" s="3" t="s">
         <v>386</v>
       </c>
       <c r="G211" s="3"/>
-      <c r="H211" s="31"/>
+      <c r="H211" s="12"/>
       <c r="I211" s="3"/>
     </row>
     <row r="212" spans="1:9">
-      <c r="A212" s="14"/>
-      <c r="B212" s="27"/>
-      <c r="C212" s="12"/>
-      <c r="D212" s="35"/>
-      <c r="E212" s="33"/>
+      <c r="A212" s="26"/>
+      <c r="B212" s="23"/>
+      <c r="C212" s="34"/>
+      <c r="D212" s="36"/>
+      <c r="E212" s="38"/>
       <c r="F212" s="3" t="s">
         <v>387</v>
       </c>
       <c r="G212" s="3"/>
-      <c r="H212" s="31"/>
+      <c r="H212" s="12"/>
       <c r="I212" s="3"/>
     </row>
     <row r="213" spans="1:9">
-      <c r="A213" s="14"/>
-      <c r="B213" s="27"/>
-      <c r="C213" s="12"/>
-      <c r="D213" s="36"/>
-      <c r="E213" s="33"/>
+      <c r="A213" s="26"/>
+      <c r="B213" s="23"/>
+      <c r="C213" s="34"/>
+      <c r="D213" s="37"/>
+      <c r="E213" s="38"/>
       <c r="F213" s="3" t="s">
         <v>388</v>
       </c>
       <c r="G213" s="3"/>
-      <c r="H213" s="31"/>
+      <c r="H213" s="12"/>
       <c r="I213" s="3"/>
     </row>
     <row r="214" spans="1:9">
-      <c r="A214" s="14"/>
-      <c r="B214" s="27"/>
-      <c r="C214" s="12"/>
-      <c r="D214" s="32"/>
-      <c r="E214" s="32"/>
+      <c r="A214" s="26"/>
+      <c r="B214" s="23"/>
+      <c r="C214" s="34"/>
+      <c r="D214" s="13"/>
+      <c r="E214" s="13"/>
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
-      <c r="H214" s="31"/>
+      <c r="H214" s="12"/>
       <c r="I214" s="3"/>
     </row>
     <row r="215" spans="1:9">
-      <c r="A215" s="14"/>
-      <c r="B215" s="27"/>
-      <c r="C215" s="12"/>
-      <c r="D215" s="32"/>
-      <c r="E215" s="32"/>
+      <c r="A215" s="26"/>
+      <c r="B215" s="23"/>
+      <c r="C215" s="34"/>
+      <c r="D215" s="13"/>
+      <c r="E215" s="13"/>
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
-      <c r="H215" s="31"/>
+      <c r="H215" s="12"/>
       <c r="I215" s="3"/>
     </row>
     <row r="216" spans="1:9">
-      <c r="A216" s="14"/>
-      <c r="B216" s="27"/>
-      <c r="C216" s="12" t="s">
+      <c r="A216" s="26"/>
+      <c r="B216" s="23"/>
+      <c r="C216" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="D216" s="16" t="s">
+      <c r="D216" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="E216" s="16" t="s">
+      <c r="E216" s="28" t="s">
         <v>138</v>
       </c>
       <c r="F216" s="3" t="s">
         <v>299</v>
       </c>
       <c r="G216" s="3"/>
-      <c r="H216" s="31"/>
+      <c r="H216" s="12"/>
       <c r="I216" s="3"/>
     </row>
     <row r="217" spans="1:9">
-      <c r="A217" s="14"/>
-      <c r="B217" s="27"/>
-      <c r="C217" s="12"/>
-      <c r="D217" s="17"/>
-      <c r="E217" s="17"/>
+      <c r="A217" s="26"/>
+      <c r="B217" s="23"/>
+      <c r="C217" s="34"/>
+      <c r="D217" s="29"/>
+      <c r="E217" s="29"/>
       <c r="F217" s="3" t="s">
         <v>389</v>
       </c>
       <c r="G217" s="3"/>
-      <c r="H217" s="31"/>
+      <c r="H217" s="12"/>
       <c r="I217" s="3"/>
     </row>
     <row r="218" spans="1:9">
-      <c r="A218" s="14"/>
-      <c r="B218" s="27"/>
-      <c r="C218" s="12"/>
-      <c r="D218" s="17"/>
-      <c r="E218" s="17"/>
+      <c r="A218" s="26"/>
+      <c r="B218" s="23"/>
+      <c r="C218" s="34"/>
+      <c r="D218" s="29"/>
+      <c r="E218" s="29"/>
       <c r="F218" s="3" t="s">
         <v>390</v>
       </c>
       <c r="G218" s="3"/>
-      <c r="H218" s="31"/>
+      <c r="H218" s="12"/>
       <c r="I218" s="3"/>
     </row>
     <row r="219" spans="1:9">
-      <c r="A219" s="14"/>
-      <c r="B219" s="27"/>
-      <c r="C219" s="12"/>
-      <c r="D219" s="18"/>
-      <c r="E219" s="18"/>
+      <c r="A219" s="26"/>
+      <c r="B219" s="23"/>
+      <c r="C219" s="34"/>
+      <c r="D219" s="30"/>
+      <c r="E219" s="30"/>
       <c r="F219" s="3" t="s">
         <v>391</v>
       </c>
       <c r="G219" s="3"/>
-      <c r="H219" s="31"/>
+      <c r="H219" s="12"/>
       <c r="I219" s="3"/>
     </row>
     <row r="220" spans="1:9">
-      <c r="A220" s="14"/>
-      <c r="B220" s="27"/>
-      <c r="C220" s="12"/>
-      <c r="D220" s="16" t="s">
+      <c r="A220" s="26"/>
+      <c r="B220" s="23"/>
+      <c r="C220" s="34"/>
+      <c r="D220" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="E220" s="16" t="s">
+      <c r="E220" s="28" t="s">
         <v>139</v>
       </c>
       <c r="F220" s="3" t="s">
         <v>300</v>
       </c>
       <c r="G220" s="3"/>
-      <c r="H220" s="31"/>
+      <c r="H220" s="12"/>
       <c r="I220" s="3"/>
     </row>
     <row r="221" spans="1:9">
-      <c r="A221" s="14"/>
-      <c r="B221" s="27"/>
-      <c r="C221" s="12"/>
-      <c r="D221" s="17"/>
-      <c r="E221" s="17"/>
+      <c r="A221" s="26"/>
+      <c r="B221" s="23"/>
+      <c r="C221" s="34"/>
+      <c r="D221" s="29"/>
+      <c r="E221" s="29"/>
       <c r="F221" s="3" t="s">
         <v>392</v>
       </c>
       <c r="G221" s="3"/>
-      <c r="H221" s="31"/>
+      <c r="H221" s="12"/>
       <c r="I221" s="3"/>
     </row>
     <row r="222" spans="1:9">
-      <c r="A222" s="14"/>
-      <c r="B222" s="27"/>
-      <c r="C222" s="12"/>
-      <c r="D222" s="17"/>
-      <c r="E222" s="17"/>
+      <c r="A222" s="26"/>
+      <c r="B222" s="23"/>
+      <c r="C222" s="34"/>
+      <c r="D222" s="29"/>
+      <c r="E222" s="29"/>
       <c r="F222" s="3" t="s">
         <v>393</v>
       </c>
       <c r="G222" s="3"/>
-      <c r="H222" s="31"/>
+      <c r="H222" s="12"/>
       <c r="I222" s="3"/>
     </row>
     <row r="223" spans="1:9">
-      <c r="A223" s="14"/>
-      <c r="B223" s="27"/>
-      <c r="C223" s="12"/>
-      <c r="D223" s="18"/>
-      <c r="E223" s="18"/>
+      <c r="A223" s="26"/>
+      <c r="B223" s="23"/>
+      <c r="C223" s="34"/>
+      <c r="D223" s="30"/>
+      <c r="E223" s="30"/>
       <c r="F223" s="3" t="s">
         <v>394</v>
       </c>
       <c r="G223" s="3"/>
-      <c r="H223" s="31"/>
+      <c r="H223" s="12"/>
       <c r="I223" s="3"/>
     </row>
     <row r="224" spans="1:9">
-      <c r="A224" s="14"/>
-      <c r="B224" s="27"/>
-      <c r="C224" s="12"/>
-      <c r="D224" s="16" t="s">
+      <c r="A224" s="26"/>
+      <c r="B224" s="23"/>
+      <c r="C224" s="34"/>
+      <c r="D224" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="E224" s="16" t="s">
+      <c r="E224" s="28" t="s">
         <v>140</v>
       </c>
       <c r="F224" s="3" t="s">
         <v>301</v>
       </c>
       <c r="G224" s="3"/>
-      <c r="H224" s="31"/>
+      <c r="H224" s="12"/>
       <c r="I224" s="3"/>
     </row>
     <row r="225" spans="1:9">
-      <c r="A225" s="14"/>
-      <c r="B225" s="27"/>
-      <c r="C225" s="12"/>
-      <c r="D225" s="17"/>
-      <c r="E225" s="17"/>
+      <c r="A225" s="26"/>
+      <c r="B225" s="23"/>
+      <c r="C225" s="34"/>
+      <c r="D225" s="29"/>
+      <c r="E225" s="29"/>
       <c r="F225" s="3" t="s">
         <v>395</v>
       </c>
       <c r="G225" s="3"/>
-      <c r="H225" s="31"/>
+      <c r="H225" s="12"/>
       <c r="I225" s="3"/>
     </row>
     <row r="226" spans="1:9">
-      <c r="A226" s="14"/>
-      <c r="B226" s="27"/>
-      <c r="C226" s="12"/>
-      <c r="D226" s="17"/>
-      <c r="E226" s="17"/>
+      <c r="A226" s="26"/>
+      <c r="B226" s="23"/>
+      <c r="C226" s="34"/>
+      <c r="D226" s="29"/>
+      <c r="E226" s="29"/>
       <c r="F226" s="3" t="s">
         <v>396</v>
       </c>
       <c r="G226" s="3"/>
-      <c r="H226" s="31"/>
+      <c r="H226" s="12"/>
       <c r="I226" s="3"/>
     </row>
     <row r="227" spans="1:9">
-      <c r="A227" s="14"/>
-      <c r="B227" s="27"/>
-      <c r="C227" s="12"/>
-      <c r="D227" s="18"/>
-      <c r="E227" s="18"/>
+      <c r="A227" s="26"/>
+      <c r="B227" s="23"/>
+      <c r="C227" s="34"/>
+      <c r="D227" s="30"/>
+      <c r="E227" s="30"/>
       <c r="F227" s="3" t="s">
         <v>397</v>
       </c>
       <c r="G227" s="3"/>
-      <c r="H227" s="31"/>
+      <c r="H227" s="12"/>
       <c r="I227" s="3"/>
     </row>
     <row r="228" spans="1:9">
-      <c r="A228" s="14"/>
-      <c r="B228" s="27"/>
-      <c r="C228" s="12"/>
-      <c r="D228" s="32"/>
-      <c r="E228" s="32"/>
+      <c r="A228" s="26"/>
+      <c r="B228" s="23"/>
+      <c r="C228" s="34"/>
+      <c r="D228" s="13"/>
+      <c r="E228" s="13"/>
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
-      <c r="H228" s="31"/>
+      <c r="H228" s="12"/>
       <c r="I228" s="3"/>
     </row>
     <row r="229" spans="1:9">
-      <c r="A229" s="14"/>
-      <c r="B229" s="27"/>
-      <c r="C229" s="12"/>
-      <c r="D229" s="32"/>
-      <c r="E229" s="32"/>
+      <c r="A229" s="26"/>
+      <c r="B229" s="23"/>
+      <c r="C229" s="34"/>
+      <c r="D229" s="13"/>
+      <c r="E229" s="13"/>
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
-      <c r="H229" s="31"/>
+      <c r="H229" s="12"/>
       <c r="I229" s="3"/>
     </row>
     <row r="230" spans="1:9">
-      <c r="A230" s="14"/>
-      <c r="B230" s="27"/>
-      <c r="C230" s="23"/>
-      <c r="D230" s="32"/>
-      <c r="E230" s="32"/>
+      <c r="A230" s="26"/>
+      <c r="B230" s="23"/>
+      <c r="C230" s="31"/>
+      <c r="D230" s="13"/>
+      <c r="E230" s="13"/>
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
-      <c r="H230" s="31"/>
+      <c r="H230" s="12"/>
       <c r="I230" s="3"/>
     </row>
     <row r="231" spans="1:9">
-      <c r="A231" s="14"/>
-      <c r="B231" s="27"/>
-      <c r="C231" s="20"/>
-      <c r="D231" s="32"/>
-      <c r="E231" s="32"/>
+      <c r="A231" s="26"/>
+      <c r="B231" s="23"/>
+      <c r="C231" s="32"/>
+      <c r="D231" s="13"/>
+      <c r="E231" s="13"/>
       <c r="F231" s="3"/>
       <c r="G231" s="3"/>
-      <c r="H231" s="31"/>
+      <c r="H231" s="12"/>
       <c r="I231" s="3"/>
     </row>
     <row r="232" spans="1:9">
-      <c r="A232" s="14"/>
-      <c r="B232" s="27"/>
-      <c r="C232" s="20"/>
-      <c r="D232" s="32"/>
-      <c r="E232" s="32"/>
+      <c r="A232" s="26"/>
+      <c r="B232" s="23"/>
+      <c r="C232" s="32"/>
+      <c r="D232" s="13"/>
+      <c r="E232" s="13"/>
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
-      <c r="H232" s="31"/>
+      <c r="H232" s="12"/>
       <c r="I232" s="3"/>
     </row>
     <row r="233" spans="1:9">
-      <c r="A233" s="14"/>
-      <c r="B233" s="27"/>
-      <c r="C233" s="21"/>
-      <c r="D233" s="32"/>
-      <c r="E233" s="32"/>
+      <c r="A233" s="26"/>
+      <c r="B233" s="23"/>
+      <c r="C233" s="33"/>
+      <c r="D233" s="13"/>
+      <c r="E233" s="13"/>
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
-      <c r="H233" s="31"/>
+      <c r="H233" s="12"/>
       <c r="I233" s="3"/>
     </row>
     <row r="234" spans="1:9">
-      <c r="A234" s="14"/>
-      <c r="B234" s="27"/>
-      <c r="C234" s="12"/>
-      <c r="D234" s="32"/>
-      <c r="E234" s="32"/>
+      <c r="A234" s="26"/>
+      <c r="B234" s="23"/>
+      <c r="C234" s="34"/>
+      <c r="D234" s="13"/>
+      <c r="E234" s="13"/>
       <c r="F234" s="3"/>
       <c r="G234" s="3"/>
-      <c r="H234" s="31"/>
+      <c r="H234" s="12"/>
       <c r="I234" s="3"/>
     </row>
     <row r="235" spans="1:9">
-      <c r="A235" s="14"/>
-      <c r="B235" s="27"/>
-      <c r="C235" s="12"/>
-      <c r="D235" s="32"/>
-      <c r="E235" s="32"/>
+      <c r="A235" s="26"/>
+      <c r="B235" s="23"/>
+      <c r="C235" s="34"/>
+      <c r="D235" s="13"/>
+      <c r="E235" s="13"/>
       <c r="F235" s="3"/>
       <c r="G235" s="3"/>
-      <c r="H235" s="31"/>
+      <c r="H235" s="12"/>
       <c r="I235" s="3"/>
     </row>
     <row r="236" spans="1:9">
-      <c r="A236" s="14"/>
-      <c r="B236" s="27"/>
-      <c r="C236" s="12"/>
-      <c r="D236" s="32"/>
-      <c r="E236" s="32"/>
+      <c r="A236" s="26"/>
+      <c r="B236" s="23"/>
+      <c r="C236" s="34"/>
+      <c r="D236" s="13"/>
+      <c r="E236" s="13"/>
       <c r="F236" s="3"/>
       <c r="G236" s="3"/>
-      <c r="H236" s="31"/>
+      <c r="H236" s="12"/>
       <c r="I236" s="3"/>
     </row>
     <row r="237" spans="1:9">
-      <c r="A237" s="15"/>
-      <c r="B237" s="28"/>
-      <c r="C237" s="12"/>
-      <c r="D237" s="32"/>
-      <c r="E237" s="32"/>
+      <c r="A237" s="27"/>
+      <c r="B237" s="24"/>
+      <c r="C237" s="34"/>
+      <c r="D237" s="13"/>
+      <c r="E237" s="13"/>
       <c r="F237" s="3"/>
       <c r="G237" s="3"/>
-      <c r="H237" s="31"/>
+      <c r="H237" s="12"/>
       <c r="I237" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="109">
+    <mergeCell ref="D206:D209"/>
+    <mergeCell ref="E206:E209"/>
+    <mergeCell ref="D194:D197"/>
+    <mergeCell ref="E194:E197"/>
+    <mergeCell ref="D162:D165"/>
+    <mergeCell ref="E162:E165"/>
+    <mergeCell ref="D166:D169"/>
+    <mergeCell ref="E166:E169"/>
     <mergeCell ref="D224:D227"/>
     <mergeCell ref="E224:E227"/>
     <mergeCell ref="D180:D183"/>
@@ -7200,28 +7212,17 @@
     <mergeCell ref="E198:E201"/>
     <mergeCell ref="D202:D205"/>
     <mergeCell ref="E202:E205"/>
-    <mergeCell ref="D206:D209"/>
-    <mergeCell ref="E206:E209"/>
-    <mergeCell ref="D170:D173"/>
-    <mergeCell ref="E170:E173"/>
-    <mergeCell ref="C176:C193"/>
-    <mergeCell ref="D176:D179"/>
-    <mergeCell ref="E176:E179"/>
-    <mergeCell ref="D194:D197"/>
-    <mergeCell ref="E194:E197"/>
-    <mergeCell ref="D162:D165"/>
-    <mergeCell ref="E162:E165"/>
-    <mergeCell ref="D166:D169"/>
-    <mergeCell ref="E166:E169"/>
-    <mergeCell ref="E148:E151"/>
-    <mergeCell ref="D152:D155"/>
-    <mergeCell ref="E152:E155"/>
     <mergeCell ref="D158:D161"/>
     <mergeCell ref="E158:E161"/>
     <mergeCell ref="D130:D133"/>
     <mergeCell ref="E130:E133"/>
     <mergeCell ref="D134:D137"/>
     <mergeCell ref="E134:E137"/>
+    <mergeCell ref="D170:D173"/>
+    <mergeCell ref="E170:E173"/>
+    <mergeCell ref="C176:C193"/>
+    <mergeCell ref="D176:D179"/>
+    <mergeCell ref="E176:E179"/>
     <mergeCell ref="C140:C157"/>
     <mergeCell ref="D140:D143"/>
     <mergeCell ref="E140:E143"/>
@@ -7234,6 +7235,9 @@
     <mergeCell ref="D100:D103"/>
     <mergeCell ref="D111:D114"/>
     <mergeCell ref="E111:E114"/>
+    <mergeCell ref="E148:E151"/>
+    <mergeCell ref="D152:D155"/>
+    <mergeCell ref="E152:E155"/>
     <mergeCell ref="D84:D87"/>
     <mergeCell ref="E84:E87"/>
     <mergeCell ref="D88:D91"/>
@@ -7258,14 +7262,6 @@
     <mergeCell ref="D79:D83"/>
     <mergeCell ref="E79:E83"/>
     <mergeCell ref="D40:D44"/>
-    <mergeCell ref="E40:E44"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="E74:E78"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="E31:E34"/>
     <mergeCell ref="E35:E39"/>
     <mergeCell ref="D45:D49"/>
     <mergeCell ref="E45:E49"/>
@@ -7291,6 +7287,14 @@
     <mergeCell ref="C60:C105"/>
     <mergeCell ref="C106:C139"/>
     <mergeCell ref="C158:C175"/>
+    <mergeCell ref="E40:E44"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="E31:E34"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H237">

--- a/documents/db_table_design.xlsx
+++ b/documents/db_table_design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="db-tables" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="story-task" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="440">
   <si>
     <t>Field Name</t>
   </si>
@@ -815,27 +814,12 @@
     <t>Jpp-1455</t>
   </si>
   <si>
-    <t>create tbl_customerEdit</t>
-  </si>
-  <si>
     <t>CustomerEdit Unit Test</t>
   </si>
   <si>
-    <t>create tbl_customerListAll</t>
-  </si>
-  <si>
-    <t>Create Service to insert the customerListAll details</t>
-  </si>
-  <si>
     <t>CustomerListAll Unit Test</t>
   </si>
   <si>
-    <t>create tbl_customerView</t>
-  </si>
-  <si>
-    <t>Create Service to insert the customerView details</t>
-  </si>
-  <si>
     <t>CustomerView Unit Test</t>
   </si>
   <si>
@@ -1344,6 +1328,15 @@
   </si>
   <si>
     <t>text field - can be null</t>
+  </si>
+  <si>
+    <t>Create Service to edit/update the customer details</t>
+  </si>
+  <si>
+    <t>Create Service to List All the customer details</t>
+  </si>
+  <si>
+    <t>Create Service to get the particular customer details</t>
   </si>
 </sst>
 </file>
@@ -1560,6 +1553,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1586,38 +1609,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1915,7 +1908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -2090,7 +2083,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G9" s="15"/>
     </row>
@@ -2099,19 +2092,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D10" s="4">
         <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G10" s="15"/>
     </row>
@@ -2120,19 +2113,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D11" s="4">
         <v>4</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G11" s="15"/>
     </row>
@@ -2374,7 +2367,7 @@
         <v>16</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G24" s="15"/>
     </row>
@@ -2395,7 +2388,7 @@
         <v>16</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="G25" s="15"/>
     </row>
@@ -2422,19 +2415,19 @@
         <v>9</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D27" s="4">
         <v>2</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G27" s="15"/>
     </row>
@@ -2443,19 +2436,19 @@
         <v>10</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D28" s="4">
         <v>4</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G28" s="15"/>
     </row>
@@ -2745,19 +2738,19 @@
         <v>9</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D44" s="4">
         <v>2</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G44" s="15"/>
     </row>
@@ -2766,19 +2759,19 @@
         <v>10</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D45" s="4">
         <v>4</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G45" s="15"/>
     </row>
@@ -3709,8 +3702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:I237"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H108" sqref="H108"/>
+    <sheetView tabSelected="1" topLeftCell="C109" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3747,26 +3740,26 @@
         <v>81</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="26" t="s">
         <v>96</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -3776,16 +3769,16 @@
         <v>146</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="26"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
       <c r="F6" s="11" t="s">
         <v>147</v>
       </c>
@@ -3793,33 +3786,33 @@
         <v>148</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="26"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="10" t="s">
         <v>149</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="26"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="11" t="s">
         <v>150</v>
       </c>
@@ -3827,16 +3820,16 @@
         <v>153</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1">
-      <c r="A9" s="26"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="3" t="s">
         <v>152</v>
       </c>
@@ -3844,182 +3837,182 @@
         <v>151</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="28" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="19" t="s">
         <v>97</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="12"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1">
-      <c r="A11" s="26"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="12"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1">
-      <c r="A12" s="26"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="12"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="26"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="12"/>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="26"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="28" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="19" t="s">
         <v>98</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="12"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="26"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="12"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="26"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="12"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="26"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="12"/>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="26"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="28" t="s">
+      <c r="A18" s="36"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="19" t="s">
         <v>137</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="12"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="26"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
       <c r="F19" s="3" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="12"/>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="26"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="3" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="12"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="26"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
       <c r="F21" s="3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="12"/>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="26"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="20"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="3"/>
@@ -4028,9 +4021,9 @@
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="26"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="20"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="3"/>
@@ -4039,9 +4032,9 @@
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="26"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="20"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="3"/>
@@ -4050,9 +4043,9 @@
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="26"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="21"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="3"/>
@@ -4061,15 +4054,15 @@
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="26"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="28" t="s">
+      <c r="A26" s="36"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="E26" s="26" t="s">
         <v>99</v>
       </c>
       <c r="F26" s="9" t="s">
@@ -4079,16 +4072,16 @@
         <v>224</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="26"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="32"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="27"/>
       <c r="F27" s="9" t="s">
         <v>200</v>
       </c>
@@ -4096,33 +4089,33 @@
         <v>148</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="26"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="32"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="9" t="s">
         <v>201</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="26"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="32"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="9" t="s">
         <v>202</v>
       </c>
@@ -4130,91 +4123,91 @@
         <v>153</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="26"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="33"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="28"/>
       <c r="F30" s="9" t="s">
         <v>203</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="26"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="28" t="s">
+      <c r="A31" s="36"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="19" t="s">
         <v>100</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="12"/>
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="26"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
       <c r="F32" s="9" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="12"/>
       <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="26"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
       <c r="F33" s="9" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="12"/>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="26"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
       <c r="F34" s="9" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="12"/>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="26"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="28" t="s">
+      <c r="A35" s="36"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E35" s="26" t="s">
         <v>101</v>
       </c>
       <c r="F35" s="9" t="s">
@@ -4224,16 +4217,16 @@
         <v>225</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="26"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="32"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="27"/>
       <c r="F36" s="9" t="s">
         <v>204</v>
       </c>
@@ -4241,16 +4234,16 @@
         <v>148</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="26"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="32"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="27"/>
       <c r="F37" s="9" t="s">
         <v>205</v>
       </c>
@@ -4258,16 +4251,16 @@
         <v>226</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="26"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="32"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="27"/>
       <c r="F38" s="9" t="s">
         <v>206</v>
       </c>
@@ -4275,16 +4268,16 @@
         <v>153</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="26"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="33"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="28"/>
       <c r="F39" s="9" t="s">
         <v>207</v>
       </c>
@@ -4292,18 +4285,18 @@
         <v>236</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="26"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="28" t="s">
+      <c r="A40" s="36"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="E40" s="31" t="s">
+      <c r="E40" s="26" t="s">
         <v>102</v>
       </c>
       <c r="F40" s="9" t="s">
@@ -4313,16 +4306,16 @@
         <v>234</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="26"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="32"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="27"/>
       <c r="F41" s="9" t="s">
         <v>230</v>
       </c>
@@ -4330,16 +4323,16 @@
         <v>148</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I41" s="3"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="26"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="32"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="27"/>
       <c r="F42" s="9" t="s">
         <v>231</v>
       </c>
@@ -4347,16 +4340,16 @@
         <v>235</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I42" s="3"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="26"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="32"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="27"/>
       <c r="F43" s="9" t="s">
         <v>232</v>
       </c>
@@ -4364,16 +4357,16 @@
         <v>153</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I43" s="3"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="26"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="33"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="28"/>
       <c r="F44" s="9" t="s">
         <v>233</v>
       </c>
@@ -4381,18 +4374,18 @@
         <v>237</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I44" s="3"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="26"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="28" t="s">
+      <c r="A45" s="36"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="E45" s="28" t="s">
+      <c r="E45" s="19" t="s">
         <v>103</v>
       </c>
       <c r="F45" s="9" t="s">
@@ -4402,16 +4395,16 @@
         <v>227</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I45" s="3"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="26"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
       <c r="F46" s="9" t="s">
         <v>208</v>
       </c>
@@ -4419,16 +4412,16 @@
         <v>148</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I46" s="3"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="26"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
       <c r="F47" s="9" t="s">
         <v>209</v>
       </c>
@@ -4436,16 +4429,16 @@
         <v>228</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I47" s="3"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="26"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
       <c r="F48" s="9" t="s">
         <v>210</v>
       </c>
@@ -4453,16 +4446,16 @@
         <v>153</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I48" s="3"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="26"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
       <c r="F49" s="9" t="s">
         <v>211</v>
       </c>
@@ -4470,126 +4463,126 @@
         <v>238</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I49" s="3"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="26"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="28" t="s">
+      <c r="A50" s="36"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="E50" s="28" t="s">
+      <c r="E50" s="19" t="s">
         <v>104</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="12"/>
       <c r="I50" s="3"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="26"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
       <c r="F51" s="9" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="12"/>
       <c r="I51" s="3"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="26"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
       <c r="F52" s="9" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="12"/>
       <c r="I52" s="3"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="26"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
       <c r="F53" s="9" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="12"/>
       <c r="I53" s="3"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="26"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="28" t="s">
+      <c r="A54" s="36"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="E54" s="28" t="s">
+      <c r="E54" s="19" t="s">
         <v>105</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="12"/>
       <c r="I54" s="3"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="26"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
       <c r="F55" s="3" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="12"/>
       <c r="I55" s="3"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="26"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
       <c r="F56" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="12"/>
       <c r="I56" s="3"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="26"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
       <c r="F57" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="12"/>
       <c r="I57" s="3"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="26"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="29"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="20"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13"/>
       <c r="F58" s="3"/>
@@ -4598,9 +4591,9 @@
       <c r="I58" s="3"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="26"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="30"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="21"/>
       <c r="D59" s="13"/>
       <c r="E59" s="13"/>
       <c r="F59" s="3"/>
@@ -4609,34 +4602,34 @@
       <c r="I59" s="3"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="26"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="34" t="s">
+      <c r="A60" s="36"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="D60" s="28" t="s">
+      <c r="D60" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="E60" s="28" t="s">
+      <c r="E60" s="19" t="s">
         <v>106</v>
       </c>
       <c r="F60" s="9" t="s">
         <v>197</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="I60" s="3"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="26"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
       <c r="F61" s="9" t="s">
         <v>212</v>
       </c>
@@ -4644,33 +4637,33 @@
         <v>148</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I61" s="3"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="26"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
+      <c r="A62" s="36"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
       <c r="F62" s="9" t="s">
         <v>213</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I62" s="3"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="26"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
       <c r="F63" s="9" t="s">
         <v>214</v>
       </c>
@@ -4678,91 +4671,91 @@
         <v>153</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I63" s="3"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="26"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
+      <c r="A64" s="36"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
       <c r="F64" s="9" t="s">
         <v>215</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I64" s="3"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="26"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="28" t="s">
+      <c r="A65" s="36"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="E65" s="28" t="s">
+      <c r="E65" s="19" t="s">
         <v>107</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="12"/>
       <c r="I65" s="3"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="26"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
+      <c r="A66" s="36"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
       <c r="F66" s="9" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="12"/>
       <c r="I66" s="3"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="26"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
+      <c r="A67" s="36"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
       <c r="F67" s="9" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="12"/>
       <c r="I67" s="3"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="26"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
+      <c r="A68" s="36"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
       <c r="F68" s="9" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="12"/>
       <c r="I68" s="3"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="26"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="28" t="s">
+      <c r="A69" s="36"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="E69" s="31" t="s">
+      <c r="E69" s="26" t="s">
         <v>108</v>
       </c>
       <c r="F69" s="9" t="s">
@@ -4772,16 +4765,16 @@
         <v>239</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I69" s="3"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="26"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="32"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="27"/>
       <c r="F70" s="9" t="s">
         <v>216</v>
       </c>
@@ -4789,16 +4782,16 @@
         <v>148</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I70" s="3"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="26"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="32"/>
+      <c r="A71" s="36"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="27"/>
       <c r="F71" s="9" t="s">
         <v>217</v>
       </c>
@@ -4806,16 +4799,16 @@
         <v>240</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I71" s="3"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="26"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="32"/>
+      <c r="A72" s="36"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="27"/>
       <c r="F72" s="9" t="s">
         <v>218</v>
       </c>
@@ -4823,16 +4816,16 @@
         <v>153</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I72" s="3"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="26"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="33"/>
+      <c r="A73" s="36"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="28"/>
       <c r="F73" s="9" t="s">
         <v>219</v>
       </c>
@@ -4840,107 +4833,107 @@
         <v>236</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I73" s="3"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="26"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="28" t="s">
+      <c r="A74" s="36"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="E74" s="28" t="s">
+      <c r="E74" s="19" t="s">
         <v>109</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G74" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I74" s="3"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="26"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29"/>
+      <c r="A75" s="36"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
       <c r="F75" s="9" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G75" s="10" t="s">
         <v>148</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I75" s="3"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="26"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="29"/>
+      <c r="A76" s="36"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
       <c r="F76" s="9" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G76" s="11" t="s">
         <v>235</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I76" s="3"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="26"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
+      <c r="A77" s="36"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
       <c r="F77" s="9" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G77" s="11" t="s">
         <v>153</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I77" s="3"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="26"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="30"/>
+      <c r="A78" s="36"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
       <c r="F78" s="9" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>241</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I78" s="3"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="26"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="28" t="s">
+      <c r="A79" s="36"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="E79" s="28" t="s">
+      <c r="E79" s="19" t="s">
         <v>110</v>
       </c>
       <c r="F79" s="9" t="s">
@@ -4950,16 +4943,16 @@
         <v>242</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I79" s="3"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="26"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
+      <c r="A80" s="36"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
       <c r="F80" s="9" t="s">
         <v>220</v>
       </c>
@@ -4967,16 +4960,16 @@
         <v>148</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I80" s="3"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="26"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
+      <c r="A81" s="36"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
       <c r="F81" s="9" t="s">
         <v>221</v>
       </c>
@@ -4984,16 +4977,16 @@
         <v>243</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I81" s="3"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="26"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
+      <c r="A82" s="36"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
       <c r="F82" s="9" t="s">
         <v>222</v>
       </c>
@@ -5001,16 +4994,16 @@
         <v>153</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I82" s="3"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="26"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="30"/>
+      <c r="A83" s="36"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="38"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
       <c r="F83" s="9" t="s">
         <v>223</v>
       </c>
@@ -5018,240 +5011,240 @@
         <v>244</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I83" s="3"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="26"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="28" t="s">
+      <c r="A84" s="36"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="E84" s="28" t="s">
+      <c r="E84" s="19" t="s">
         <v>111</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="12"/>
       <c r="I84" s="3"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="26"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
+      <c r="A85" s="36"/>
+      <c r="B85" s="33"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
       <c r="F85" s="9" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="12"/>
       <c r="I85" s="3"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="26"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="29"/>
+      <c r="A86" s="36"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
       <c r="F86" s="9" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="12"/>
       <c r="I86" s="3"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="26"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="34"/>
-      <c r="D87" s="30"/>
-      <c r="E87" s="30"/>
+      <c r="A87" s="36"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
       <c r="F87" s="9" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="12"/>
       <c r="I87" s="3"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="26"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="34"/>
-      <c r="D88" s="28" t="s">
+      <c r="A88" s="36"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="E88" s="28" t="s">
+      <c r="E88" s="19" t="s">
         <v>112</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="12"/>
       <c r="I88" s="3"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="26"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="29"/>
+      <c r="A89" s="36"/>
+      <c r="B89" s="33"/>
+      <c r="C89" s="38"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
       <c r="F89" s="3" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="12"/>
       <c r="I89" s="3"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="26"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
+      <c r="A90" s="36"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
       <c r="F90" s="3" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="12"/>
       <c r="I90" s="3"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="26"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="30"/>
+      <c r="A91" s="36"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
       <c r="F91" s="3" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="12"/>
       <c r="I91" s="3"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="26"/>
-      <c r="B92" s="23"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="28" t="s">
+      <c r="A92" s="36"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="E92" s="28" t="s">
+      <c r="E92" s="19" t="s">
         <v>113</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="12"/>
       <c r="I92" s="3"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="26"/>
-      <c r="B93" s="23"/>
-      <c r="C93" s="34"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="29"/>
+      <c r="A93" s="36"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
       <c r="F93" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="12"/>
       <c r="I93" s="3"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="26"/>
-      <c r="B94" s="23"/>
-      <c r="C94" s="34"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="29"/>
+      <c r="A94" s="36"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
       <c r="F94" s="3" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="12"/>
       <c r="I94" s="3"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="26"/>
-      <c r="B95" s="23"/>
-      <c r="C95" s="34"/>
-      <c r="D95" s="30"/>
-      <c r="E95" s="30"/>
+      <c r="A95" s="36"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
       <c r="F95" s="3" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="12"/>
       <c r="I95" s="3"/>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="26"/>
-      <c r="B96" s="23"/>
-      <c r="C96" s="34"/>
-      <c r="D96" s="35" t="s">
+      <c r="A96" s="36"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="E96" s="38" t="s">
+      <c r="E96" s="22" t="s">
         <v>114</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="12"/>
       <c r="I96" s="3"/>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="26"/>
-      <c r="B97" s="23"/>
-      <c r="C97" s="34"/>
-      <c r="D97" s="36"/>
-      <c r="E97" s="38"/>
+      <c r="A97" s="36"/>
+      <c r="B97" s="33"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="22"/>
       <c r="F97" s="3" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="12"/>
       <c r="I97" s="3"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="26"/>
-      <c r="B98" s="23"/>
-      <c r="C98" s="34"/>
-      <c r="D98" s="36"/>
-      <c r="E98" s="38"/>
+      <c r="A98" s="36"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="38"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="22"/>
       <c r="F98" s="3" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="12"/>
       <c r="I98" s="3"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="26"/>
-      <c r="B99" s="23"/>
-      <c r="C99" s="34"/>
-      <c r="D99" s="37"/>
-      <c r="E99" s="38"/>
+      <c r="A99" s="36"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="38"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="22"/>
       <c r="F99" s="3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G99" s="3"/>
       <c r="H99" s="12"/>
       <c r="I99" s="3"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="26"/>
-      <c r="B100" s="23"/>
-      <c r="C100" s="34"/>
-      <c r="D100" s="28"/>
-      <c r="E100" s="28" t="s">
+      <c r="A100" s="36"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="38"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19" t="s">
         <v>115</v>
       </c>
       <c r="F100" s="3"/>
@@ -5260,42 +5253,42 @@
       <c r="I100" s="3"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="26"/>
-      <c r="B101" s="23"/>
-      <c r="C101" s="34"/>
-      <c r="D101" s="29"/>
-      <c r="E101" s="29"/>
+      <c r="A101" s="36"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="38"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="12"/>
       <c r="I101" s="3"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="26"/>
-      <c r="B102" s="23"/>
-      <c r="C102" s="34"/>
-      <c r="D102" s="29"/>
-      <c r="E102" s="29"/>
+      <c r="A102" s="36"/>
+      <c r="B102" s="33"/>
+      <c r="C102" s="38"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="12"/>
       <c r="I102" s="3"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="26"/>
-      <c r="B103" s="23"/>
-      <c r="C103" s="34"/>
-      <c r="D103" s="30"/>
-      <c r="E103" s="30"/>
+      <c r="A103" s="36"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="38"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="12"/>
       <c r="I103" s="3"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="26"/>
-      <c r="B104" s="23"/>
-      <c r="C104" s="34"/>
+      <c r="A104" s="36"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="38"/>
       <c r="D104" s="13"/>
       <c r="E104" s="13"/>
       <c r="F104" s="3"/>
@@ -5304,9 +5297,9 @@
       <c r="I104" s="3"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="26"/>
-      <c r="B105" s="23"/>
-      <c r="C105" s="34"/>
+      <c r="A105" s="36"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="38"/>
       <c r="D105" s="13"/>
       <c r="E105" s="13"/>
       <c r="F105" s="3"/>
@@ -5315,36 +5308,36 @@
       <c r="I105" s="3"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="26"/>
-      <c r="B106" s="23"/>
-      <c r="C106" s="34" t="s">
+      <c r="A106" s="36"/>
+      <c r="B106" s="33"/>
+      <c r="C106" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="D106" s="28" t="s">
+      <c r="D106" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="E106" s="28" t="s">
+      <c r="E106" s="19" t="s">
         <v>116</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>247</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H106" s="12" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="26"/>
-      <c r="B107" s="23"/>
-      <c r="C107" s="34"/>
-      <c r="D107" s="29"/>
-      <c r="E107" s="29"/>
+      <c r="A107" s="36"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="38"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="20"/>
       <c r="F107" s="3" t="s">
         <v>249</v>
       </c>
@@ -5352,33 +5345,33 @@
         <v>148</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="I107" s="3"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="26"/>
-      <c r="B108" s="23"/>
-      <c r="C108" s="34"/>
-      <c r="D108" s="29"/>
-      <c r="E108" s="29"/>
+      <c r="A108" s="36"/>
+      <c r="B108" s="33"/>
+      <c r="C108" s="38"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="20"/>
       <c r="F108" s="3" t="s">
         <v>250</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="I108" s="3"/>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="26"/>
-      <c r="B109" s="23"/>
-      <c r="C109" s="34"/>
-      <c r="D109" s="29"/>
-      <c r="E109" s="29"/>
+      <c r="A109" s="36"/>
+      <c r="B109" s="33"/>
+      <c r="C109" s="38"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="20"/>
       <c r="F109" s="3" t="s">
         <v>251</v>
       </c>
@@ -5386,110 +5379,108 @@
         <v>153</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="I109" s="3"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="26"/>
-      <c r="B110" s="23"/>
-      <c r="C110" s="34"/>
-      <c r="D110" s="30"/>
-      <c r="E110" s="30"/>
+      <c r="A110" s="36"/>
+      <c r="B110" s="33"/>
+      <c r="C110" s="38"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
       <c r="F110" s="3" t="s">
         <v>252</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="H110" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I110" s="3"/>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="26"/>
-      <c r="B111" s="23"/>
-      <c r="C111" s="34"/>
-      <c r="D111" s="28" t="s">
+      <c r="A111" s="36"/>
+      <c r="B111" s="33"/>
+      <c r="C111" s="38"/>
+      <c r="D111" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E111" s="28" t="s">
+      <c r="E111" s="19" t="s">
         <v>117</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="12"/>
       <c r="I111" s="3"/>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="26"/>
-      <c r="B112" s="23"/>
-      <c r="C112" s="34"/>
-      <c r="D112" s="29"/>
-      <c r="E112" s="29"/>
+      <c r="A112" s="36"/>
+      <c r="B112" s="33"/>
+      <c r="C112" s="38"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
       <c r="F112" s="3" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="12"/>
       <c r="I112" s="3"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="26"/>
-      <c r="B113" s="23"/>
-      <c r="C113" s="34"/>
-      <c r="D113" s="29"/>
-      <c r="E113" s="29"/>
+      <c r="A113" s="36"/>
+      <c r="B113" s="33"/>
+      <c r="C113" s="38"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
       <c r="F113" s="3" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G113" s="3"/>
       <c r="H113" s="12"/>
       <c r="I113" s="3"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="26"/>
-      <c r="B114" s="23"/>
-      <c r="C114" s="34"/>
-      <c r="D114" s="30"/>
-      <c r="E114" s="30"/>
+      <c r="A114" s="36"/>
+      <c r="B114" s="33"/>
+      <c r="C114" s="38"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
       <c r="F114" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="12"/>
       <c r="I114" s="3"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="26"/>
-      <c r="B115" s="23"/>
-      <c r="C115" s="34"/>
-      <c r="D115" s="28" t="s">
+      <c r="A115" s="36"/>
+      <c r="B115" s="33"/>
+      <c r="C115" s="38"/>
+      <c r="D115" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="E115" s="28" t="s">
+      <c r="E115" s="19" t="s">
         <v>118</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="G115" s="11" t="s">
-        <v>265</v>
-      </c>
+      <c r="G115" s="11"/>
       <c r="H115" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I115" s="3"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="26"/>
-      <c r="B116" s="23"/>
-      <c r="C116" s="34"/>
-      <c r="D116" s="29"/>
-      <c r="E116" s="29"/>
+      <c r="A116" s="36"/>
+      <c r="B116" s="33"/>
+      <c r="C116" s="38"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
       <c r="F116" s="3" t="s">
         <v>253</v>
       </c>
@@ -5497,33 +5488,33 @@
         <v>148</v>
       </c>
       <c r="H116" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I116" s="3"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="26"/>
-      <c r="B117" s="23"/>
-      <c r="C117" s="34"/>
-      <c r="D117" s="29"/>
-      <c r="E117" s="29"/>
+      <c r="A117" s="36"/>
+      <c r="B117" s="33"/>
+      <c r="C117" s="38"/>
+      <c r="D117" s="20"/>
+      <c r="E117" s="20"/>
       <c r="F117" s="3" t="s">
         <v>254</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="H117" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I117" s="3"/>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="26"/>
-      <c r="B118" s="23"/>
-      <c r="C118" s="34"/>
-      <c r="D118" s="29"/>
-      <c r="E118" s="29"/>
+      <c r="A118" s="36"/>
+      <c r="B118" s="33"/>
+      <c r="C118" s="38"/>
+      <c r="D118" s="20"/>
+      <c r="E118" s="20"/>
       <c r="F118" s="3" t="s">
         <v>255</v>
       </c>
@@ -5531,54 +5522,52 @@
         <v>153</v>
       </c>
       <c r="H118" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I118" s="3"/>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="26"/>
-      <c r="B119" s="23"/>
-      <c r="C119" s="34"/>
-      <c r="D119" s="30"/>
-      <c r="E119" s="30"/>
+      <c r="A119" s="36"/>
+      <c r="B119" s="33"/>
+      <c r="C119" s="38"/>
+      <c r="D119" s="21"/>
+      <c r="E119" s="21"/>
       <c r="F119" s="3" t="s">
         <v>256</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H119" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I119" s="3"/>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="26"/>
-      <c r="B120" s="23"/>
-      <c r="C120" s="34"/>
-      <c r="D120" s="28" t="s">
+      <c r="A120" s="36"/>
+      <c r="B120" s="33"/>
+      <c r="C120" s="38"/>
+      <c r="D120" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E120" s="28" t="s">
+      <c r="E120" s="19" t="s">
         <v>119</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="G120" s="11" t="s">
-        <v>267</v>
-      </c>
+      <c r="G120" s="11"/>
       <c r="H120" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I120" s="3"/>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="26"/>
-      <c r="B121" s="23"/>
-      <c r="C121" s="34"/>
-      <c r="D121" s="29"/>
-      <c r="E121" s="29"/>
+      <c r="A121" s="36"/>
+      <c r="B121" s="33"/>
+      <c r="C121" s="38"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="20"/>
       <c r="F121" s="3" t="s">
         <v>257</v>
       </c>
@@ -5586,33 +5575,33 @@
         <v>148</v>
       </c>
       <c r="H121" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I121" s="3"/>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="26"/>
-      <c r="B122" s="23"/>
-      <c r="C122" s="34"/>
-      <c r="D122" s="29"/>
-      <c r="E122" s="29"/>
+      <c r="A122" s="36"/>
+      <c r="B122" s="33"/>
+      <c r="C122" s="38"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="20"/>
       <c r="F122" s="3" t="s">
         <v>258</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>268</v>
+        <v>438</v>
       </c>
       <c r="H122" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I122" s="3"/>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="26"/>
-      <c r="B123" s="23"/>
-      <c r="C123" s="34"/>
-      <c r="D123" s="29"/>
-      <c r="E123" s="29"/>
+      <c r="A123" s="36"/>
+      <c r="B123" s="33"/>
+      <c r="C123" s="38"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="20"/>
       <c r="F123" s="3" t="s">
         <v>259</v>
       </c>
@@ -5620,54 +5609,52 @@
         <v>153</v>
       </c>
       <c r="H123" s="12" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="I123" s="3"/>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="26"/>
-      <c r="B124" s="23"/>
-      <c r="C124" s="34"/>
-      <c r="D124" s="30"/>
-      <c r="E124" s="30"/>
+      <c r="A124" s="36"/>
+      <c r="B124" s="33"/>
+      <c r="C124" s="38"/>
+      <c r="D124" s="21"/>
+      <c r="E124" s="21"/>
       <c r="F124" s="3" t="s">
         <v>260</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H124" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I124" s="3"/>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="26"/>
-      <c r="B125" s="23"/>
-      <c r="C125" s="34"/>
-      <c r="D125" s="28" t="s">
+      <c r="A125" s="36"/>
+      <c r="B125" s="33"/>
+      <c r="C125" s="38"/>
+      <c r="D125" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="E125" s="28" t="s">
+      <c r="E125" s="19" t="s">
         <v>120</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="G125" s="11" t="s">
-        <v>270</v>
-      </c>
+      <c r="G125" s="11"/>
       <c r="H125" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I125" s="3"/>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="26"/>
-      <c r="B126" s="23"/>
-      <c r="C126" s="34"/>
-      <c r="D126" s="29"/>
-      <c r="E126" s="29"/>
+      <c r="A126" s="36"/>
+      <c r="B126" s="33"/>
+      <c r="C126" s="38"/>
+      <c r="D126" s="20"/>
+      <c r="E126" s="20"/>
       <c r="F126" s="3" t="s">
         <v>261</v>
       </c>
@@ -5675,33 +5662,33 @@
         <v>148</v>
       </c>
       <c r="H126" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I126" s="3"/>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="26"/>
-      <c r="B127" s="23"/>
-      <c r="C127" s="34"/>
-      <c r="D127" s="29"/>
-      <c r="E127" s="29"/>
+      <c r="A127" s="36"/>
+      <c r="B127" s="33"/>
+      <c r="C127" s="38"/>
+      <c r="D127" s="20"/>
+      <c r="E127" s="20"/>
       <c r="F127" s="3" t="s">
         <v>262</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>271</v>
+        <v>439</v>
       </c>
       <c r="H127" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I127" s="3"/>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="26"/>
-      <c r="B128" s="23"/>
-      <c r="C128" s="34"/>
-      <c r="D128" s="29"/>
-      <c r="E128" s="29"/>
+      <c r="A128" s="36"/>
+      <c r="B128" s="33"/>
+      <c r="C128" s="38"/>
+      <c r="D128" s="20"/>
+      <c r="E128" s="20"/>
       <c r="F128" s="3" t="s">
         <v>263</v>
       </c>
@@ -5709,143 +5696,143 @@
         <v>153</v>
       </c>
       <c r="H128" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I128" s="3"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="26"/>
-      <c r="B129" s="23"/>
-      <c r="C129" s="34"/>
-      <c r="D129" s="30"/>
-      <c r="E129" s="30"/>
+      <c r="A129" s="36"/>
+      <c r="B129" s="33"/>
+      <c r="C129" s="38"/>
+      <c r="D129" s="21"/>
+      <c r="E129" s="21"/>
       <c r="F129" s="3" t="s">
         <v>264</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H129" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I129" s="3"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="26"/>
-      <c r="B130" s="23"/>
-      <c r="C130" s="34"/>
-      <c r="D130" s="28" t="s">
+      <c r="A130" s="36"/>
+      <c r="B130" s="33"/>
+      <c r="C130" s="38"/>
+      <c r="D130" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="E130" s="28" t="s">
+      <c r="E130" s="19" t="s">
         <v>121</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="12"/>
       <c r="I130" s="3"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="26"/>
-      <c r="B131" s="23"/>
-      <c r="C131" s="34"/>
-      <c r="D131" s="29"/>
-      <c r="E131" s="29"/>
+      <c r="A131" s="36"/>
+      <c r="B131" s="33"/>
+      <c r="C131" s="38"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="20"/>
       <c r="F131" s="3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G131" s="3"/>
       <c r="H131" s="12"/>
       <c r="I131" s="3"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="26"/>
-      <c r="B132" s="23"/>
-      <c r="C132" s="34"/>
-      <c r="D132" s="29"/>
-      <c r="E132" s="29"/>
+      <c r="A132" s="36"/>
+      <c r="B132" s="33"/>
+      <c r="C132" s="38"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="20"/>
       <c r="F132" s="3" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G132" s="3"/>
       <c r="H132" s="12"/>
       <c r="I132" s="3"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="26"/>
-      <c r="B133" s="23"/>
-      <c r="C133" s="34"/>
-      <c r="D133" s="30"/>
-      <c r="E133" s="30"/>
+      <c r="A133" s="36"/>
+      <c r="B133" s="33"/>
+      <c r="C133" s="38"/>
+      <c r="D133" s="21"/>
+      <c r="E133" s="21"/>
       <c r="F133" s="3" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G133" s="3"/>
       <c r="H133" s="12"/>
       <c r="I133" s="3"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="26"/>
-      <c r="B134" s="23"/>
-      <c r="C134" s="34"/>
-      <c r="D134" s="35" t="s">
+      <c r="A134" s="36"/>
+      <c r="B134" s="33"/>
+      <c r="C134" s="38"/>
+      <c r="D134" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="E134" s="38" t="s">
+      <c r="E134" s="22" t="s">
         <v>122</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G134" s="3"/>
       <c r="H134" s="12"/>
       <c r="I134" s="3"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="26"/>
-      <c r="B135" s="23"/>
-      <c r="C135" s="34"/>
-      <c r="D135" s="36"/>
-      <c r="E135" s="38"/>
+      <c r="A135" s="36"/>
+      <c r="B135" s="33"/>
+      <c r="C135" s="38"/>
+      <c r="D135" s="24"/>
+      <c r="E135" s="22"/>
       <c r="F135" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G135" s="3"/>
       <c r="H135" s="12"/>
       <c r="I135" s="3"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="26"/>
-      <c r="B136" s="23"/>
-      <c r="C136" s="34"/>
-      <c r="D136" s="36"/>
-      <c r="E136" s="38"/>
+      <c r="A136" s="36"/>
+      <c r="B136" s="33"/>
+      <c r="C136" s="38"/>
+      <c r="D136" s="24"/>
+      <c r="E136" s="22"/>
       <c r="F136" s="3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G136" s="3"/>
       <c r="H136" s="12"/>
       <c r="I136" s="3"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="26"/>
-      <c r="B137" s="23"/>
-      <c r="C137" s="34"/>
-      <c r="D137" s="37"/>
-      <c r="E137" s="38"/>
+      <c r="A137" s="36"/>
+      <c r="B137" s="33"/>
+      <c r="C137" s="38"/>
+      <c r="D137" s="25"/>
+      <c r="E137" s="22"/>
       <c r="F137" s="3" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G137" s="3"/>
       <c r="H137" s="12"/>
       <c r="I137" s="3"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="26"/>
-      <c r="B138" s="23"/>
-      <c r="C138" s="34"/>
+      <c r="A138" s="36"/>
+      <c r="B138" s="33"/>
+      <c r="C138" s="38"/>
       <c r="D138" s="13"/>
       <c r="E138" s="13"/>
       <c r="F138" s="3"/>
@@ -5854,9 +5841,9 @@
       <c r="I138" s="3"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="26"/>
-      <c r="B139" s="23"/>
-      <c r="C139" s="34"/>
+      <c r="A139" s="36"/>
+      <c r="B139" s="33"/>
+      <c r="C139" s="38"/>
       <c r="D139" s="13"/>
       <c r="E139" s="13"/>
       <c r="F139" s="3"/>
@@ -5865,235 +5852,235 @@
       <c r="I139" s="3"/>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="26"/>
-      <c r="B140" s="23"/>
-      <c r="C140" s="31" t="s">
+      <c r="A140" s="36"/>
+      <c r="B140" s="33"/>
+      <c r="C140" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="D140" s="28" t="s">
+      <c r="D140" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="E140" s="28" t="s">
+      <c r="E140" s="19" t="s">
         <v>123</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G140" s="3"/>
       <c r="H140" s="12"/>
       <c r="I140" s="3"/>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="26"/>
-      <c r="B141" s="23"/>
-      <c r="C141" s="32"/>
-      <c r="D141" s="29"/>
-      <c r="E141" s="29"/>
+      <c r="A141" s="36"/>
+      <c r="B141" s="33"/>
+      <c r="C141" s="27"/>
+      <c r="D141" s="20"/>
+      <c r="E141" s="20"/>
       <c r="F141" s="3" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G141" s="3"/>
       <c r="H141" s="12"/>
       <c r="I141" s="3"/>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="26"/>
-      <c r="B142" s="23"/>
-      <c r="C142" s="32"/>
-      <c r="D142" s="29"/>
-      <c r="E142" s="29"/>
+      <c r="A142" s="36"/>
+      <c r="B142" s="33"/>
+      <c r="C142" s="27"/>
+      <c r="D142" s="20"/>
+      <c r="E142" s="20"/>
       <c r="F142" s="3" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G142" s="3"/>
       <c r="H142" s="12"/>
       <c r="I142" s="3"/>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="26"/>
-      <c r="B143" s="23"/>
-      <c r="C143" s="32"/>
-      <c r="D143" s="30"/>
-      <c r="E143" s="30"/>
+      <c r="A143" s="36"/>
+      <c r="B143" s="33"/>
+      <c r="C143" s="27"/>
+      <c r="D143" s="21"/>
+      <c r="E143" s="21"/>
       <c r="F143" s="3" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G143" s="3"/>
       <c r="H143" s="12"/>
       <c r="I143" s="3"/>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="26"/>
-      <c r="B144" s="23"/>
-      <c r="C144" s="32"/>
-      <c r="D144" s="28" t="s">
+      <c r="A144" s="36"/>
+      <c r="B144" s="33"/>
+      <c r="C144" s="27"/>
+      <c r="D144" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="E144" s="28" t="s">
+      <c r="E144" s="19" t="s">
         <v>124</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G144" s="3"/>
       <c r="H144" s="12"/>
       <c r="I144" s="3"/>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="26"/>
-      <c r="B145" s="23"/>
-      <c r="C145" s="32"/>
-      <c r="D145" s="29"/>
-      <c r="E145" s="29"/>
+      <c r="A145" s="36"/>
+      <c r="B145" s="33"/>
+      <c r="C145" s="27"/>
+      <c r="D145" s="20"/>
+      <c r="E145" s="20"/>
       <c r="F145" s="3" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="G145" s="3"/>
       <c r="H145" s="12"/>
       <c r="I145" s="3"/>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="26"/>
-      <c r="B146" s="23"/>
-      <c r="C146" s="32"/>
-      <c r="D146" s="29"/>
-      <c r="E146" s="29"/>
+      <c r="A146" s="36"/>
+      <c r="B146" s="33"/>
+      <c r="C146" s="27"/>
+      <c r="D146" s="20"/>
+      <c r="E146" s="20"/>
       <c r="F146" s="3" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G146" s="3"/>
       <c r="H146" s="12"/>
       <c r="I146" s="3"/>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="26"/>
-      <c r="B147" s="23"/>
-      <c r="C147" s="32"/>
-      <c r="D147" s="30"/>
-      <c r="E147" s="30"/>
+      <c r="A147" s="36"/>
+      <c r="B147" s="33"/>
+      <c r="C147" s="27"/>
+      <c r="D147" s="21"/>
+      <c r="E147" s="21"/>
       <c r="F147" s="3" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G147" s="3"/>
       <c r="H147" s="12"/>
       <c r="I147" s="3"/>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="26"/>
-      <c r="B148" s="23"/>
-      <c r="C148" s="32"/>
-      <c r="D148" s="28" t="s">
+      <c r="A148" s="36"/>
+      <c r="B148" s="33"/>
+      <c r="C148" s="27"/>
+      <c r="D148" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="E148" s="28" t="s">
+      <c r="E148" s="19" t="s">
         <v>125</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G148" s="3"/>
       <c r="H148" s="12"/>
       <c r="I148" s="3"/>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="26"/>
-      <c r="B149" s="23"/>
-      <c r="C149" s="32"/>
-      <c r="D149" s="29"/>
-      <c r="E149" s="29"/>
+      <c r="A149" s="36"/>
+      <c r="B149" s="33"/>
+      <c r="C149" s="27"/>
+      <c r="D149" s="20"/>
+      <c r="E149" s="20"/>
       <c r="F149" s="3" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G149" s="3"/>
       <c r="H149" s="12"/>
       <c r="I149" s="3"/>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="26"/>
-      <c r="B150" s="23"/>
-      <c r="C150" s="32"/>
-      <c r="D150" s="29"/>
-      <c r="E150" s="29"/>
+      <c r="A150" s="36"/>
+      <c r="B150" s="33"/>
+      <c r="C150" s="27"/>
+      <c r="D150" s="20"/>
+      <c r="E150" s="20"/>
       <c r="F150" s="3" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G150" s="3"/>
       <c r="H150" s="12"/>
       <c r="I150" s="3"/>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="26"/>
-      <c r="B151" s="23"/>
-      <c r="C151" s="32"/>
-      <c r="D151" s="30"/>
-      <c r="E151" s="30"/>
+      <c r="A151" s="36"/>
+      <c r="B151" s="33"/>
+      <c r="C151" s="27"/>
+      <c r="D151" s="21"/>
+      <c r="E151" s="21"/>
       <c r="F151" s="3" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G151" s="3"/>
       <c r="H151" s="12"/>
       <c r="I151" s="3"/>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="26"/>
-      <c r="B152" s="23"/>
-      <c r="C152" s="32"/>
-      <c r="D152" s="28" t="s">
+      <c r="A152" s="36"/>
+      <c r="B152" s="33"/>
+      <c r="C152" s="27"/>
+      <c r="D152" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="E152" s="28" t="s">
+      <c r="E152" s="19" t="s">
         <v>126</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G152" s="3"/>
       <c r="H152" s="12"/>
       <c r="I152" s="3"/>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="26"/>
-      <c r="B153" s="23"/>
-      <c r="C153" s="32"/>
-      <c r="D153" s="29"/>
-      <c r="E153" s="29"/>
+      <c r="A153" s="36"/>
+      <c r="B153" s="33"/>
+      <c r="C153" s="27"/>
+      <c r="D153" s="20"/>
+      <c r="E153" s="20"/>
       <c r="F153" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="G153" s="3"/>
       <c r="H153" s="12"/>
       <c r="I153" s="3"/>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="26"/>
-      <c r="B154" s="23"/>
-      <c r="C154" s="32"/>
-      <c r="D154" s="29"/>
-      <c r="E154" s="29"/>
+      <c r="A154" s="36"/>
+      <c r="B154" s="33"/>
+      <c r="C154" s="27"/>
+      <c r="D154" s="20"/>
+      <c r="E154" s="20"/>
       <c r="F154" s="3" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G154" s="3"/>
       <c r="H154" s="12"/>
       <c r="I154" s="3"/>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="26"/>
-      <c r="B155" s="23"/>
-      <c r="C155" s="32"/>
-      <c r="D155" s="30"/>
-      <c r="E155" s="30"/>
+      <c r="A155" s="36"/>
+      <c r="B155" s="33"/>
+      <c r="C155" s="27"/>
+      <c r="D155" s="21"/>
+      <c r="E155" s="21"/>
       <c r="F155" s="3" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="G155" s="3"/>
       <c r="H155" s="12"/>
       <c r="I155" s="3"/>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="26"/>
-      <c r="B156" s="23"/>
-      <c r="C156" s="32"/>
+      <c r="A156" s="36"/>
+      <c r="B156" s="33"/>
+      <c r="C156" s="27"/>
       <c r="D156" s="13"/>
       <c r="E156" s="13"/>
       <c r="F156" s="3"/>
@@ -6102,9 +6089,9 @@
       <c r="I156" s="3"/>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="26"/>
-      <c r="B157" s="23"/>
-      <c r="C157" s="33"/>
+      <c r="A157" s="36"/>
+      <c r="B157" s="33"/>
+      <c r="C157" s="28"/>
       <c r="D157" s="13"/>
       <c r="E157" s="13"/>
       <c r="F157" s="3"/>
@@ -6113,235 +6100,235 @@
       <c r="I157" s="3"/>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="26"/>
-      <c r="B158" s="23"/>
-      <c r="C158" s="34" t="s">
+      <c r="A158" s="36"/>
+      <c r="B158" s="33"/>
+      <c r="C158" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="D158" s="28" t="s">
+      <c r="D158" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="E158" s="28" t="s">
+      <c r="E158" s="19" t="s">
         <v>129</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G158" s="3"/>
       <c r="H158" s="12"/>
       <c r="I158" s="3"/>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="26"/>
-      <c r="B159" s="23"/>
-      <c r="C159" s="34"/>
-      <c r="D159" s="29"/>
-      <c r="E159" s="29"/>
+      <c r="A159" s="36"/>
+      <c r="B159" s="33"/>
+      <c r="C159" s="38"/>
+      <c r="D159" s="20"/>
+      <c r="E159" s="20"/>
       <c r="F159" s="3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G159" s="3"/>
       <c r="H159" s="12"/>
       <c r="I159" s="3"/>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="26"/>
-      <c r="B160" s="23"/>
-      <c r="C160" s="34"/>
-      <c r="D160" s="29"/>
-      <c r="E160" s="29"/>
+      <c r="A160" s="36"/>
+      <c r="B160" s="33"/>
+      <c r="C160" s="38"/>
+      <c r="D160" s="20"/>
+      <c r="E160" s="20"/>
       <c r="F160" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="G160" s="3"/>
       <c r="H160" s="12"/>
       <c r="I160" s="3"/>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="26"/>
-      <c r="B161" s="23"/>
-      <c r="C161" s="34"/>
-      <c r="D161" s="30"/>
-      <c r="E161" s="30"/>
+      <c r="A161" s="36"/>
+      <c r="B161" s="33"/>
+      <c r="C161" s="38"/>
+      <c r="D161" s="21"/>
+      <c r="E161" s="21"/>
       <c r="F161" s="3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G161" s="3"/>
       <c r="H161" s="12"/>
       <c r="I161" s="3"/>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="26"/>
-      <c r="B162" s="23"/>
-      <c r="C162" s="34"/>
-      <c r="D162" s="28" t="s">
+      <c r="A162" s="36"/>
+      <c r="B162" s="33"/>
+      <c r="C162" s="38"/>
+      <c r="D162" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="E162" s="28" t="s">
+      <c r="E162" s="19" t="s">
         <v>130</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G162" s="3"/>
       <c r="H162" s="12"/>
       <c r="I162" s="3"/>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" s="26"/>
-      <c r="B163" s="23"/>
-      <c r="C163" s="34"/>
-      <c r="D163" s="29"/>
-      <c r="E163" s="29"/>
+      <c r="A163" s="36"/>
+      <c r="B163" s="33"/>
+      <c r="C163" s="38"/>
+      <c r="D163" s="20"/>
+      <c r="E163" s="20"/>
       <c r="F163" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G163" s="3"/>
       <c r="H163" s="12"/>
       <c r="I163" s="3"/>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" s="26"/>
-      <c r="B164" s="23"/>
-      <c r="C164" s="34"/>
-      <c r="D164" s="29"/>
-      <c r="E164" s="29"/>
+      <c r="A164" s="36"/>
+      <c r="B164" s="33"/>
+      <c r="C164" s="38"/>
+      <c r="D164" s="20"/>
+      <c r="E164" s="20"/>
       <c r="F164" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G164" s="3"/>
       <c r="H164" s="12"/>
       <c r="I164" s="3"/>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="26"/>
-      <c r="B165" s="23"/>
-      <c r="C165" s="34"/>
-      <c r="D165" s="30"/>
-      <c r="E165" s="30"/>
+      <c r="A165" s="36"/>
+      <c r="B165" s="33"/>
+      <c r="C165" s="38"/>
+      <c r="D165" s="21"/>
+      <c r="E165" s="21"/>
       <c r="F165" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G165" s="3"/>
       <c r="H165" s="12"/>
       <c r="I165" s="3"/>
     </row>
     <row r="166" spans="1:9">
-      <c r="A166" s="26"/>
-      <c r="B166" s="23"/>
-      <c r="C166" s="34"/>
-      <c r="D166" s="38" t="s">
+      <c r="A166" s="36"/>
+      <c r="B166" s="33"/>
+      <c r="C166" s="38"/>
+      <c r="D166" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="E166" s="38" t="s">
+      <c r="E166" s="22" t="s">
         <v>127</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G166" s="3"/>
       <c r="H166" s="12"/>
       <c r="I166" s="3"/>
     </row>
     <row r="167" spans="1:9">
-      <c r="A167" s="26"/>
-      <c r="B167" s="23"/>
-      <c r="C167" s="34"/>
-      <c r="D167" s="38"/>
-      <c r="E167" s="38"/>
+      <c r="A167" s="36"/>
+      <c r="B167" s="33"/>
+      <c r="C167" s="38"/>
+      <c r="D167" s="22"/>
+      <c r="E167" s="22"/>
       <c r="F167" s="3" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G167" s="3"/>
       <c r="H167" s="12"/>
       <c r="I167" s="3"/>
     </row>
     <row r="168" spans="1:9">
-      <c r="A168" s="26"/>
-      <c r="B168" s="23"/>
-      <c r="C168" s="34"/>
-      <c r="D168" s="38"/>
-      <c r="E168" s="38"/>
+      <c r="A168" s="36"/>
+      <c r="B168" s="33"/>
+      <c r="C168" s="38"/>
+      <c r="D168" s="22"/>
+      <c r="E168" s="22"/>
       <c r="F168" s="3" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="G168" s="3"/>
       <c r="H168" s="12"/>
       <c r="I168" s="3"/>
     </row>
     <row r="169" spans="1:9">
-      <c r="A169" s="26"/>
-      <c r="B169" s="23"/>
-      <c r="C169" s="34"/>
-      <c r="D169" s="38"/>
-      <c r="E169" s="38"/>
+      <c r="A169" s="36"/>
+      <c r="B169" s="33"/>
+      <c r="C169" s="38"/>
+      <c r="D169" s="22"/>
+      <c r="E169" s="22"/>
       <c r="F169" s="3" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G169" s="3"/>
       <c r="H169" s="12"/>
       <c r="I169" s="3"/>
     </row>
     <row r="170" spans="1:9">
-      <c r="A170" s="26"/>
-      <c r="B170" s="23"/>
-      <c r="C170" s="34"/>
-      <c r="D170" s="38" t="s">
+      <c r="A170" s="36"/>
+      <c r="B170" s="33"/>
+      <c r="C170" s="38"/>
+      <c r="D170" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="E170" s="38" t="s">
+      <c r="E170" s="22" t="s">
         <v>128</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G170" s="3"/>
       <c r="H170" s="12"/>
       <c r="I170" s="3"/>
     </row>
     <row r="171" spans="1:9">
-      <c r="A171" s="26"/>
-      <c r="B171" s="23"/>
-      <c r="C171" s="34"/>
-      <c r="D171" s="38"/>
-      <c r="E171" s="38"/>
+      <c r="A171" s="36"/>
+      <c r="B171" s="33"/>
+      <c r="C171" s="38"/>
+      <c r="D171" s="22"/>
+      <c r="E171" s="22"/>
       <c r="F171" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G171" s="3"/>
       <c r="H171" s="12"/>
       <c r="I171" s="3"/>
     </row>
     <row r="172" spans="1:9">
-      <c r="A172" s="26"/>
-      <c r="B172" s="23"/>
-      <c r="C172" s="34"/>
-      <c r="D172" s="38"/>
-      <c r="E172" s="38"/>
+      <c r="A172" s="36"/>
+      <c r="B172" s="33"/>
+      <c r="C172" s="38"/>
+      <c r="D172" s="22"/>
+      <c r="E172" s="22"/>
       <c r="F172" s="3" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G172" s="3"/>
       <c r="H172" s="12"/>
       <c r="I172" s="3"/>
     </row>
     <row r="173" spans="1:9">
-      <c r="A173" s="26"/>
-      <c r="B173" s="23"/>
-      <c r="C173" s="34"/>
-      <c r="D173" s="38"/>
-      <c r="E173" s="38"/>
+      <c r="A173" s="36"/>
+      <c r="B173" s="33"/>
+      <c r="C173" s="38"/>
+      <c r="D173" s="22"/>
+      <c r="E173" s="22"/>
       <c r="F173" s="3" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="G173" s="3"/>
       <c r="H173" s="12"/>
       <c r="I173" s="3"/>
     </row>
     <row r="174" spans="1:9">
-      <c r="A174" s="26"/>
-      <c r="B174" s="23"/>
-      <c r="C174" s="34"/>
+      <c r="A174" s="36"/>
+      <c r="B174" s="33"/>
+      <c r="C174" s="38"/>
       <c r="D174" s="13"/>
       <c r="E174" s="13"/>
       <c r="F174" s="3"/>
@@ -6350,9 +6337,9 @@
       <c r="I174" s="3"/>
     </row>
     <row r="175" spans="1:9">
-      <c r="A175" s="26"/>
-      <c r="B175" s="23"/>
-      <c r="C175" s="34"/>
+      <c r="A175" s="36"/>
+      <c r="B175" s="33"/>
+      <c r="C175" s="38"/>
       <c r="D175" s="13"/>
       <c r="E175" s="13"/>
       <c r="F175" s="3"/>
@@ -6361,227 +6348,227 @@
       <c r="I175" s="3"/>
     </row>
     <row r="176" spans="1:9">
-      <c r="A176" s="26"/>
-      <c r="B176" s="23"/>
-      <c r="C176" s="31" t="s">
+      <c r="A176" s="36"/>
+      <c r="B176" s="33"/>
+      <c r="C176" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D176" s="28" t="s">
+      <c r="D176" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="E176" s="28"/>
+      <c r="E176" s="19"/>
       <c r="F176" s="3" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G176" s="3"/>
       <c r="H176" s="12"/>
       <c r="I176" s="3"/>
     </row>
     <row r="177" spans="1:9">
-      <c r="A177" s="26"/>
-      <c r="B177" s="23"/>
-      <c r="C177" s="32"/>
-      <c r="D177" s="29"/>
-      <c r="E177" s="29"/>
+      <c r="A177" s="36"/>
+      <c r="B177" s="33"/>
+      <c r="C177" s="27"/>
+      <c r="D177" s="20"/>
+      <c r="E177" s="20"/>
       <c r="F177" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G177" s="3"/>
       <c r="H177" s="12"/>
       <c r="I177" s="3"/>
     </row>
     <row r="178" spans="1:9">
-      <c r="A178" s="26"/>
-      <c r="B178" s="23"/>
-      <c r="C178" s="32"/>
-      <c r="D178" s="29"/>
-      <c r="E178" s="29"/>
+      <c r="A178" s="36"/>
+      <c r="B178" s="33"/>
+      <c r="C178" s="27"/>
+      <c r="D178" s="20"/>
+      <c r="E178" s="20"/>
       <c r="F178" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="G178" s="3"/>
       <c r="H178" s="12"/>
       <c r="I178" s="3"/>
     </row>
     <row r="179" spans="1:9">
-      <c r="A179" s="26"/>
-      <c r="B179" s="23"/>
-      <c r="C179" s="32"/>
-      <c r="D179" s="30"/>
-      <c r="E179" s="30"/>
+      <c r="A179" s="36"/>
+      <c r="B179" s="33"/>
+      <c r="C179" s="27"/>
+      <c r="D179" s="21"/>
+      <c r="E179" s="21"/>
       <c r="F179" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G179" s="3"/>
       <c r="H179" s="12"/>
       <c r="I179" s="3"/>
     </row>
     <row r="180" spans="1:9">
-      <c r="A180" s="26"/>
-      <c r="B180" s="23"/>
-      <c r="C180" s="32"/>
-      <c r="D180" s="28" t="s">
-        <v>398</v>
-      </c>
-      <c r="E180" s="28"/>
+      <c r="A180" s="36"/>
+      <c r="B180" s="33"/>
+      <c r="C180" s="27"/>
+      <c r="D180" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="E180" s="19"/>
       <c r="F180" s="3" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G180" s="3"/>
       <c r="H180" s="12"/>
       <c r="I180" s="3"/>
     </row>
     <row r="181" spans="1:9">
-      <c r="A181" s="26"/>
-      <c r="B181" s="23"/>
-      <c r="C181" s="32"/>
-      <c r="D181" s="29"/>
-      <c r="E181" s="29"/>
+      <c r="A181" s="36"/>
+      <c r="B181" s="33"/>
+      <c r="C181" s="27"/>
+      <c r="D181" s="20"/>
+      <c r="E181" s="20"/>
       <c r="F181" s="3" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G181" s="3"/>
       <c r="H181" s="12"/>
       <c r="I181" s="3"/>
     </row>
     <row r="182" spans="1:9">
-      <c r="A182" s="26"/>
-      <c r="B182" s="23"/>
-      <c r="C182" s="32"/>
-      <c r="D182" s="29"/>
-      <c r="E182" s="29"/>
+      <c r="A182" s="36"/>
+      <c r="B182" s="33"/>
+      <c r="C182" s="27"/>
+      <c r="D182" s="20"/>
+      <c r="E182" s="20"/>
       <c r="F182" s="3" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="G182" s="3"/>
       <c r="H182" s="12"/>
       <c r="I182" s="3"/>
     </row>
     <row r="183" spans="1:9">
-      <c r="A183" s="26"/>
-      <c r="B183" s="23"/>
-      <c r="C183" s="32"/>
-      <c r="D183" s="30"/>
-      <c r="E183" s="30"/>
+      <c r="A183" s="36"/>
+      <c r="B183" s="33"/>
+      <c r="C183" s="27"/>
+      <c r="D183" s="21"/>
+      <c r="E183" s="21"/>
       <c r="F183" s="3" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G183" s="3"/>
       <c r="H183" s="12"/>
       <c r="I183" s="3"/>
     </row>
     <row r="184" spans="1:9">
-      <c r="A184" s="26"/>
-      <c r="B184" s="23"/>
-      <c r="C184" s="32"/>
-      <c r="D184" s="28" t="s">
-        <v>399</v>
-      </c>
-      <c r="E184" s="28"/>
+      <c r="A184" s="36"/>
+      <c r="B184" s="33"/>
+      <c r="C184" s="27"/>
+      <c r="D184" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="E184" s="19"/>
       <c r="F184" s="3" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G184" s="3"/>
       <c r="H184" s="12"/>
       <c r="I184" s="3"/>
     </row>
     <row r="185" spans="1:9">
-      <c r="A185" s="26"/>
-      <c r="B185" s="23"/>
-      <c r="C185" s="32"/>
-      <c r="D185" s="29"/>
-      <c r="E185" s="29"/>
+      <c r="A185" s="36"/>
+      <c r="B185" s="33"/>
+      <c r="C185" s="27"/>
+      <c r="D185" s="20"/>
+      <c r="E185" s="20"/>
       <c r="F185" s="3" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G185" s="3"/>
       <c r="H185" s="12"/>
       <c r="I185" s="3"/>
     </row>
     <row r="186" spans="1:9">
-      <c r="A186" s="26"/>
-      <c r="B186" s="23"/>
-      <c r="C186" s="32"/>
-      <c r="D186" s="29"/>
-      <c r="E186" s="29"/>
+      <c r="A186" s="36"/>
+      <c r="B186" s="33"/>
+      <c r="C186" s="27"/>
+      <c r="D186" s="20"/>
+      <c r="E186" s="20"/>
       <c r="F186" s="3" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="G186" s="3"/>
       <c r="H186" s="12"/>
       <c r="I186" s="3"/>
     </row>
     <row r="187" spans="1:9">
-      <c r="A187" s="26"/>
-      <c r="B187" s="23"/>
-      <c r="C187" s="32"/>
-      <c r="D187" s="30"/>
-      <c r="E187" s="30"/>
+      <c r="A187" s="36"/>
+      <c r="B187" s="33"/>
+      <c r="C187" s="27"/>
+      <c r="D187" s="21"/>
+      <c r="E187" s="21"/>
       <c r="F187" s="3" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G187" s="3"/>
       <c r="H187" s="12"/>
       <c r="I187" s="3"/>
     </row>
     <row r="188" spans="1:9">
-      <c r="A188" s="26"/>
-      <c r="B188" s="23"/>
-      <c r="C188" s="32"/>
-      <c r="D188" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="E188" s="28"/>
+      <c r="A188" s="36"/>
+      <c r="B188" s="33"/>
+      <c r="C188" s="27"/>
+      <c r="D188" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="E188" s="19"/>
       <c r="F188" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G188" s="3"/>
       <c r="H188" s="12"/>
       <c r="I188" s="3"/>
     </row>
     <row r="189" spans="1:9">
-      <c r="A189" s="26"/>
-      <c r="B189" s="23"/>
-      <c r="C189" s="32"/>
-      <c r="D189" s="29"/>
-      <c r="E189" s="29"/>
+      <c r="A189" s="36"/>
+      <c r="B189" s="33"/>
+      <c r="C189" s="27"/>
+      <c r="D189" s="20"/>
+      <c r="E189" s="20"/>
       <c r="F189" s="3" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G189" s="3"/>
       <c r="H189" s="12"/>
       <c r="I189" s="3"/>
     </row>
     <row r="190" spans="1:9">
-      <c r="A190" s="26"/>
-      <c r="B190" s="23"/>
-      <c r="C190" s="32"/>
-      <c r="D190" s="29"/>
-      <c r="E190" s="29"/>
+      <c r="A190" s="36"/>
+      <c r="B190" s="33"/>
+      <c r="C190" s="27"/>
+      <c r="D190" s="20"/>
+      <c r="E190" s="20"/>
       <c r="F190" s="3" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G190" s="3"/>
       <c r="H190" s="12"/>
       <c r="I190" s="3"/>
     </row>
     <row r="191" spans="1:9">
-      <c r="A191" s="26"/>
-      <c r="B191" s="23"/>
-      <c r="C191" s="32"/>
-      <c r="D191" s="30"/>
-      <c r="E191" s="30"/>
+      <c r="A191" s="36"/>
+      <c r="B191" s="33"/>
+      <c r="C191" s="27"/>
+      <c r="D191" s="21"/>
+      <c r="E191" s="21"/>
       <c r="F191" s="3" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G191" s="3"/>
       <c r="H191" s="12"/>
       <c r="I191" s="3"/>
     </row>
     <row r="192" spans="1:9">
-      <c r="A192" s="26"/>
-      <c r="B192" s="23"/>
-      <c r="C192" s="32"/>
+      <c r="A192" s="36"/>
+      <c r="B192" s="33"/>
+      <c r="C192" s="27"/>
       <c r="D192" s="13"/>
       <c r="E192" s="13"/>
       <c r="F192" s="3"/>
@@ -6590,9 +6577,9 @@
       <c r="I192" s="3"/>
     </row>
     <row r="193" spans="1:9">
-      <c r="A193" s="26"/>
-      <c r="B193" s="23"/>
-      <c r="C193" s="33"/>
+      <c r="A193" s="36"/>
+      <c r="B193" s="33"/>
+      <c r="C193" s="28"/>
       <c r="D193" s="13"/>
       <c r="E193" s="13"/>
       <c r="F193" s="3"/>
@@ -6601,291 +6588,291 @@
       <c r="I193" s="3"/>
     </row>
     <row r="194" spans="1:9">
-      <c r="A194" s="26"/>
-      <c r="B194" s="23"/>
-      <c r="C194" s="34" t="s">
+      <c r="A194" s="36"/>
+      <c r="B194" s="33"/>
+      <c r="C194" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="D194" s="28" t="s">
+      <c r="D194" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="E194" s="28" t="s">
+      <c r="E194" s="19" t="s">
         <v>134</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G194" s="3"/>
       <c r="H194" s="12"/>
       <c r="I194" s="3"/>
     </row>
     <row r="195" spans="1:9">
-      <c r="A195" s="26"/>
-      <c r="B195" s="23"/>
-      <c r="C195" s="34"/>
-      <c r="D195" s="29"/>
-      <c r="E195" s="29"/>
+      <c r="A195" s="36"/>
+      <c r="B195" s="33"/>
+      <c r="C195" s="38"/>
+      <c r="D195" s="20"/>
+      <c r="E195" s="20"/>
       <c r="F195" s="3" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G195" s="3"/>
       <c r="H195" s="12"/>
       <c r="I195" s="3"/>
     </row>
     <row r="196" spans="1:9">
-      <c r="A196" s="26"/>
-      <c r="B196" s="23"/>
-      <c r="C196" s="34"/>
-      <c r="D196" s="29"/>
-      <c r="E196" s="29"/>
+      <c r="A196" s="36"/>
+      <c r="B196" s="33"/>
+      <c r="C196" s="38"/>
+      <c r="D196" s="20"/>
+      <c r="E196" s="20"/>
       <c r="F196" s="3" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="G196" s="3"/>
       <c r="H196" s="12"/>
       <c r="I196" s="3"/>
     </row>
     <row r="197" spans="1:9">
-      <c r="A197" s="26"/>
-      <c r="B197" s="23"/>
-      <c r="C197" s="34"/>
-      <c r="D197" s="30"/>
-      <c r="E197" s="30"/>
+      <c r="A197" s="36"/>
+      <c r="B197" s="33"/>
+      <c r="C197" s="38"/>
+      <c r="D197" s="21"/>
+      <c r="E197" s="21"/>
       <c r="F197" s="3" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G197" s="3"/>
       <c r="H197" s="12"/>
       <c r="I197" s="3"/>
     </row>
     <row r="198" spans="1:9">
-      <c r="A198" s="26"/>
-      <c r="B198" s="23"/>
-      <c r="C198" s="34"/>
-      <c r="D198" s="28" t="s">
+      <c r="A198" s="36"/>
+      <c r="B198" s="33"/>
+      <c r="C198" s="38"/>
+      <c r="D198" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="E198" s="28" t="s">
+      <c r="E198" s="19" t="s">
         <v>135</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G198" s="3"/>
       <c r="H198" s="12"/>
       <c r="I198" s="3"/>
     </row>
     <row r="199" spans="1:9">
-      <c r="A199" s="26"/>
-      <c r="B199" s="23"/>
-      <c r="C199" s="34"/>
-      <c r="D199" s="29"/>
-      <c r="E199" s="29"/>
+      <c r="A199" s="36"/>
+      <c r="B199" s="33"/>
+      <c r="C199" s="38"/>
+      <c r="D199" s="20"/>
+      <c r="E199" s="20"/>
       <c r="F199" s="3" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G199" s="3"/>
       <c r="H199" s="12"/>
       <c r="I199" s="3"/>
     </row>
     <row r="200" spans="1:9">
-      <c r="A200" s="26"/>
-      <c r="B200" s="23"/>
-      <c r="C200" s="34"/>
-      <c r="D200" s="29"/>
-      <c r="E200" s="29"/>
+      <c r="A200" s="36"/>
+      <c r="B200" s="33"/>
+      <c r="C200" s="38"/>
+      <c r="D200" s="20"/>
+      <c r="E200" s="20"/>
       <c r="F200" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G200" s="3"/>
       <c r="H200" s="12"/>
       <c r="I200" s="3"/>
     </row>
     <row r="201" spans="1:9">
-      <c r="A201" s="26"/>
-      <c r="B201" s="23"/>
-      <c r="C201" s="34"/>
-      <c r="D201" s="30"/>
-      <c r="E201" s="30"/>
+      <c r="A201" s="36"/>
+      <c r="B201" s="33"/>
+      <c r="C201" s="38"/>
+      <c r="D201" s="21"/>
+      <c r="E201" s="21"/>
       <c r="F201" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="G201" s="3"/>
       <c r="H201" s="12"/>
       <c r="I201" s="3"/>
     </row>
     <row r="202" spans="1:9">
-      <c r="A202" s="26"/>
-      <c r="B202" s="23"/>
-      <c r="C202" s="34"/>
-      <c r="D202" s="28" t="s">
+      <c r="A202" s="36"/>
+      <c r="B202" s="33"/>
+      <c r="C202" s="38"/>
+      <c r="D202" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="E202" s="28" t="s">
+      <c r="E202" s="19" t="s">
         <v>133</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G202" s="3"/>
       <c r="H202" s="12"/>
       <c r="I202" s="3"/>
     </row>
     <row r="203" spans="1:9">
-      <c r="A203" s="26"/>
-      <c r="B203" s="23"/>
-      <c r="C203" s="34"/>
-      <c r="D203" s="29"/>
-      <c r="E203" s="29"/>
+      <c r="A203" s="36"/>
+      <c r="B203" s="33"/>
+      <c r="C203" s="38"/>
+      <c r="D203" s="20"/>
+      <c r="E203" s="20"/>
       <c r="F203" s="3" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G203" s="3"/>
       <c r="H203" s="12"/>
       <c r="I203" s="3"/>
     </row>
     <row r="204" spans="1:9">
-      <c r="A204" s="26"/>
-      <c r="B204" s="23"/>
-      <c r="C204" s="34"/>
-      <c r="D204" s="29"/>
-      <c r="E204" s="29"/>
+      <c r="A204" s="36"/>
+      <c r="B204" s="33"/>
+      <c r="C204" s="38"/>
+      <c r="D204" s="20"/>
+      <c r="E204" s="20"/>
       <c r="F204" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="G204" s="3"/>
       <c r="H204" s="12"/>
       <c r="I204" s="3"/>
     </row>
     <row r="205" spans="1:9">
-      <c r="A205" s="26"/>
-      <c r="B205" s="23"/>
-      <c r="C205" s="34"/>
-      <c r="D205" s="30"/>
-      <c r="E205" s="30"/>
+      <c r="A205" s="36"/>
+      <c r="B205" s="33"/>
+      <c r="C205" s="38"/>
+      <c r="D205" s="21"/>
+      <c r="E205" s="21"/>
       <c r="F205" s="3" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G205" s="3"/>
       <c r="H205" s="12"/>
       <c r="I205" s="3"/>
     </row>
     <row r="206" spans="1:9">
-      <c r="A206" s="26"/>
-      <c r="B206" s="23"/>
-      <c r="C206" s="34"/>
-      <c r="D206" s="28" t="s">
+      <c r="A206" s="36"/>
+      <c r="B206" s="33"/>
+      <c r="C206" s="38"/>
+      <c r="D206" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="E206" s="28" t="s">
+      <c r="E206" s="19" t="s">
         <v>132</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G206" s="3"/>
       <c r="H206" s="12"/>
       <c r="I206" s="3"/>
     </row>
     <row r="207" spans="1:9">
-      <c r="A207" s="26"/>
-      <c r="B207" s="23"/>
-      <c r="C207" s="34"/>
-      <c r="D207" s="29"/>
-      <c r="E207" s="29"/>
+      <c r="A207" s="36"/>
+      <c r="B207" s="33"/>
+      <c r="C207" s="38"/>
+      <c r="D207" s="20"/>
+      <c r="E207" s="20"/>
       <c r="F207" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="G207" s="3"/>
       <c r="H207" s="12"/>
       <c r="I207" s="3"/>
     </row>
     <row r="208" spans="1:9">
-      <c r="A208" s="26"/>
-      <c r="B208" s="23"/>
-      <c r="C208" s="34"/>
-      <c r="D208" s="29"/>
-      <c r="E208" s="29"/>
+      <c r="A208" s="36"/>
+      <c r="B208" s="33"/>
+      <c r="C208" s="38"/>
+      <c r="D208" s="20"/>
+      <c r="E208" s="20"/>
       <c r="F208" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G208" s="3"/>
       <c r="H208" s="12"/>
       <c r="I208" s="3"/>
     </row>
     <row r="209" spans="1:9">
-      <c r="A209" s="26"/>
-      <c r="B209" s="23"/>
-      <c r="C209" s="34"/>
-      <c r="D209" s="30"/>
-      <c r="E209" s="30"/>
+      <c r="A209" s="36"/>
+      <c r="B209" s="33"/>
+      <c r="C209" s="38"/>
+      <c r="D209" s="21"/>
+      <c r="E209" s="21"/>
       <c r="F209" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="G209" s="3"/>
       <c r="H209" s="12"/>
       <c r="I209" s="3"/>
     </row>
     <row r="210" spans="1:9">
-      <c r="A210" s="26"/>
-      <c r="B210" s="23"/>
-      <c r="C210" s="34"/>
-      <c r="D210" s="35" t="s">
+      <c r="A210" s="36"/>
+      <c r="B210" s="33"/>
+      <c r="C210" s="38"/>
+      <c r="D210" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="E210" s="38" t="s">
+      <c r="E210" s="22" t="s">
         <v>131</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G210" s="3"/>
       <c r="H210" s="12"/>
       <c r="I210" s="3"/>
     </row>
     <row r="211" spans="1:9">
-      <c r="A211" s="26"/>
-      <c r="B211" s="23"/>
-      <c r="C211" s="34"/>
-      <c r="D211" s="36"/>
-      <c r="E211" s="38"/>
+      <c r="A211" s="36"/>
+      <c r="B211" s="33"/>
+      <c r="C211" s="38"/>
+      <c r="D211" s="24"/>
+      <c r="E211" s="22"/>
       <c r="F211" s="3" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G211" s="3"/>
       <c r="H211" s="12"/>
       <c r="I211" s="3"/>
     </row>
     <row r="212" spans="1:9">
-      <c r="A212" s="26"/>
-      <c r="B212" s="23"/>
-      <c r="C212" s="34"/>
-      <c r="D212" s="36"/>
-      <c r="E212" s="38"/>
+      <c r="A212" s="36"/>
+      <c r="B212" s="33"/>
+      <c r="C212" s="38"/>
+      <c r="D212" s="24"/>
+      <c r="E212" s="22"/>
       <c r="F212" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="G212" s="3"/>
       <c r="H212" s="12"/>
       <c r="I212" s="3"/>
     </row>
     <row r="213" spans="1:9">
-      <c r="A213" s="26"/>
-      <c r="B213" s="23"/>
-      <c r="C213" s="34"/>
-      <c r="D213" s="37"/>
-      <c r="E213" s="38"/>
+      <c r="A213" s="36"/>
+      <c r="B213" s="33"/>
+      <c r="C213" s="38"/>
+      <c r="D213" s="25"/>
+      <c r="E213" s="22"/>
       <c r="F213" s="3" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G213" s="3"/>
       <c r="H213" s="12"/>
       <c r="I213" s="3"/>
     </row>
     <row r="214" spans="1:9">
-      <c r="A214" s="26"/>
-      <c r="B214" s="23"/>
-      <c r="C214" s="34"/>
+      <c r="A214" s="36"/>
+      <c r="B214" s="33"/>
+      <c r="C214" s="38"/>
       <c r="D214" s="13"/>
       <c r="E214" s="13"/>
       <c r="F214" s="3"/>
@@ -6894,9 +6881,9 @@
       <c r="I214" s="3"/>
     </row>
     <row r="215" spans="1:9">
-      <c r="A215" s="26"/>
-      <c r="B215" s="23"/>
-      <c r="C215" s="34"/>
+      <c r="A215" s="36"/>
+      <c r="B215" s="33"/>
+      <c r="C215" s="38"/>
       <c r="D215" s="13"/>
       <c r="E215" s="13"/>
       <c r="F215" s="3"/>
@@ -6905,179 +6892,179 @@
       <c r="I215" s="3"/>
     </row>
     <row r="216" spans="1:9">
-      <c r="A216" s="26"/>
-      <c r="B216" s="23"/>
-      <c r="C216" s="34" t="s">
+      <c r="A216" s="36"/>
+      <c r="B216" s="33"/>
+      <c r="C216" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="D216" s="28" t="s">
+      <c r="D216" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="E216" s="28" t="s">
+      <c r="E216" s="19" t="s">
         <v>138</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G216" s="3"/>
       <c r="H216" s="12"/>
       <c r="I216" s="3"/>
     </row>
     <row r="217" spans="1:9">
-      <c r="A217" s="26"/>
-      <c r="B217" s="23"/>
-      <c r="C217" s="34"/>
-      <c r="D217" s="29"/>
-      <c r="E217" s="29"/>
+      <c r="A217" s="36"/>
+      <c r="B217" s="33"/>
+      <c r="C217" s="38"/>
+      <c r="D217" s="20"/>
+      <c r="E217" s="20"/>
       <c r="F217" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G217" s="3"/>
       <c r="H217" s="12"/>
       <c r="I217" s="3"/>
     </row>
     <row r="218" spans="1:9">
-      <c r="A218" s="26"/>
-      <c r="B218" s="23"/>
-      <c r="C218" s="34"/>
-      <c r="D218" s="29"/>
-      <c r="E218" s="29"/>
+      <c r="A218" s="36"/>
+      <c r="B218" s="33"/>
+      <c r="C218" s="38"/>
+      <c r="D218" s="20"/>
+      <c r="E218" s="20"/>
       <c r="F218" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G218" s="3"/>
       <c r="H218" s="12"/>
       <c r="I218" s="3"/>
     </row>
     <row r="219" spans="1:9">
-      <c r="A219" s="26"/>
-      <c r="B219" s="23"/>
-      <c r="C219" s="34"/>
-      <c r="D219" s="30"/>
-      <c r="E219" s="30"/>
+      <c r="A219" s="36"/>
+      <c r="B219" s="33"/>
+      <c r="C219" s="38"/>
+      <c r="D219" s="21"/>
+      <c r="E219" s="21"/>
       <c r="F219" s="3" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="G219" s="3"/>
       <c r="H219" s="12"/>
       <c r="I219" s="3"/>
     </row>
     <row r="220" spans="1:9">
-      <c r="A220" s="26"/>
-      <c r="B220" s="23"/>
-      <c r="C220" s="34"/>
-      <c r="D220" s="28" t="s">
+      <c r="A220" s="36"/>
+      <c r="B220" s="33"/>
+      <c r="C220" s="38"/>
+      <c r="D220" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="E220" s="28" t="s">
+      <c r="E220" s="19" t="s">
         <v>139</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G220" s="3"/>
       <c r="H220" s="12"/>
       <c r="I220" s="3"/>
     </row>
     <row r="221" spans="1:9">
-      <c r="A221" s="26"/>
-      <c r="B221" s="23"/>
-      <c r="C221" s="34"/>
-      <c r="D221" s="29"/>
-      <c r="E221" s="29"/>
+      <c r="A221" s="36"/>
+      <c r="B221" s="33"/>
+      <c r="C221" s="38"/>
+      <c r="D221" s="20"/>
+      <c r="E221" s="20"/>
       <c r="F221" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G221" s="3"/>
       <c r="H221" s="12"/>
       <c r="I221" s="3"/>
     </row>
     <row r="222" spans="1:9">
-      <c r="A222" s="26"/>
-      <c r="B222" s="23"/>
-      <c r="C222" s="34"/>
-      <c r="D222" s="29"/>
-      <c r="E222" s="29"/>
+      <c r="A222" s="36"/>
+      <c r="B222" s="33"/>
+      <c r="C222" s="38"/>
+      <c r="D222" s="20"/>
+      <c r="E222" s="20"/>
       <c r="F222" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="G222" s="3"/>
       <c r="H222" s="12"/>
       <c r="I222" s="3"/>
     </row>
     <row r="223" spans="1:9">
-      <c r="A223" s="26"/>
-      <c r="B223" s="23"/>
-      <c r="C223" s="34"/>
-      <c r="D223" s="30"/>
-      <c r="E223" s="30"/>
+      <c r="A223" s="36"/>
+      <c r="B223" s="33"/>
+      <c r="C223" s="38"/>
+      <c r="D223" s="21"/>
+      <c r="E223" s="21"/>
       <c r="F223" s="3" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G223" s="3"/>
       <c r="H223" s="12"/>
       <c r="I223" s="3"/>
     </row>
     <row r="224" spans="1:9">
-      <c r="A224" s="26"/>
-      <c r="B224" s="23"/>
-      <c r="C224" s="34"/>
-      <c r="D224" s="28" t="s">
+      <c r="A224" s="36"/>
+      <c r="B224" s="33"/>
+      <c r="C224" s="38"/>
+      <c r="D224" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="E224" s="28" t="s">
+      <c r="E224" s="19" t="s">
         <v>140</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G224" s="3"/>
       <c r="H224" s="12"/>
       <c r="I224" s="3"/>
     </row>
     <row r="225" spans="1:9">
-      <c r="A225" s="26"/>
-      <c r="B225" s="23"/>
-      <c r="C225" s="34"/>
-      <c r="D225" s="29"/>
-      <c r="E225" s="29"/>
+      <c r="A225" s="36"/>
+      <c r="B225" s="33"/>
+      <c r="C225" s="38"/>
+      <c r="D225" s="20"/>
+      <c r="E225" s="20"/>
       <c r="F225" s="3" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G225" s="3"/>
       <c r="H225" s="12"/>
       <c r="I225" s="3"/>
     </row>
     <row r="226" spans="1:9">
-      <c r="A226" s="26"/>
-      <c r="B226" s="23"/>
-      <c r="C226" s="34"/>
-      <c r="D226" s="29"/>
-      <c r="E226" s="29"/>
+      <c r="A226" s="36"/>
+      <c r="B226" s="33"/>
+      <c r="C226" s="38"/>
+      <c r="D226" s="20"/>
+      <c r="E226" s="20"/>
       <c r="F226" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G226" s="3"/>
       <c r="H226" s="12"/>
       <c r="I226" s="3"/>
     </row>
     <row r="227" spans="1:9">
-      <c r="A227" s="26"/>
-      <c r="B227" s="23"/>
-      <c r="C227" s="34"/>
-      <c r="D227" s="30"/>
-      <c r="E227" s="30"/>
+      <c r="A227" s="36"/>
+      <c r="B227" s="33"/>
+      <c r="C227" s="38"/>
+      <c r="D227" s="21"/>
+      <c r="E227" s="21"/>
       <c r="F227" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G227" s="3"/>
       <c r="H227" s="12"/>
       <c r="I227" s="3"/>
     </row>
     <row r="228" spans="1:9">
-      <c r="A228" s="26"/>
-      <c r="B228" s="23"/>
-      <c r="C228" s="34"/>
+      <c r="A228" s="36"/>
+      <c r="B228" s="33"/>
+      <c r="C228" s="38"/>
       <c r="D228" s="13"/>
       <c r="E228" s="13"/>
       <c r="F228" s="3"/>
@@ -7086,9 +7073,9 @@
       <c r="I228" s="3"/>
     </row>
     <row r="229" spans="1:9">
-      <c r="A229" s="26"/>
-      <c r="B229" s="23"/>
-      <c r="C229" s="34"/>
+      <c r="A229" s="36"/>
+      <c r="B229" s="33"/>
+      <c r="C229" s="38"/>
       <c r="D229" s="13"/>
       <c r="E229" s="13"/>
       <c r="F229" s="3"/>
@@ -7097,9 +7084,9 @@
       <c r="I229" s="3"/>
     </row>
     <row r="230" spans="1:9">
-      <c r="A230" s="26"/>
-      <c r="B230" s="23"/>
-      <c r="C230" s="31"/>
+      <c r="A230" s="36"/>
+      <c r="B230" s="33"/>
+      <c r="C230" s="26"/>
       <c r="D230" s="13"/>
       <c r="E230" s="13"/>
       <c r="F230" s="3"/>
@@ -7108,9 +7095,9 @@
       <c r="I230" s="3"/>
     </row>
     <row r="231" spans="1:9">
-      <c r="A231" s="26"/>
-      <c r="B231" s="23"/>
-      <c r="C231" s="32"/>
+      <c r="A231" s="36"/>
+      <c r="B231" s="33"/>
+      <c r="C231" s="27"/>
       <c r="D231" s="13"/>
       <c r="E231" s="13"/>
       <c r="F231" s="3"/>
@@ -7119,9 +7106,9 @@
       <c r="I231" s="3"/>
     </row>
     <row r="232" spans="1:9">
-      <c r="A232" s="26"/>
-      <c r="B232" s="23"/>
-      <c r="C232" s="32"/>
+      <c r="A232" s="36"/>
+      <c r="B232" s="33"/>
+      <c r="C232" s="27"/>
       <c r="D232" s="13"/>
       <c r="E232" s="13"/>
       <c r="F232" s="3"/>
@@ -7130,9 +7117,9 @@
       <c r="I232" s="3"/>
     </row>
     <row r="233" spans="1:9">
-      <c r="A233" s="26"/>
-      <c r="B233" s="23"/>
-      <c r="C233" s="33"/>
+      <c r="A233" s="36"/>
+      <c r="B233" s="33"/>
+      <c r="C233" s="28"/>
       <c r="D233" s="13"/>
       <c r="E233" s="13"/>
       <c r="F233" s="3"/>
@@ -7141,9 +7128,9 @@
       <c r="I233" s="3"/>
     </row>
     <row r="234" spans="1:9">
-      <c r="A234" s="26"/>
-      <c r="B234" s="23"/>
-      <c r="C234" s="34"/>
+      <c r="A234" s="36"/>
+      <c r="B234" s="33"/>
+      <c r="C234" s="38"/>
       <c r="D234" s="13"/>
       <c r="E234" s="13"/>
       <c r="F234" s="3"/>
@@ -7152,9 +7139,9 @@
       <c r="I234" s="3"/>
     </row>
     <row r="235" spans="1:9">
-      <c r="A235" s="26"/>
-      <c r="B235" s="23"/>
-      <c r="C235" s="34"/>
+      <c r="A235" s="36"/>
+      <c r="B235" s="33"/>
+      <c r="C235" s="38"/>
       <c r="D235" s="13"/>
       <c r="E235" s="13"/>
       <c r="F235" s="3"/>
@@ -7163,9 +7150,9 @@
       <c r="I235" s="3"/>
     </row>
     <row r="236" spans="1:9">
-      <c r="A236" s="26"/>
-      <c r="B236" s="23"/>
-      <c r="C236" s="34"/>
+      <c r="A236" s="36"/>
+      <c r="B236" s="33"/>
+      <c r="C236" s="38"/>
       <c r="D236" s="13"/>
       <c r="E236" s="13"/>
       <c r="F236" s="3"/>
@@ -7174,9 +7161,9 @@
       <c r="I236" s="3"/>
     </row>
     <row r="237" spans="1:9">
-      <c r="A237" s="27"/>
-      <c r="B237" s="24"/>
-      <c r="C237" s="34"/>
+      <c r="A237" s="37"/>
+      <c r="B237" s="34"/>
+      <c r="C237" s="38"/>
       <c r="D237" s="13"/>
       <c r="E237" s="13"/>
       <c r="F237" s="3"/>
@@ -7186,6 +7173,91 @@
     </row>
   </sheetData>
   <mergeCells count="109">
+    <mergeCell ref="C5:C25"/>
+    <mergeCell ref="B5:B237"/>
+    <mergeCell ref="A5:A237"/>
+    <mergeCell ref="C26:C59"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="C194:C215"/>
+    <mergeCell ref="C216:C229"/>
+    <mergeCell ref="C234:C237"/>
+    <mergeCell ref="C230:C233"/>
+    <mergeCell ref="C60:C105"/>
+    <mergeCell ref="C106:C139"/>
+    <mergeCell ref="C158:C175"/>
+    <mergeCell ref="E40:E44"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="E45:E49"/>
+    <mergeCell ref="D60:D64"/>
+    <mergeCell ref="E60:E64"/>
+    <mergeCell ref="D69:D73"/>
+    <mergeCell ref="E69:E73"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="E88:E91"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="D125:D129"/>
+    <mergeCell ref="E125:E129"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="D106:D110"/>
+    <mergeCell ref="E106:E110"/>
+    <mergeCell ref="D115:D119"/>
+    <mergeCell ref="E115:E119"/>
+    <mergeCell ref="D120:D124"/>
+    <mergeCell ref="E120:E124"/>
+    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="E79:E83"/>
+    <mergeCell ref="D40:D44"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="E96:E99"/>
+    <mergeCell ref="E100:E103"/>
+    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="D111:D114"/>
+    <mergeCell ref="E111:E114"/>
+    <mergeCell ref="E148:E151"/>
+    <mergeCell ref="D152:D155"/>
+    <mergeCell ref="E152:E155"/>
+    <mergeCell ref="C176:C193"/>
+    <mergeCell ref="D176:D179"/>
+    <mergeCell ref="E176:E179"/>
+    <mergeCell ref="C140:C157"/>
+    <mergeCell ref="D140:D143"/>
+    <mergeCell ref="E140:E143"/>
+    <mergeCell ref="D144:D147"/>
+    <mergeCell ref="E144:E147"/>
+    <mergeCell ref="D148:D151"/>
+    <mergeCell ref="D202:D205"/>
+    <mergeCell ref="E202:E205"/>
+    <mergeCell ref="D158:D161"/>
+    <mergeCell ref="E158:E161"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="D134:D137"/>
+    <mergeCell ref="E134:E137"/>
+    <mergeCell ref="D170:D173"/>
+    <mergeCell ref="E170:E173"/>
     <mergeCell ref="D206:D209"/>
     <mergeCell ref="E206:E209"/>
     <mergeCell ref="D194:D197"/>
@@ -7210,91 +7282,6 @@
     <mergeCell ref="E220:E223"/>
     <mergeCell ref="D198:D201"/>
     <mergeCell ref="E198:E201"/>
-    <mergeCell ref="D202:D205"/>
-    <mergeCell ref="E202:E205"/>
-    <mergeCell ref="D158:D161"/>
-    <mergeCell ref="E158:E161"/>
-    <mergeCell ref="D130:D133"/>
-    <mergeCell ref="E130:E133"/>
-    <mergeCell ref="D134:D137"/>
-    <mergeCell ref="E134:E137"/>
-    <mergeCell ref="D170:D173"/>
-    <mergeCell ref="E170:E173"/>
-    <mergeCell ref="C176:C193"/>
-    <mergeCell ref="D176:D179"/>
-    <mergeCell ref="E176:E179"/>
-    <mergeCell ref="C140:C157"/>
-    <mergeCell ref="D140:D143"/>
-    <mergeCell ref="E140:E143"/>
-    <mergeCell ref="D144:D147"/>
-    <mergeCell ref="E144:E147"/>
-    <mergeCell ref="D148:D151"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="E96:E99"/>
-    <mergeCell ref="E100:E103"/>
-    <mergeCell ref="D100:D103"/>
-    <mergeCell ref="D111:D114"/>
-    <mergeCell ref="E111:E114"/>
-    <mergeCell ref="E148:E151"/>
-    <mergeCell ref="D152:D155"/>
-    <mergeCell ref="E152:E155"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="E84:E87"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="E88:E91"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="E92:E95"/>
-    <mergeCell ref="D125:D129"/>
-    <mergeCell ref="E125:E129"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="D106:D110"/>
-    <mergeCell ref="E106:E110"/>
-    <mergeCell ref="D115:D119"/>
-    <mergeCell ref="E115:E119"/>
-    <mergeCell ref="D120:D124"/>
-    <mergeCell ref="E120:E124"/>
-    <mergeCell ref="D79:D83"/>
-    <mergeCell ref="E79:E83"/>
-    <mergeCell ref="D40:D44"/>
-    <mergeCell ref="E35:E39"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="E45:E49"/>
-    <mergeCell ref="D60:D64"/>
-    <mergeCell ref="E60:E64"/>
-    <mergeCell ref="D69:D73"/>
-    <mergeCell ref="E69:E73"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="C5:C25"/>
-    <mergeCell ref="B5:B237"/>
-    <mergeCell ref="A5:A237"/>
-    <mergeCell ref="C26:C59"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="C194:C215"/>
-    <mergeCell ref="C216:C229"/>
-    <mergeCell ref="C234:C237"/>
-    <mergeCell ref="C230:C233"/>
-    <mergeCell ref="C60:C105"/>
-    <mergeCell ref="C106:C139"/>
-    <mergeCell ref="C158:C175"/>
-    <mergeCell ref="E40:E44"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="E74:E78"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="E31:E34"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H237">

--- a/documents/db_table_design.xlsx
+++ b/documents/db_table_design.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="448">
   <si>
     <t>Field Name</t>
   </si>
@@ -694,15 +694,9 @@
     <t>create tbl_branch</t>
   </si>
   <si>
-    <t>create tbl_branchEdit</t>
-  </si>
-  <si>
     <t>Create Service to insert the branchEdit details</t>
   </si>
   <si>
-    <t>create tbl_branchView</t>
-  </si>
-  <si>
     <t>Create Service to insert the branchView details</t>
   </si>
   <si>
@@ -721,9 +715,6 @@
     <t>JPP-1245</t>
   </si>
   <si>
-    <t>create tbl_branchListAll</t>
-  </si>
-  <si>
     <t>Create Service to insert the branchListAll details</t>
   </si>
   <si>
@@ -736,18 +727,9 @@
     <t>BranchView Unit Test</t>
   </si>
   <si>
-    <t>create tbl_employeeEdit</t>
-  </si>
-  <si>
-    <t>Create Service to insert the employeeEdit details</t>
-  </si>
-  <si>
     <t>EmployeeListAll Unit Test</t>
   </si>
   <si>
-    <t>create tbl_employeeView</t>
-  </si>
-  <si>
     <t>Create Service to insert the employeeView details</t>
   </si>
   <si>
@@ -1282,9 +1264,6 @@
     <t>not null / 1</t>
   </si>
   <si>
-    <t>no UI - default 1 (0 - notApproved, 1 - approvedByManager)</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -1309,9 +1288,6 @@
     <t>On Hold</t>
   </si>
   <si>
-    <t>Create service to check the Authentication of the branch credentials</t>
-  </si>
-  <si>
     <t>Create service to check the Authentication of the employee credentials</t>
   </si>
   <si>
@@ -1337,6 +1313,54 @@
   </si>
   <si>
     <t>Create Service to get the particular customer details</t>
+  </si>
+  <si>
+    <t>drop down list - 1- Super Admin/ 2- Branch Manager/ 3- Clerk/ 4- Appraiser</t>
+  </si>
+  <si>
+    <t>Create Service to disable the customer (status-0)</t>
+  </si>
+  <si>
+    <t>UI Creation - Create Model window fo getting confirmation</t>
+  </si>
+  <si>
+    <t>JPP-1425</t>
+  </si>
+  <si>
+    <t>Integration UI with service layer</t>
+  </si>
+  <si>
+    <t>Do unit testing on customer disable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dropdown </t>
+  </si>
+  <si>
+    <t>no UI - default 1 (0 - notApproved, 1 - approved by Super Admin)</t>
+  </si>
+  <si>
+    <t>Create Service to insert the Branch details</t>
+  </si>
+  <si>
+    <t>JPP-1275</t>
+  </si>
+  <si>
+    <t>Create Service to disable the employee (status-0)</t>
+  </si>
+  <si>
+    <t>Do unit testing on employee disable</t>
+  </si>
+  <si>
+    <t>Create Service to edit/update the employee details</t>
+  </si>
+  <si>
+    <t>JPP-1325</t>
+  </si>
+  <si>
+    <t>Do unit testing on branch disable</t>
+  </si>
+  <si>
+    <t>Create Service to disable the branch (status-0)</t>
   </si>
 </sst>
 </file>
@@ -1553,36 +1577,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1609,8 +1603,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1908,8 +1932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2083,7 +2107,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G9" s="15"/>
     </row>
@@ -2092,19 +2116,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D10" s="4">
         <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="G10" s="15"/>
     </row>
@@ -2113,19 +2137,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D11" s="4">
         <v>4</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G11" s="15"/>
     </row>
@@ -2367,7 +2391,7 @@
         <v>16</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G24" s="15"/>
     </row>
@@ -2388,7 +2412,7 @@
         <v>16</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G25" s="15"/>
     </row>
@@ -2400,13 +2424,16 @@
         <v>44</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D26" s="4">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>432</v>
       </c>
       <c r="G26" s="15"/>
     </row>
@@ -2415,19 +2442,19 @@
         <v>9</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D27" s="4">
         <v>2</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="G27" s="15"/>
     </row>
@@ -2436,19 +2463,19 @@
         <v>10</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D28" s="4">
         <v>4</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G28" s="15"/>
     </row>
@@ -2689,6 +2716,9 @@
       <c r="E41" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="F41" s="8" t="s">
+        <v>438</v>
+      </c>
       <c r="G41" s="15"/>
     </row>
     <row r="42" spans="1:7">
@@ -2738,19 +2768,19 @@
         <v>9</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D44" s="4">
         <v>2</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="G44" s="15"/>
     </row>
@@ -2759,19 +2789,19 @@
         <v>10</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D45" s="4">
         <v>4</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="G45" s="15"/>
     </row>
@@ -3700,10 +3730,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:I237"/>
+  <dimension ref="A4:I239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C109" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G122" sqref="G122"/>
+    <sheetView tabSelected="1" topLeftCell="C119" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G137" sqref="G137:G140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3740,26 +3770,26 @@
         <v>81</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="31" t="s">
         <v>96</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -3769,16 +3799,16 @@
         <v>146</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="36"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="11" t="s">
         <v>147</v>
       </c>
@@ -3786,33 +3816,33 @@
         <v>148</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="36"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="10" t="s">
         <v>149</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="36"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="11" t="s">
         <v>150</v>
       </c>
@@ -3820,16 +3850,16 @@
         <v>153</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1">
-      <c r="A9" s="36"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="3" t="s">
         <v>152</v>
       </c>
@@ -3837,182 +3867,182 @@
         <v>151</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1">
-      <c r="A10" s="36"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="19" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="28" t="s">
         <v>97</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="12"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1">
-      <c r="A11" s="36"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
       <c r="F11" s="3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="12"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1">
-      <c r="A12" s="36"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="12"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="36"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="3" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="12"/>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="36"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="19" t="s">
+      <c r="A14" s="26"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="28" t="s">
         <v>98</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="12"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="36"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
       <c r="F15" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="12"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="36"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
       <c r="F16" s="3" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="12"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="36"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="12"/>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="36"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="19" t="s">
+      <c r="A18" s="26"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="28" t="s">
         <v>137</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="12"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="36"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
       <c r="F19" s="3" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="12"/>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="36"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
       <c r="F20" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="12"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="36"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
       <c r="F21" s="3" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="12"/>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="36"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="30"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="3"/>
@@ -4021,9 +4051,9 @@
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="36"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="30"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="3"/>
@@ -4032,9 +4062,9 @@
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="36"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="30"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="3"/>
@@ -4043,9 +4073,9 @@
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="36"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="31"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="3"/>
@@ -4054,15 +4084,15 @@
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="36"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="19" t="s">
+      <c r="A26" s="26"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="31" t="s">
         <v>99</v>
       </c>
       <c r="F26" s="9" t="s">
@@ -4072,16 +4102,16 @@
         <v>224</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="36"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="27"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="32"/>
       <c r="F27" s="9" t="s">
         <v>200</v>
       </c>
@@ -4089,33 +4119,33 @@
         <v>148</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="36"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="27"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="32"/>
       <c r="F28" s="9" t="s">
         <v>201</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="36"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="27"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="32"/>
       <c r="F29" s="9" t="s">
         <v>202</v>
       </c>
@@ -4123,513 +4153,519 @@
         <v>153</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="36"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="28"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="33"/>
       <c r="F30" s="9" t="s">
         <v>203</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="36"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="19" t="s">
+      <c r="A31" s="26"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="28" t="s">
         <v>100</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="12"/>
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="36"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
       <c r="F32" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="G32" s="3"/>
+        <v>306</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="H32" s="12"/>
       <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="36"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
       <c r="F33" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="G33" s="3"/>
+        <v>307</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>447</v>
+      </c>
       <c r="H33" s="12"/>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="36"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
       <c r="F34" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="G34" s="3"/>
+        <v>308</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>436</v>
+      </c>
       <c r="H34" s="12"/>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="36"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="19" t="s">
+      <c r="A35" s="26"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="H35" s="12"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="26"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E36" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F36" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G36" s="11"/>
+      <c r="H36" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="26"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="26"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G38" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="H35" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="36"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="G36" s="10" t="s">
+      <c r="H38" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="26"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="26"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="26"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="G41" s="11"/>
+      <c r="H41" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="26"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G42" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="H36" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="36"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="G37" s="11" t="s">
+      <c r="H42" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="26"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="26"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="26"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="26"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G46" s="11"/>
+      <c r="H46" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="26"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="26"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="G48" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="H37" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="36"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="G38" s="11" t="s">
+      <c r="H48" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="26"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="G49" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="H38" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="36"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="36"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="36"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="36"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="G42" s="11" t="s">
+      <c r="H49" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="26"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="H42" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="36"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="36"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="36"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="36"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="36"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="36"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="36"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I49" s="3"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="36"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="19" t="s">
+      <c r="H50" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="26"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E51" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="F50" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="3"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="36"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
       <c r="F51" s="9" t="s">
-        <v>315</v>
+        <v>265</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="12"/>
       <c r="I51" s="3"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="36"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
       <c r="F52" s="9" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="12"/>
       <c r="I52" s="3"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="36"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
       <c r="F53" s="9" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="12"/>
       <c r="I53" s="3"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="36"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>272</v>
+      <c r="A54" s="26"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="9" t="s">
+        <v>311</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="12"/>
       <c r="I54" s="3"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="36"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E55" s="31" t="s">
+        <v>105</v>
+      </c>
       <c r="F55" s="3" t="s">
-        <v>318</v>
+        <v>266</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="12"/>
       <c r="I55" s="3"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="36"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="32"/>
       <c r="F56" s="3" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="12"/>
       <c r="I56" s="3"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="36"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
+      <c r="A57" s="26"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="32"/>
       <c r="F57" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="12"/>
       <c r="I57" s="3"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="36"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="3"/>
+      <c r="A58" s="26"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="3" t="s">
+        <v>314</v>
+      </c>
       <c r="G58" s="3"/>
       <c r="H58" s="12"/>
       <c r="I58" s="3"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="36"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="3"/>
+      <c r="A59" s="26"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="3" t="s">
+        <v>441</v>
+      </c>
       <c r="G59" s="3"/>
       <c r="H59" s="12"/>
       <c r="I59" s="3"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="36"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="38" t="s">
+      <c r="A60" s="26"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D60" s="19" t="s">
+      <c r="D60" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="E60" s="19" t="s">
+      <c r="E60" s="28" t="s">
         <v>106</v>
       </c>
       <c r="F60" s="9" t="s">
         <v>197</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="I60" s="3"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="36"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
       <c r="F61" s="9" t="s">
         <v>212</v>
       </c>
@@ -4637,33 +4673,33 @@
         <v>148</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="I61" s="3"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="36"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
+      <c r="A62" s="26"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
       <c r="F62" s="9" t="s">
         <v>213</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="I62" s="3"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="36"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
+      <c r="A63" s="26"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
       <c r="F63" s="9" t="s">
         <v>214</v>
       </c>
@@ -4671,635 +4707,639 @@
         <v>153</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="I63" s="3"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="36"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
+      <c r="A64" s="26"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
       <c r="F64" s="9" t="s">
         <v>215</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="I64" s="3"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="36"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="19" t="s">
+      <c r="A65" s="26"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="E65" s="19" t="s">
+      <c r="E65" s="28" t="s">
         <v>107</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="12"/>
       <c r="I65" s="3"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="36"/>
-      <c r="B66" s="33"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
+      <c r="A66" s="26"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
       <c r="F66" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="G66" s="3"/>
+        <v>315</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="H66" s="12"/>
       <c r="I66" s="3"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="36"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
+      <c r="A67" s="26"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
       <c r="F67" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G67" s="3"/>
+        <v>316</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>442</v>
+      </c>
       <c r="H67" s="12"/>
       <c r="I67" s="3"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="36"/>
-      <c r="B68" s="33"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
+      <c r="A68" s="26"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
       <c r="F68" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="G68" s="3"/>
+        <v>317</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>436</v>
+      </c>
       <c r="H68" s="12"/>
       <c r="I68" s="3"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="36"/>
-      <c r="B69" s="33"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="19" t="s">
+      <c r="A69" s="26"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="H69" s="12"/>
+      <c r="I69" s="3"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="26"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="E69" s="26" t="s">
+      <c r="E70" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="F70" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="G69" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="H69" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I69" s="3"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="36"/>
-      <c r="B70" s="33"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="9" t="s">
+      <c r="G70" s="11"/>
+      <c r="H70" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="I70" s="3"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="26"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="G70" s="10" t="s">
+      <c r="G71" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="H70" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I70" s="3"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="36"/>
-      <c r="B71" s="33"/>
-      <c r="C71" s="38"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="9" t="s">
+      <c r="H71" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="26"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="G71" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="H71" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I71" s="3"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="36"/>
-      <c r="B72" s="33"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="9" t="s">
+      <c r="G72" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="26"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="G72" s="11" t="s">
+      <c r="G73" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="H72" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I72" s="3"/>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="36"/>
-      <c r="B73" s="33"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="9" t="s">
+      <c r="H73" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="26"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="G74" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I74" s="3"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="26"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="E75" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="G75" s="11"/>
+      <c r="H75" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="26"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H76" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I76" s="3"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="26"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I77" s="3"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="26"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I78" s="3"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="26"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="G79" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="H73" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I73" s="3"/>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="36"/>
-      <c r="B74" s="33"/>
-      <c r="C74" s="38"/>
-      <c r="D74" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="E74" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="H74" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I74" s="3"/>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="36"/>
-      <c r="B75" s="33"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="G75" s="10" t="s">
+      <c r="H79" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I79" s="3"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="26"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="E80" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G80" s="11"/>
+      <c r="H80" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I80" s="3"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="26"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="G81" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="H75" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I75" s="3"/>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="36"/>
-      <c r="B76" s="33"/>
-      <c r="C76" s="38"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="G76" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="H76" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I76" s="3"/>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="36"/>
-      <c r="B77" s="33"/>
-      <c r="C77" s="38"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="G77" s="11" t="s">
+      <c r="H81" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I81" s="3"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="26"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="H82" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I82" s="3"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="26"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="G83" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="H77" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I77" s="3"/>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="36"/>
-      <c r="B78" s="33"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="H78" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I78" s="3"/>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="36"/>
-      <c r="B79" s="33"/>
-      <c r="C79" s="38"/>
-      <c r="D79" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="E79" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="H79" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I79" s="3"/>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="36"/>
-      <c r="B80" s="33"/>
-      <c r="C80" s="38"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="H80" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I80" s="3"/>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="36"/>
-      <c r="B81" s="33"/>
-      <c r="C81" s="38"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="G81" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="H81" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I81" s="3"/>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="36"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="38"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="G82" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="H82" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I82" s="3"/>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="36"/>
-      <c r="B83" s="33"/>
-      <c r="C83" s="38"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="9" t="s">
+      <c r="H83" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I83" s="3"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="26"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="H83" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I83" s="3"/>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="36"/>
-      <c r="B84" s="33"/>
-      <c r="C84" s="38"/>
-      <c r="D84" s="19" t="s">
+      <c r="G84" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H84" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I84" s="3"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="26"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="E84" s="19" t="s">
+      <c r="E85" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="F84" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="G84" s="3"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="3"/>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="36"/>
-      <c r="B85" s="33"/>
-      <c r="C85" s="38"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
       <c r="F85" s="9" t="s">
-        <v>324</v>
+        <v>268</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="12"/>
       <c r="I85" s="3"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="36"/>
-      <c r="B86" s="33"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
+      <c r="A86" s="26"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
       <c r="F86" s="9" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="12"/>
       <c r="I86" s="3"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="36"/>
-      <c r="B87" s="33"/>
-      <c r="C87" s="38"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
+      <c r="A87" s="26"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
       <c r="F87" s="9" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="12"/>
       <c r="I87" s="3"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="36"/>
-      <c r="B88" s="33"/>
-      <c r="C88" s="38"/>
-      <c r="D88" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="E88" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>275</v>
+      <c r="A88" s="26"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="9" t="s">
+        <v>320</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="12"/>
       <c r="I88" s="3"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="36"/>
-      <c r="B89" s="33"/>
-      <c r="C89" s="38"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="20"/>
+      <c r="A89" s="26"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="E89" s="28" t="s">
+        <v>112</v>
+      </c>
       <c r="F89" s="3" t="s">
-        <v>327</v>
+        <v>269</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="12"/>
       <c r="I89" s="3"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="36"/>
-      <c r="B90" s="33"/>
-      <c r="C90" s="38"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="20"/>
+      <c r="A90" s="26"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
       <c r="F90" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="12"/>
       <c r="I90" s="3"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="36"/>
-      <c r="B91" s="33"/>
-      <c r="C91" s="38"/>
-      <c r="D91" s="21"/>
-      <c r="E91" s="21"/>
+      <c r="A91" s="26"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
       <c r="F91" s="3" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="12"/>
       <c r="I91" s="3"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="36"/>
-      <c r="B92" s="33"/>
-      <c r="C92" s="38"/>
-      <c r="D92" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="E92" s="19" t="s">
-        <v>113</v>
-      </c>
+      <c r="A92" s="26"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="30"/>
       <c r="F92" s="3" t="s">
-        <v>276</v>
+        <v>323</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="12"/>
       <c r="I92" s="3"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="36"/>
-      <c r="B93" s="33"/>
-      <c r="C93" s="38"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
+      <c r="A93" s="26"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="E93" s="28" t="s">
+        <v>113</v>
+      </c>
       <c r="F93" s="3" t="s">
-        <v>330</v>
+        <v>270</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="12"/>
       <c r="I93" s="3"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="36"/>
-      <c r="B94" s="33"/>
-      <c r="C94" s="38"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
+      <c r="A94" s="26"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
       <c r="F94" s="3" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="12"/>
       <c r="I94" s="3"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="36"/>
-      <c r="B95" s="33"/>
-      <c r="C95" s="38"/>
-      <c r="D95" s="21"/>
-      <c r="E95" s="21"/>
+      <c r="A95" s="26"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
       <c r="F95" s="3" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="12"/>
       <c r="I95" s="3"/>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="36"/>
-      <c r="B96" s="33"/>
-      <c r="C96" s="38"/>
-      <c r="D96" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="E96" s="22" t="s">
-        <v>114</v>
-      </c>
+      <c r="A96" s="26"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
       <c r="F96" s="3" t="s">
-        <v>277</v>
+        <v>326</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="12"/>
       <c r="I96" s="3"/>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="36"/>
-      <c r="B97" s="33"/>
-      <c r="C97" s="38"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="22"/>
+      <c r="A97" s="26"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E97" s="38" t="s">
+        <v>114</v>
+      </c>
       <c r="F97" s="3" t="s">
-        <v>333</v>
+        <v>271</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="12"/>
       <c r="I97" s="3"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="36"/>
-      <c r="B98" s="33"/>
-      <c r="C98" s="38"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="22"/>
+      <c r="A98" s="26"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="38"/>
       <c r="F98" s="3" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="12"/>
       <c r="I98" s="3"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="36"/>
-      <c r="B99" s="33"/>
-      <c r="C99" s="38"/>
-      <c r="D99" s="25"/>
-      <c r="E99" s="22"/>
+      <c r="A99" s="26"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="34"/>
+      <c r="D99" s="36"/>
+      <c r="E99" s="38"/>
       <c r="F99" s="3" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G99" s="3"/>
       <c r="H99" s="12"/>
       <c r="I99" s="3"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="36"/>
-      <c r="B100" s="33"/>
-      <c r="C100" s="38"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="F100" s="3"/>
+      <c r="A100" s="26"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="37"/>
+      <c r="E100" s="38"/>
+      <c r="F100" s="3" t="s">
+        <v>329</v>
+      </c>
       <c r="G100" s="3"/>
       <c r="H100" s="12"/>
       <c r="I100" s="3"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="36"/>
-      <c r="B101" s="33"/>
-      <c r="C101" s="38"/>
-      <c r="D101" s="20"/>
-      <c r="E101" s="20"/>
+      <c r="A101" s="26"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="34"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="28" t="s">
+        <v>115</v>
+      </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="12"/>
       <c r="I101" s="3"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="36"/>
-      <c r="B102" s="33"/>
-      <c r="C102" s="38"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="20"/>
+      <c r="A102" s="26"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="12"/>
       <c r="I102" s="3"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="36"/>
-      <c r="B103" s="33"/>
-      <c r="C103" s="38"/>
-      <c r="D103" s="21"/>
-      <c r="E103" s="21"/>
+      <c r="A103" s="26"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="29"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="12"/>
       <c r="I103" s="3"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="36"/>
-      <c r="B104" s="33"/>
-      <c r="C104" s="38"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="13"/>
+      <c r="A104" s="26"/>
+      <c r="B104" s="23"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="30"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="12"/>
       <c r="I104" s="3"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="36"/>
-      <c r="B105" s="33"/>
-      <c r="C105" s="38"/>
+      <c r="A105" s="26"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="34"/>
       <c r="D105" s="13"/>
       <c r="E105" s="13"/>
       <c r="F105" s="3"/>
@@ -5308,1785 +5348,1805 @@
       <c r="I105" s="3"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="36"/>
-      <c r="B106" s="33"/>
-      <c r="C106" s="38" t="s">
+      <c r="A106" s="26"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="34"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="3"/>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="26"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="D106" s="19" t="s">
+      <c r="D107" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="E106" s="19" t="s">
+      <c r="E107" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="F106" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="G106" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="H106" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="36"/>
-      <c r="B107" s="33"/>
-      <c r="C107" s="38"/>
-      <c r="D107" s="20"/>
-      <c r="E107" s="20"/>
       <c r="F107" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="G107" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="H107" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="26"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="34"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G108" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="H107" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="I107" s="3"/>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="36"/>
-      <c r="B108" s="33"/>
-      <c r="C108" s="38"/>
-      <c r="D108" s="20"/>
-      <c r="E108" s="20"/>
-      <c r="F108" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="G108" s="11" t="s">
-        <v>413</v>
-      </c>
       <c r="H108" s="12" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="I108" s="3"/>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="36"/>
-      <c r="B109" s="33"/>
-      <c r="C109" s="38"/>
-      <c r="D109" s="20"/>
-      <c r="E109" s="20"/>
+      <c r="A109" s="26"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="34"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
       <c r="F109" s="3" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G109" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="H109" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="I109" s="3"/>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="26"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="34"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G110" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="H109" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="I109" s="3"/>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="36"/>
-      <c r="B110" s="33"/>
-      <c r="C110" s="38"/>
-      <c r="D110" s="21"/>
-      <c r="E110" s="21"/>
-      <c r="F110" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>414</v>
-      </c>
       <c r="H110" s="12" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="I110" s="3"/>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="36"/>
-      <c r="B111" s="33"/>
-      <c r="C111" s="38"/>
-      <c r="D111" s="19" t="s">
+      <c r="A111" s="26"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="34"/>
+      <c r="D111" s="30"/>
+      <c r="E111" s="30"/>
+      <c r="F111" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I111" s="3"/>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="26"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="E111" s="19" t="s">
+      <c r="E112" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="F111" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="G111" s="3"/>
-      <c r="H111" s="12"/>
-      <c r="I111" s="3"/>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="36"/>
-      <c r="B112" s="33"/>
-      <c r="C112" s="38"/>
-      <c r="D112" s="20"/>
-      <c r="E112" s="20"/>
       <c r="F112" s="3" t="s">
-        <v>336</v>
+        <v>272</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="12"/>
       <c r="I112" s="3"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="36"/>
-      <c r="B113" s="33"/>
-      <c r="C113" s="38"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="20"/>
+      <c r="A113" s="26"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="34"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="29"/>
       <c r="F113" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="G113" s="3"/>
-      <c r="H113" s="12"/>
+        <v>330</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="H113" s="12" t="s">
+        <v>419</v>
+      </c>
       <c r="I113" s="3"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="36"/>
-      <c r="B114" s="33"/>
-      <c r="C114" s="38"/>
-      <c r="D114" s="21"/>
-      <c r="E114" s="21"/>
+      <c r="A114" s="26"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="34"/>
+      <c r="D114" s="29"/>
+      <c r="E114" s="29"/>
       <c r="F114" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="G114" s="3"/>
+        <v>331</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>433</v>
+      </c>
       <c r="H114" s="12"/>
       <c r="I114" s="3"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="36"/>
-      <c r="B115" s="33"/>
-      <c r="C115" s="38"/>
-      <c r="D115" s="19" t="s">
+      <c r="A115" s="26"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="34"/>
+      <c r="D115" s="29"/>
+      <c r="E115" s="29"/>
+      <c r="F115" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="H115" s="12"/>
+      <c r="I115" s="3"/>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="26"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="34"/>
+      <c r="D116" s="30"/>
+      <c r="E116" s="30"/>
+      <c r="F116" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="H116" s="12"/>
+      <c r="I116" s="3"/>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="26"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="34"/>
+      <c r="D117" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="E115" s="19" t="s">
+      <c r="E117" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="F115" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="G115" s="11"/>
-      <c r="H115" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I115" s="3"/>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116" s="36"/>
-      <c r="B116" s="33"/>
-      <c r="C116" s="38"/>
-      <c r="D116" s="20"/>
-      <c r="E116" s="20"/>
-      <c r="F116" s="3" t="s">
+      <c r="F117" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G117" s="11"/>
+      <c r="H117" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I117" s="3"/>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="26"/>
+      <c r="B118" s="23"/>
+      <c r="C118" s="34"/>
+      <c r="D118" s="29"/>
+      <c r="E118" s="29"/>
+      <c r="F118" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G118" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H118" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I118" s="3"/>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="26"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="34"/>
+      <c r="D119" s="29"/>
+      <c r="E119" s="29"/>
+      <c r="F119" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G119" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="H119" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I119" s="3"/>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="26"/>
+      <c r="B120" s="23"/>
+      <c r="C120" s="34"/>
+      <c r="D120" s="29"/>
+      <c r="E120" s="29"/>
+      <c r="F120" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H120" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I120" s="3"/>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="26"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="34"/>
+      <c r="D121" s="30"/>
+      <c r="E121" s="30"/>
+      <c r="F121" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H121" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I121" s="3"/>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="26"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="34"/>
+      <c r="D122" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E122" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G122" s="11"/>
+      <c r="H122" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I122" s="3"/>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="26"/>
+      <c r="B123" s="23"/>
+      <c r="C123" s="34"/>
+      <c r="D123" s="29"/>
+      <c r="E123" s="29"/>
+      <c r="F123" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G123" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H123" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I123" s="3"/>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="26"/>
+      <c r="B124" s="23"/>
+      <c r="C124" s="34"/>
+      <c r="D124" s="29"/>
+      <c r="E124" s="29"/>
+      <c r="F124" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G124" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="H124" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I124" s="3"/>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="26"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="34"/>
+      <c r="D125" s="29"/>
+      <c r="E125" s="29"/>
+      <c r="F125" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="G116" s="10" t="s">
+      <c r="G125" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H125" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="I125" s="3"/>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="26"/>
+      <c r="B126" s="23"/>
+      <c r="C126" s="34"/>
+      <c r="D126" s="30"/>
+      <c r="E126" s="30"/>
+      <c r="F126" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H126" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I126" s="3"/>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="26"/>
+      <c r="B127" s="23"/>
+      <c r="C127" s="34"/>
+      <c r="D127" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="E127" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G127" s="11"/>
+      <c r="H127" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I127" s="3"/>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="26"/>
+      <c r="B128" s="23"/>
+      <c r="C128" s="34"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="29"/>
+      <c r="F128" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G128" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="H116" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I116" s="3"/>
-    </row>
-    <row r="117" spans="1:9">
-      <c r="A117" s="36"/>
-      <c r="B117" s="33"/>
-      <c r="C117" s="38"/>
-      <c r="D117" s="20"/>
-      <c r="E117" s="20"/>
-      <c r="F117" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="G117" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="H117" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I117" s="3"/>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118" s="36"/>
-      <c r="B118" s="33"/>
-      <c r="C118" s="38"/>
-      <c r="D118" s="20"/>
-      <c r="E118" s="20"/>
-      <c r="F118" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="G118" s="11" t="s">
+      <c r="H128" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I128" s="3"/>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="26"/>
+      <c r="B129" s="23"/>
+      <c r="C129" s="34"/>
+      <c r="D129" s="29"/>
+      <c r="E129" s="29"/>
+      <c r="F129" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G129" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="H129" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I129" s="3"/>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="26"/>
+      <c r="B130" s="23"/>
+      <c r="C130" s="34"/>
+      <c r="D130" s="29"/>
+      <c r="E130" s="29"/>
+      <c r="F130" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G130" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="H118" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I118" s="3"/>
-    </row>
-    <row r="119" spans="1:9">
-      <c r="A119" s="36"/>
-      <c r="B119" s="33"/>
-      <c r="C119" s="38"/>
-      <c r="D119" s="21"/>
-      <c r="E119" s="21"/>
-      <c r="F119" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="H119" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I119" s="3"/>
-    </row>
-    <row r="120" spans="1:9">
-      <c r="A120" s="36"/>
-      <c r="B120" s="33"/>
-      <c r="C120" s="38"/>
-      <c r="D120" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E120" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="G120" s="11"/>
-      <c r="H120" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I120" s="3"/>
-    </row>
-    <row r="121" spans="1:9">
-      <c r="A121" s="36"/>
-      <c r="B121" s="33"/>
-      <c r="C121" s="38"/>
-      <c r="D121" s="20"/>
-      <c r="E121" s="20"/>
-      <c r="F121" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="G121" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="H121" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I121" s="3"/>
-    </row>
-    <row r="122" spans="1:9">
-      <c r="A122" s="36"/>
-      <c r="B122" s="33"/>
-      <c r="C122" s="38"/>
-      <c r="D122" s="20"/>
-      <c r="E122" s="20"/>
-      <c r="F122" s="3" t="s">
+      <c r="H130" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I130" s="3"/>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="26"/>
+      <c r="B131" s="23"/>
+      <c r="C131" s="34"/>
+      <c r="D131" s="30"/>
+      <c r="E131" s="30"/>
+      <c r="F131" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="G122" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="H122" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I122" s="3"/>
-    </row>
-    <row r="123" spans="1:9">
-      <c r="A123" s="36"/>
-      <c r="B123" s="33"/>
-      <c r="C123" s="38"/>
-      <c r="D123" s="20"/>
-      <c r="E123" s="20"/>
-      <c r="F123" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="G123" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="H123" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="I123" s="3"/>
-    </row>
-    <row r="124" spans="1:9">
-      <c r="A124" s="36"/>
-      <c r="B124" s="33"/>
-      <c r="C124" s="38"/>
-      <c r="D124" s="21"/>
-      <c r="E124" s="21"/>
-      <c r="F124" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="H124" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I124" s="3"/>
-    </row>
-    <row r="125" spans="1:9">
-      <c r="A125" s="36"/>
-      <c r="B125" s="33"/>
-      <c r="C125" s="38"/>
-      <c r="D125" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="E125" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="G125" s="11"/>
-      <c r="H125" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I125" s="3"/>
-    </row>
-    <row r="126" spans="1:9">
-      <c r="A126" s="36"/>
-      <c r="B126" s="33"/>
-      <c r="C126" s="38"/>
-      <c r="D126" s="20"/>
-      <c r="E126" s="20"/>
-      <c r="F126" s="3" t="s">
+      <c r="G131" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="G126" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="H126" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I126" s="3"/>
-    </row>
-    <row r="127" spans="1:9">
-      <c r="A127" s="36"/>
-      <c r="B127" s="33"/>
-      <c r="C127" s="38"/>
-      <c r="D127" s="20"/>
-      <c r="E127" s="20"/>
-      <c r="F127" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="G127" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="H127" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I127" s="3"/>
-    </row>
-    <row r="128" spans="1:9">
-      <c r="A128" s="36"/>
-      <c r="B128" s="33"/>
-      <c r="C128" s="38"/>
-      <c r="D128" s="20"/>
-      <c r="E128" s="20"/>
-      <c r="F128" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="G128" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="H128" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I128" s="3"/>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129" s="36"/>
-      <c r="B129" s="33"/>
-      <c r="C129" s="38"/>
-      <c r="D129" s="21"/>
-      <c r="E129" s="21"/>
-      <c r="F129" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="H129" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I129" s="3"/>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130" s="36"/>
-      <c r="B130" s="33"/>
-      <c r="C130" s="38"/>
-      <c r="D130" s="19" t="s">
+      <c r="H131" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I131" s="3"/>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="26"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="34"/>
+      <c r="D132" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="E130" s="19" t="s">
+      <c r="E132" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="F130" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="G130" s="3"/>
-      <c r="H130" s="12"/>
-      <c r="I130" s="3"/>
-    </row>
-    <row r="131" spans="1:9">
-      <c r="A131" s="36"/>
-      <c r="B131" s="33"/>
-      <c r="C131" s="38"/>
-      <c r="D131" s="20"/>
-      <c r="E131" s="20"/>
-      <c r="F131" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="G131" s="3"/>
-      <c r="H131" s="12"/>
-      <c r="I131" s="3"/>
-    </row>
-    <row r="132" spans="1:9">
-      <c r="A132" s="36"/>
-      <c r="B132" s="33"/>
-      <c r="C132" s="38"/>
-      <c r="D132" s="20"/>
-      <c r="E132" s="20"/>
       <c r="F132" s="3" t="s">
-        <v>340</v>
+        <v>273</v>
       </c>
       <c r="G132" s="3"/>
       <c r="H132" s="12"/>
       <c r="I132" s="3"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="36"/>
-      <c r="B133" s="33"/>
-      <c r="C133" s="38"/>
-      <c r="D133" s="21"/>
-      <c r="E133" s="21"/>
+      <c r="A133" s="26"/>
+      <c r="B133" s="23"/>
+      <c r="C133" s="34"/>
+      <c r="D133" s="29"/>
+      <c r="E133" s="29"/>
       <c r="F133" s="3" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="G133" s="3"/>
       <c r="H133" s="12"/>
       <c r="I133" s="3"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="36"/>
-      <c r="B134" s="33"/>
-      <c r="C134" s="38"/>
-      <c r="D134" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="E134" s="22" t="s">
-        <v>122</v>
-      </c>
+      <c r="A134" s="26"/>
+      <c r="B134" s="23"/>
+      <c r="C134" s="34"/>
+      <c r="D134" s="29"/>
+      <c r="E134" s="29"/>
       <c r="F134" s="3" t="s">
-        <v>280</v>
+        <v>334</v>
       </c>
       <c r="G134" s="3"/>
       <c r="H134" s="12"/>
       <c r="I134" s="3"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="36"/>
-      <c r="B135" s="33"/>
-      <c r="C135" s="38"/>
-      <c r="D135" s="24"/>
-      <c r="E135" s="22"/>
+      <c r="A135" s="26"/>
+      <c r="B135" s="23"/>
+      <c r="C135" s="34"/>
+      <c r="D135" s="30"/>
+      <c r="E135" s="30"/>
       <c r="F135" s="3" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G135" s="3"/>
       <c r="H135" s="12"/>
       <c r="I135" s="3"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="36"/>
-      <c r="B136" s="33"/>
-      <c r="C136" s="38"/>
-      <c r="D136" s="24"/>
-      <c r="E136" s="22"/>
+      <c r="A136" s="26"/>
+      <c r="B136" s="23"/>
+      <c r="C136" s="34"/>
+      <c r="D136" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="E136" s="38" t="s">
+        <v>122</v>
+      </c>
       <c r="F136" s="3" t="s">
-        <v>343</v>
+        <v>274</v>
       </c>
       <c r="G136" s="3"/>
       <c r="H136" s="12"/>
       <c r="I136" s="3"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="36"/>
-      <c r="B137" s="33"/>
-      <c r="C137" s="38"/>
-      <c r="D137" s="25"/>
-      <c r="E137" s="22"/>
+      <c r="A137" s="26"/>
+      <c r="B137" s="23"/>
+      <c r="C137" s="34"/>
+      <c r="D137" s="36"/>
+      <c r="E137" s="38"/>
       <c r="F137" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="G137" s="3"/>
+        <v>336</v>
+      </c>
+      <c r="G137" s="10" t="s">
+        <v>148</v>
+      </c>
       <c r="H137" s="12"/>
       <c r="I137" s="3"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="36"/>
-      <c r="B138" s="33"/>
-      <c r="C138" s="38"/>
-      <c r="D138" s="13"/>
-      <c r="E138" s="13"/>
-      <c r="F138" s="3"/>
-      <c r="G138" s="3"/>
+      <c r="A138" s="26"/>
+      <c r="B138" s="23"/>
+      <c r="C138" s="34"/>
+      <c r="D138" s="36"/>
+      <c r="E138" s="38"/>
+      <c r="F138" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="G138" s="11" t="s">
+        <v>431</v>
+      </c>
       <c r="H138" s="12"/>
       <c r="I138" s="3"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="36"/>
-      <c r="B139" s="33"/>
-      <c r="C139" s="38"/>
-      <c r="D139" s="13"/>
-      <c r="E139" s="13"/>
-      <c r="F139" s="3"/>
-      <c r="G139" s="3"/>
+      <c r="A139" s="26"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="34"/>
+      <c r="D139" s="37"/>
+      <c r="E139" s="38"/>
+      <c r="F139" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="G139" s="11" t="s">
+        <v>153</v>
+      </c>
       <c r="H139" s="12"/>
       <c r="I139" s="3"/>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="36"/>
-      <c r="B140" s="33"/>
-      <c r="C140" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D140" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="E140" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G140" s="3"/>
+      <c r="A140" s="26"/>
+      <c r="B140" s="23"/>
+      <c r="C140" s="34"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3" t="s">
+        <v>261</v>
+      </c>
       <c r="H140" s="12"/>
       <c r="I140" s="3"/>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="36"/>
-      <c r="B141" s="33"/>
-      <c r="C141" s="27"/>
-      <c r="D141" s="20"/>
-      <c r="E141" s="20"/>
-      <c r="F141" s="3" t="s">
-        <v>345</v>
-      </c>
+      <c r="A141" s="26"/>
+      <c r="B141" s="23"/>
+      <c r="C141" s="34"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="3"/>
       <c r="G141" s="3"/>
       <c r="H141" s="12"/>
       <c r="I141" s="3"/>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="36"/>
-      <c r="B142" s="33"/>
-      <c r="C142" s="27"/>
-      <c r="D142" s="20"/>
-      <c r="E142" s="20"/>
+      <c r="A142" s="26"/>
+      <c r="B142" s="23"/>
+      <c r="C142" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D142" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="E142" s="28" t="s">
+        <v>123</v>
+      </c>
       <c r="F142" s="3" t="s">
-        <v>346</v>
+        <v>275</v>
       </c>
       <c r="G142" s="3"/>
       <c r="H142" s="12"/>
       <c r="I142" s="3"/>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="36"/>
-      <c r="B143" s="33"/>
-      <c r="C143" s="27"/>
-      <c r="D143" s="21"/>
-      <c r="E143" s="21"/>
+      <c r="A143" s="26"/>
+      <c r="B143" s="23"/>
+      <c r="C143" s="32"/>
+      <c r="D143" s="29"/>
+      <c r="E143" s="29"/>
       <c r="F143" s="3" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="G143" s="3"/>
       <c r="H143" s="12"/>
       <c r="I143" s="3"/>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="36"/>
-      <c r="B144" s="33"/>
-      <c r="C144" s="27"/>
-      <c r="D144" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E144" s="19" t="s">
-        <v>124</v>
-      </c>
+      <c r="A144" s="26"/>
+      <c r="B144" s="23"/>
+      <c r="C144" s="32"/>
+      <c r="D144" s="29"/>
+      <c r="E144" s="29"/>
       <c r="F144" s="3" t="s">
-        <v>282</v>
+        <v>340</v>
       </c>
       <c r="G144" s="3"/>
       <c r="H144" s="12"/>
       <c r="I144" s="3"/>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="36"/>
-      <c r="B145" s="33"/>
-      <c r="C145" s="27"/>
-      <c r="D145" s="20"/>
-      <c r="E145" s="20"/>
+      <c r="A145" s="26"/>
+      <c r="B145" s="23"/>
+      <c r="C145" s="32"/>
+      <c r="D145" s="30"/>
+      <c r="E145" s="30"/>
       <c r="F145" s="3" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G145" s="3"/>
       <c r="H145" s="12"/>
       <c r="I145" s="3"/>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="36"/>
-      <c r="B146" s="33"/>
-      <c r="C146" s="27"/>
-      <c r="D146" s="20"/>
-      <c r="E146" s="20"/>
+      <c r="A146" s="26"/>
+      <c r="B146" s="23"/>
+      <c r="C146" s="32"/>
+      <c r="D146" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="E146" s="28" t="s">
+        <v>124</v>
+      </c>
       <c r="F146" s="3" t="s">
-        <v>349</v>
+        <v>276</v>
       </c>
       <c r="G146" s="3"/>
       <c r="H146" s="12"/>
       <c r="I146" s="3"/>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="36"/>
-      <c r="B147" s="33"/>
-      <c r="C147" s="27"/>
-      <c r="D147" s="21"/>
-      <c r="E147" s="21"/>
+      <c r="A147" s="26"/>
+      <c r="B147" s="23"/>
+      <c r="C147" s="32"/>
+      <c r="D147" s="29"/>
+      <c r="E147" s="29"/>
       <c r="F147" s="3" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="G147" s="3"/>
       <c r="H147" s="12"/>
       <c r="I147" s="3"/>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="36"/>
-      <c r="B148" s="33"/>
-      <c r="C148" s="27"/>
-      <c r="D148" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="E148" s="19" t="s">
-        <v>125</v>
-      </c>
+      <c r="A148" s="26"/>
+      <c r="B148" s="23"/>
+      <c r="C148" s="32"/>
+      <c r="D148" s="29"/>
+      <c r="E148" s="29"/>
       <c r="F148" s="3" t="s">
-        <v>283</v>
+        <v>343</v>
       </c>
       <c r="G148" s="3"/>
       <c r="H148" s="12"/>
       <c r="I148" s="3"/>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="36"/>
-      <c r="B149" s="33"/>
-      <c r="C149" s="27"/>
-      <c r="D149" s="20"/>
-      <c r="E149" s="20"/>
+      <c r="A149" s="26"/>
+      <c r="B149" s="23"/>
+      <c r="C149" s="32"/>
+      <c r="D149" s="30"/>
+      <c r="E149" s="30"/>
       <c r="F149" s="3" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="G149" s="3"/>
       <c r="H149" s="12"/>
       <c r="I149" s="3"/>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="36"/>
-      <c r="B150" s="33"/>
-      <c r="C150" s="27"/>
-      <c r="D150" s="20"/>
-      <c r="E150" s="20"/>
+      <c r="A150" s="26"/>
+      <c r="B150" s="23"/>
+      <c r="C150" s="32"/>
+      <c r="D150" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E150" s="28" t="s">
+        <v>125</v>
+      </c>
       <c r="F150" s="3" t="s">
-        <v>352</v>
+        <v>277</v>
       </c>
       <c r="G150" s="3"/>
       <c r="H150" s="12"/>
       <c r="I150" s="3"/>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="36"/>
-      <c r="B151" s="33"/>
-      <c r="C151" s="27"/>
-      <c r="D151" s="21"/>
-      <c r="E151" s="21"/>
+      <c r="A151" s="26"/>
+      <c r="B151" s="23"/>
+      <c r="C151" s="32"/>
+      <c r="D151" s="29"/>
+      <c r="E151" s="29"/>
       <c r="F151" s="3" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="G151" s="3"/>
       <c r="H151" s="12"/>
       <c r="I151" s="3"/>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="36"/>
-      <c r="B152" s="33"/>
-      <c r="C152" s="27"/>
-      <c r="D152" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="E152" s="19" t="s">
-        <v>126</v>
-      </c>
+      <c r="A152" s="26"/>
+      <c r="B152" s="23"/>
+      <c r="C152" s="32"/>
+      <c r="D152" s="29"/>
+      <c r="E152" s="29"/>
       <c r="F152" s="3" t="s">
-        <v>284</v>
+        <v>346</v>
       </c>
       <c r="G152" s="3"/>
       <c r="H152" s="12"/>
       <c r="I152" s="3"/>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="36"/>
-      <c r="B153" s="33"/>
-      <c r="C153" s="27"/>
-      <c r="D153" s="20"/>
-      <c r="E153" s="20"/>
+      <c r="A153" s="26"/>
+      <c r="B153" s="23"/>
+      <c r="C153" s="32"/>
+      <c r="D153" s="30"/>
+      <c r="E153" s="30"/>
       <c r="F153" s="3" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G153" s="3"/>
       <c r="H153" s="12"/>
       <c r="I153" s="3"/>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="36"/>
-      <c r="B154" s="33"/>
-      <c r="C154" s="27"/>
-      <c r="D154" s="20"/>
-      <c r="E154" s="20"/>
+      <c r="A154" s="26"/>
+      <c r="B154" s="23"/>
+      <c r="C154" s="32"/>
+      <c r="D154" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="E154" s="28" t="s">
+        <v>126</v>
+      </c>
       <c r="F154" s="3" t="s">
-        <v>355</v>
+        <v>278</v>
       </c>
       <c r="G154" s="3"/>
       <c r="H154" s="12"/>
       <c r="I154" s="3"/>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="36"/>
-      <c r="B155" s="33"/>
-      <c r="C155" s="27"/>
-      <c r="D155" s="21"/>
-      <c r="E155" s="21"/>
+      <c r="A155" s="26"/>
+      <c r="B155" s="23"/>
+      <c r="C155" s="32"/>
+      <c r="D155" s="29"/>
+      <c r="E155" s="29"/>
       <c r="F155" s="3" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G155" s="3"/>
       <c r="H155" s="12"/>
       <c r="I155" s="3"/>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="36"/>
-      <c r="B156" s="33"/>
-      <c r="C156" s="27"/>
-      <c r="D156" s="13"/>
-      <c r="E156" s="13"/>
-      <c r="F156" s="3"/>
+      <c r="A156" s="26"/>
+      <c r="B156" s="23"/>
+      <c r="C156" s="32"/>
+      <c r="D156" s="29"/>
+      <c r="E156" s="29"/>
+      <c r="F156" s="3" t="s">
+        <v>349</v>
+      </c>
       <c r="G156" s="3"/>
       <c r="H156" s="12"/>
       <c r="I156" s="3"/>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="36"/>
-      <c r="B157" s="33"/>
-      <c r="C157" s="28"/>
-      <c r="D157" s="13"/>
-      <c r="E157" s="13"/>
-      <c r="F157" s="3"/>
+      <c r="A157" s="26"/>
+      <c r="B157" s="23"/>
+      <c r="C157" s="32"/>
+      <c r="D157" s="30"/>
+      <c r="E157" s="30"/>
+      <c r="F157" s="3" t="s">
+        <v>350</v>
+      </c>
       <c r="G157" s="3"/>
       <c r="H157" s="12"/>
       <c r="I157" s="3"/>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="36"/>
-      <c r="B158" s="33"/>
-      <c r="C158" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D158" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="E158" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="F158" s="3" t="s">
-        <v>285</v>
-      </c>
+      <c r="A158" s="26"/>
+      <c r="B158" s="23"/>
+      <c r="C158" s="32"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="13"/>
+      <c r="F158" s="3"/>
       <c r="G158" s="3"/>
       <c r="H158" s="12"/>
       <c r="I158" s="3"/>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="36"/>
-      <c r="B159" s="33"/>
-      <c r="C159" s="38"/>
-      <c r="D159" s="20"/>
-      <c r="E159" s="20"/>
-      <c r="F159" s="3" t="s">
-        <v>357</v>
-      </c>
+      <c r="A159" s="26"/>
+      <c r="B159" s="23"/>
+      <c r="C159" s="33"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="13"/>
+      <c r="F159" s="3"/>
       <c r="G159" s="3"/>
       <c r="H159" s="12"/>
       <c r="I159" s="3"/>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="36"/>
-      <c r="B160" s="33"/>
-      <c r="C160" s="38"/>
-      <c r="D160" s="20"/>
-      <c r="E160" s="20"/>
+      <c r="A160" s="26"/>
+      <c r="B160" s="23"/>
+      <c r="C160" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D160" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="E160" s="28" t="s">
+        <v>129</v>
+      </c>
       <c r="F160" s="3" t="s">
-        <v>358</v>
+        <v>279</v>
       </c>
       <c r="G160" s="3"/>
       <c r="H160" s="12"/>
       <c r="I160" s="3"/>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="36"/>
-      <c r="B161" s="33"/>
-      <c r="C161" s="38"/>
-      <c r="D161" s="21"/>
-      <c r="E161" s="21"/>
+      <c r="A161" s="26"/>
+      <c r="B161" s="23"/>
+      <c r="C161" s="34"/>
+      <c r="D161" s="29"/>
+      <c r="E161" s="29"/>
       <c r="F161" s="3" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="G161" s="3"/>
       <c r="H161" s="12"/>
       <c r="I161" s="3"/>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="36"/>
-      <c r="B162" s="33"/>
-      <c r="C162" s="38"/>
-      <c r="D162" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="E162" s="19" t="s">
-        <v>130</v>
-      </c>
+      <c r="A162" s="26"/>
+      <c r="B162" s="23"/>
+      <c r="C162" s="34"/>
+      <c r="D162" s="29"/>
+      <c r="E162" s="29"/>
       <c r="F162" s="3" t="s">
-        <v>286</v>
+        <v>352</v>
       </c>
       <c r="G162" s="3"/>
       <c r="H162" s="12"/>
       <c r="I162" s="3"/>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" s="36"/>
-      <c r="B163" s="33"/>
-      <c r="C163" s="38"/>
-      <c r="D163" s="20"/>
-      <c r="E163" s="20"/>
+      <c r="A163" s="26"/>
+      <c r="B163" s="23"/>
+      <c r="C163" s="34"/>
+      <c r="D163" s="30"/>
+      <c r="E163" s="30"/>
       <c r="F163" s="3" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G163" s="3"/>
       <c r="H163" s="12"/>
       <c r="I163" s="3"/>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" s="36"/>
-      <c r="B164" s="33"/>
-      <c r="C164" s="38"/>
-      <c r="D164" s="20"/>
-      <c r="E164" s="20"/>
+      <c r="A164" s="26"/>
+      <c r="B164" s="23"/>
+      <c r="C164" s="34"/>
+      <c r="D164" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="E164" s="28" t="s">
+        <v>130</v>
+      </c>
       <c r="F164" s="3" t="s">
-        <v>361</v>
+        <v>280</v>
       </c>
       <c r="G164" s="3"/>
       <c r="H164" s="12"/>
       <c r="I164" s="3"/>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="36"/>
-      <c r="B165" s="33"/>
-      <c r="C165" s="38"/>
-      <c r="D165" s="21"/>
-      <c r="E165" s="21"/>
+      <c r="A165" s="26"/>
+      <c r="B165" s="23"/>
+      <c r="C165" s="34"/>
+      <c r="D165" s="29"/>
+      <c r="E165" s="29"/>
       <c r="F165" s="3" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G165" s="3"/>
       <c r="H165" s="12"/>
       <c r="I165" s="3"/>
     </row>
     <row r="166" spans="1:9">
-      <c r="A166" s="36"/>
-      <c r="B166" s="33"/>
-      <c r="C166" s="38"/>
-      <c r="D166" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="E166" s="22" t="s">
-        <v>127</v>
-      </c>
+      <c r="A166" s="26"/>
+      <c r="B166" s="23"/>
+      <c r="C166" s="34"/>
+      <c r="D166" s="29"/>
+      <c r="E166" s="29"/>
       <c r="F166" s="3" t="s">
-        <v>287</v>
+        <v>355</v>
       </c>
       <c r="G166" s="3"/>
       <c r="H166" s="12"/>
       <c r="I166" s="3"/>
     </row>
     <row r="167" spans="1:9">
-      <c r="A167" s="36"/>
-      <c r="B167" s="33"/>
-      <c r="C167" s="38"/>
-      <c r="D167" s="22"/>
-      <c r="E167" s="22"/>
+      <c r="A167" s="26"/>
+      <c r="B167" s="23"/>
+      <c r="C167" s="34"/>
+      <c r="D167" s="30"/>
+      <c r="E167" s="30"/>
       <c r="F167" s="3" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="G167" s="3"/>
       <c r="H167" s="12"/>
       <c r="I167" s="3"/>
     </row>
     <row r="168" spans="1:9">
-      <c r="A168" s="36"/>
-      <c r="B168" s="33"/>
-      <c r="C168" s="38"/>
-      <c r="D168" s="22"/>
-      <c r="E168" s="22"/>
+      <c r="A168" s="26"/>
+      <c r="B168" s="23"/>
+      <c r="C168" s="34"/>
+      <c r="D168" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="E168" s="38" t="s">
+        <v>127</v>
+      </c>
       <c r="F168" s="3" t="s">
-        <v>364</v>
+        <v>281</v>
       </c>
       <c r="G168" s="3"/>
       <c r="H168" s="12"/>
       <c r="I168" s="3"/>
     </row>
     <row r="169" spans="1:9">
-      <c r="A169" s="36"/>
-      <c r="B169" s="33"/>
-      <c r="C169" s="38"/>
-      <c r="D169" s="22"/>
-      <c r="E169" s="22"/>
+      <c r="A169" s="26"/>
+      <c r="B169" s="23"/>
+      <c r="C169" s="34"/>
+      <c r="D169" s="38"/>
+      <c r="E169" s="38"/>
       <c r="F169" s="3" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="G169" s="3"/>
       <c r="H169" s="12"/>
       <c r="I169" s="3"/>
     </row>
     <row r="170" spans="1:9">
-      <c r="A170" s="36"/>
-      <c r="B170" s="33"/>
-      <c r="C170" s="38"/>
-      <c r="D170" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="E170" s="22" t="s">
-        <v>128</v>
-      </c>
+      <c r="A170" s="26"/>
+      <c r="B170" s="23"/>
+      <c r="C170" s="34"/>
+      <c r="D170" s="38"/>
+      <c r="E170" s="38"/>
       <c r="F170" s="3" t="s">
-        <v>288</v>
+        <v>358</v>
       </c>
       <c r="G170" s="3"/>
       <c r="H170" s="12"/>
       <c r="I170" s="3"/>
     </row>
     <row r="171" spans="1:9">
-      <c r="A171" s="36"/>
-      <c r="B171" s="33"/>
-      <c r="C171" s="38"/>
-      <c r="D171" s="22"/>
-      <c r="E171" s="22"/>
+      <c r="A171" s="26"/>
+      <c r="B171" s="23"/>
+      <c r="C171" s="34"/>
+      <c r="D171" s="38"/>
+      <c r="E171" s="38"/>
       <c r="F171" s="3" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G171" s="3"/>
       <c r="H171" s="12"/>
       <c r="I171" s="3"/>
     </row>
     <row r="172" spans="1:9">
-      <c r="A172" s="36"/>
-      <c r="B172" s="33"/>
-      <c r="C172" s="38"/>
-      <c r="D172" s="22"/>
-      <c r="E172" s="22"/>
+      <c r="A172" s="26"/>
+      <c r="B172" s="23"/>
+      <c r="C172" s="34"/>
+      <c r="D172" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="E172" s="38" t="s">
+        <v>128</v>
+      </c>
       <c r="F172" s="3" t="s">
-        <v>367</v>
+        <v>282</v>
       </c>
       <c r="G172" s="3"/>
       <c r="H172" s="12"/>
       <c r="I172" s="3"/>
     </row>
     <row r="173" spans="1:9">
-      <c r="A173" s="36"/>
-      <c r="B173" s="33"/>
-      <c r="C173" s="38"/>
-      <c r="D173" s="22"/>
-      <c r="E173" s="22"/>
+      <c r="A173" s="26"/>
+      <c r="B173" s="23"/>
+      <c r="C173" s="34"/>
+      <c r="D173" s="38"/>
+      <c r="E173" s="38"/>
       <c r="F173" s="3" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G173" s="3"/>
       <c r="H173" s="12"/>
       <c r="I173" s="3"/>
     </row>
     <row r="174" spans="1:9">
-      <c r="A174" s="36"/>
-      <c r="B174" s="33"/>
-      <c r="C174" s="38"/>
-      <c r="D174" s="13"/>
-      <c r="E174" s="13"/>
-      <c r="F174" s="3"/>
+      <c r="A174" s="26"/>
+      <c r="B174" s="23"/>
+      <c r="C174" s="34"/>
+      <c r="D174" s="38"/>
+      <c r="E174" s="38"/>
+      <c r="F174" s="3" t="s">
+        <v>361</v>
+      </c>
       <c r="G174" s="3"/>
       <c r="H174" s="12"/>
       <c r="I174" s="3"/>
     </row>
     <row r="175" spans="1:9">
-      <c r="A175" s="36"/>
-      <c r="B175" s="33"/>
-      <c r="C175" s="38"/>
-      <c r="D175" s="13"/>
-      <c r="E175" s="13"/>
-      <c r="F175" s="3"/>
+      <c r="A175" s="26"/>
+      <c r="B175" s="23"/>
+      <c r="C175" s="34"/>
+      <c r="D175" s="38"/>
+      <c r="E175" s="38"/>
+      <c r="F175" s="3" t="s">
+        <v>362</v>
+      </c>
       <c r="G175" s="3"/>
       <c r="H175" s="12"/>
       <c r="I175" s="3"/>
     </row>
     <row r="176" spans="1:9">
-      <c r="A176" s="36"/>
-      <c r="B176" s="33"/>
-      <c r="C176" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D176" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E176" s="19"/>
-      <c r="F176" s="3" t="s">
-        <v>396</v>
-      </c>
+      <c r="A176" s="26"/>
+      <c r="B176" s="23"/>
+      <c r="C176" s="34"/>
+      <c r="D176" s="13"/>
+      <c r="E176" s="13"/>
+      <c r="F176" s="3"/>
       <c r="G176" s="3"/>
       <c r="H176" s="12"/>
       <c r="I176" s="3"/>
     </row>
     <row r="177" spans="1:9">
-      <c r="A177" s="36"/>
-      <c r="B177" s="33"/>
-      <c r="C177" s="27"/>
-      <c r="D177" s="20"/>
-      <c r="E177" s="20"/>
-      <c r="F177" s="3" t="s">
-        <v>397</v>
-      </c>
+      <c r="A177" s="26"/>
+      <c r="B177" s="23"/>
+      <c r="C177" s="34"/>
+      <c r="D177" s="13"/>
+      <c r="E177" s="13"/>
+      <c r="F177" s="3"/>
       <c r="G177" s="3"/>
       <c r="H177" s="12"/>
       <c r="I177" s="3"/>
     </row>
     <row r="178" spans="1:9">
-      <c r="A178" s="36"/>
-      <c r="B178" s="33"/>
-      <c r="C178" s="27"/>
-      <c r="D178" s="20"/>
-      <c r="E178" s="20"/>
+      <c r="A178" s="26"/>
+      <c r="B178" s="23"/>
+      <c r="C178" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D178" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="E178" s="28"/>
       <c r="F178" s="3" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="G178" s="3"/>
       <c r="H178" s="12"/>
       <c r="I178" s="3"/>
     </row>
     <row r="179" spans="1:9">
-      <c r="A179" s="36"/>
-      <c r="B179" s="33"/>
-      <c r="C179" s="27"/>
-      <c r="D179" s="21"/>
-      <c r="E179" s="21"/>
+      <c r="A179" s="26"/>
+      <c r="B179" s="23"/>
+      <c r="C179" s="32"/>
+      <c r="D179" s="29"/>
+      <c r="E179" s="29"/>
       <c r="F179" s="3" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G179" s="3"/>
       <c r="H179" s="12"/>
       <c r="I179" s="3"/>
     </row>
     <row r="180" spans="1:9">
-      <c r="A180" s="36"/>
-      <c r="B180" s="33"/>
-      <c r="C180" s="27"/>
-      <c r="D180" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="E180" s="19"/>
+      <c r="A180" s="26"/>
+      <c r="B180" s="23"/>
+      <c r="C180" s="32"/>
+      <c r="D180" s="29"/>
+      <c r="E180" s="29"/>
       <c r="F180" s="3" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="G180" s="3"/>
       <c r="H180" s="12"/>
       <c r="I180" s="3"/>
     </row>
     <row r="181" spans="1:9">
-      <c r="A181" s="36"/>
-      <c r="B181" s="33"/>
-      <c r="C181" s="27"/>
-      <c r="D181" s="20"/>
-      <c r="E181" s="20"/>
+      <c r="A181" s="26"/>
+      <c r="B181" s="23"/>
+      <c r="C181" s="32"/>
+      <c r="D181" s="30"/>
+      <c r="E181" s="30"/>
       <c r="F181" s="3" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="G181" s="3"/>
       <c r="H181" s="12"/>
       <c r="I181" s="3"/>
     </row>
     <row r="182" spans="1:9">
-      <c r="A182" s="36"/>
-      <c r="B182" s="33"/>
-      <c r="C182" s="27"/>
-      <c r="D182" s="20"/>
-      <c r="E182" s="20"/>
+      <c r="A182" s="26"/>
+      <c r="B182" s="23"/>
+      <c r="C182" s="32"/>
+      <c r="D182" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="E182" s="28"/>
       <c r="F182" s="3" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="G182" s="3"/>
       <c r="H182" s="12"/>
       <c r="I182" s="3"/>
     </row>
     <row r="183" spans="1:9">
-      <c r="A183" s="36"/>
-      <c r="B183" s="33"/>
-      <c r="C183" s="27"/>
-      <c r="D183" s="21"/>
-      <c r="E183" s="21"/>
+      <c r="A183" s="26"/>
+      <c r="B183" s="23"/>
+      <c r="C183" s="32"/>
+      <c r="D183" s="29"/>
+      <c r="E183" s="29"/>
       <c r="F183" s="3" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="G183" s="3"/>
       <c r="H183" s="12"/>
       <c r="I183" s="3"/>
     </row>
     <row r="184" spans="1:9">
-      <c r="A184" s="36"/>
-      <c r="B184" s="33"/>
-      <c r="C184" s="27"/>
-      <c r="D184" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="E184" s="19"/>
+      <c r="A184" s="26"/>
+      <c r="B184" s="23"/>
+      <c r="C184" s="32"/>
+      <c r="D184" s="29"/>
+      <c r="E184" s="29"/>
       <c r="F184" s="3" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G184" s="3"/>
       <c r="H184" s="12"/>
       <c r="I184" s="3"/>
     </row>
     <row r="185" spans="1:9">
-      <c r="A185" s="36"/>
-      <c r="B185" s="33"/>
-      <c r="C185" s="27"/>
-      <c r="D185" s="20"/>
-      <c r="E185" s="20"/>
+      <c r="A185" s="26"/>
+      <c r="B185" s="23"/>
+      <c r="C185" s="32"/>
+      <c r="D185" s="30"/>
+      <c r="E185" s="30"/>
       <c r="F185" s="3" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G185" s="3"/>
       <c r="H185" s="12"/>
       <c r="I185" s="3"/>
     </row>
     <row r="186" spans="1:9">
-      <c r="A186" s="36"/>
-      <c r="B186" s="33"/>
-      <c r="C186" s="27"/>
-      <c r="D186" s="20"/>
-      <c r="E186" s="20"/>
+      <c r="A186" s="26"/>
+      <c r="B186" s="23"/>
+      <c r="C186" s="32"/>
+      <c r="D186" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="E186" s="28"/>
       <c r="F186" s="3" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="G186" s="3"/>
       <c r="H186" s="12"/>
       <c r="I186" s="3"/>
     </row>
     <row r="187" spans="1:9">
-      <c r="A187" s="36"/>
-      <c r="B187" s="33"/>
-      <c r="C187" s="27"/>
-      <c r="D187" s="21"/>
-      <c r="E187" s="21"/>
+      <c r="A187" s="26"/>
+      <c r="B187" s="23"/>
+      <c r="C187" s="32"/>
+      <c r="D187" s="29"/>
+      <c r="E187" s="29"/>
       <c r="F187" s="3" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="G187" s="3"/>
       <c r="H187" s="12"/>
       <c r="I187" s="3"/>
     </row>
     <row r="188" spans="1:9">
-      <c r="A188" s="36"/>
-      <c r="B188" s="33"/>
-      <c r="C188" s="27"/>
-      <c r="D188" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="E188" s="19"/>
+      <c r="A188" s="26"/>
+      <c r="B188" s="23"/>
+      <c r="C188" s="32"/>
+      <c r="D188" s="29"/>
+      <c r="E188" s="29"/>
       <c r="F188" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G188" s="3"/>
       <c r="H188" s="12"/>
       <c r="I188" s="3"/>
     </row>
     <row r="189" spans="1:9">
-      <c r="A189" s="36"/>
-      <c r="B189" s="33"/>
-      <c r="C189" s="27"/>
-      <c r="D189" s="20"/>
-      <c r="E189" s="20"/>
+      <c r="A189" s="26"/>
+      <c r="B189" s="23"/>
+      <c r="C189" s="32"/>
+      <c r="D189" s="30"/>
+      <c r="E189" s="30"/>
       <c r="F189" s="3" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G189" s="3"/>
       <c r="H189" s="12"/>
       <c r="I189" s="3"/>
     </row>
     <row r="190" spans="1:9">
-      <c r="A190" s="36"/>
-      <c r="B190" s="33"/>
-      <c r="C190" s="27"/>
-      <c r="D190" s="20"/>
-      <c r="E190" s="20"/>
+      <c r="A190" s="26"/>
+      <c r="B190" s="23"/>
+      <c r="C190" s="32"/>
+      <c r="D190" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="E190" s="28"/>
       <c r="F190" s="3" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="G190" s="3"/>
       <c r="H190" s="12"/>
       <c r="I190" s="3"/>
     </row>
     <row r="191" spans="1:9">
-      <c r="A191" s="36"/>
-      <c r="B191" s="33"/>
-      <c r="C191" s="27"/>
-      <c r="D191" s="21"/>
-      <c r="E191" s="21"/>
+      <c r="A191" s="26"/>
+      <c r="B191" s="23"/>
+      <c r="C191" s="32"/>
+      <c r="D191" s="29"/>
+      <c r="E191" s="29"/>
       <c r="F191" s="3" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G191" s="3"/>
       <c r="H191" s="12"/>
       <c r="I191" s="3"/>
     </row>
     <row r="192" spans="1:9">
-      <c r="A192" s="36"/>
-      <c r="B192" s="33"/>
-      <c r="C192" s="27"/>
-      <c r="D192" s="13"/>
-      <c r="E192" s="13"/>
-      <c r="F192" s="3"/>
+      <c r="A192" s="26"/>
+      <c r="B192" s="23"/>
+      <c r="C192" s="32"/>
+      <c r="D192" s="29"/>
+      <c r="E192" s="29"/>
+      <c r="F192" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="G192" s="3"/>
       <c r="H192" s="12"/>
       <c r="I192" s="3"/>
     </row>
     <row r="193" spans="1:9">
-      <c r="A193" s="36"/>
-      <c r="B193" s="33"/>
-      <c r="C193" s="28"/>
-      <c r="D193" s="13"/>
-      <c r="E193" s="13"/>
-      <c r="F193" s="3"/>
+      <c r="A193" s="26"/>
+      <c r="B193" s="23"/>
+      <c r="C193" s="32"/>
+      <c r="D193" s="30"/>
+      <c r="E193" s="30"/>
+      <c r="F193" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="G193" s="3"/>
       <c r="H193" s="12"/>
       <c r="I193" s="3"/>
     </row>
     <row r="194" spans="1:9">
-      <c r="A194" s="36"/>
-      <c r="B194" s="33"/>
-      <c r="C194" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="D194" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="E194" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="F194" s="3" t="s">
-        <v>289</v>
-      </c>
+      <c r="A194" s="26"/>
+      <c r="B194" s="23"/>
+      <c r="C194" s="32"/>
+      <c r="D194" s="13"/>
+      <c r="E194" s="13"/>
+      <c r="F194" s="3"/>
       <c r="G194" s="3"/>
       <c r="H194" s="12"/>
       <c r="I194" s="3"/>
     </row>
     <row r="195" spans="1:9">
-      <c r="A195" s="36"/>
-      <c r="B195" s="33"/>
-      <c r="C195" s="38"/>
-      <c r="D195" s="20"/>
-      <c r="E195" s="20"/>
-      <c r="F195" s="3" t="s">
-        <v>369</v>
-      </c>
+      <c r="A195" s="26"/>
+      <c r="B195" s="23"/>
+      <c r="C195" s="33"/>
+      <c r="D195" s="13"/>
+      <c r="E195" s="13"/>
+      <c r="F195" s="3"/>
       <c r="G195" s="3"/>
       <c r="H195" s="12"/>
       <c r="I195" s="3"/>
     </row>
     <row r="196" spans="1:9">
-      <c r="A196" s="36"/>
-      <c r="B196" s="33"/>
-      <c r="C196" s="38"/>
-      <c r="D196" s="20"/>
-      <c r="E196" s="20"/>
+      <c r="A196" s="26"/>
+      <c r="B196" s="23"/>
+      <c r="C196" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D196" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="E196" s="28" t="s">
+        <v>134</v>
+      </c>
       <c r="F196" s="3" t="s">
-        <v>370</v>
+        <v>283</v>
       </c>
       <c r="G196" s="3"/>
       <c r="H196" s="12"/>
       <c r="I196" s="3"/>
     </row>
     <row r="197" spans="1:9">
-      <c r="A197" s="36"/>
-      <c r="B197" s="33"/>
-      <c r="C197" s="38"/>
-      <c r="D197" s="21"/>
-      <c r="E197" s="21"/>
+      <c r="A197" s="26"/>
+      <c r="B197" s="23"/>
+      <c r="C197" s="34"/>
+      <c r="D197" s="29"/>
+      <c r="E197" s="29"/>
       <c r="F197" s="3" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G197" s="3"/>
       <c r="H197" s="12"/>
       <c r="I197" s="3"/>
     </row>
     <row r="198" spans="1:9">
-      <c r="A198" s="36"/>
-      <c r="B198" s="33"/>
-      <c r="C198" s="38"/>
-      <c r="D198" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="E198" s="19" t="s">
-        <v>135</v>
-      </c>
+      <c r="A198" s="26"/>
+      <c r="B198" s="23"/>
+      <c r="C198" s="34"/>
+      <c r="D198" s="29"/>
+      <c r="E198" s="29"/>
       <c r="F198" s="3" t="s">
-        <v>290</v>
+        <v>364</v>
       </c>
       <c r="G198" s="3"/>
       <c r="H198" s="12"/>
       <c r="I198" s="3"/>
     </row>
     <row r="199" spans="1:9">
-      <c r="A199" s="36"/>
-      <c r="B199" s="33"/>
-      <c r="C199" s="38"/>
-      <c r="D199" s="20"/>
-      <c r="E199" s="20"/>
+      <c r="A199" s="26"/>
+      <c r="B199" s="23"/>
+      <c r="C199" s="34"/>
+      <c r="D199" s="30"/>
+      <c r="E199" s="30"/>
       <c r="F199" s="3" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G199" s="3"/>
       <c r="H199" s="12"/>
       <c r="I199" s="3"/>
     </row>
     <row r="200" spans="1:9">
-      <c r="A200" s="36"/>
-      <c r="B200" s="33"/>
-      <c r="C200" s="38"/>
-      <c r="D200" s="20"/>
-      <c r="E200" s="20"/>
+      <c r="A200" s="26"/>
+      <c r="B200" s="23"/>
+      <c r="C200" s="34"/>
+      <c r="D200" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="E200" s="28" t="s">
+        <v>135</v>
+      </c>
       <c r="F200" s="3" t="s">
-        <v>373</v>
+        <v>284</v>
       </c>
       <c r="G200" s="3"/>
       <c r="H200" s="12"/>
       <c r="I200" s="3"/>
     </row>
     <row r="201" spans="1:9">
-      <c r="A201" s="36"/>
-      <c r="B201" s="33"/>
-      <c r="C201" s="38"/>
-      <c r="D201" s="21"/>
-      <c r="E201" s="21"/>
+      <c r="A201" s="26"/>
+      <c r="B201" s="23"/>
+      <c r="C201" s="34"/>
+      <c r="D201" s="29"/>
+      <c r="E201" s="29"/>
       <c r="F201" s="3" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G201" s="3"/>
       <c r="H201" s="12"/>
       <c r="I201" s="3"/>
     </row>
     <row r="202" spans="1:9">
-      <c r="A202" s="36"/>
-      <c r="B202" s="33"/>
-      <c r="C202" s="38"/>
-      <c r="D202" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="E202" s="19" t="s">
-        <v>133</v>
-      </c>
+      <c r="A202" s="26"/>
+      <c r="B202" s="23"/>
+      <c r="C202" s="34"/>
+      <c r="D202" s="29"/>
+      <c r="E202" s="29"/>
       <c r="F202" s="3" t="s">
-        <v>291</v>
+        <v>367</v>
       </c>
       <c r="G202" s="3"/>
       <c r="H202" s="12"/>
       <c r="I202" s="3"/>
     </row>
     <row r="203" spans="1:9">
-      <c r="A203" s="36"/>
-      <c r="B203" s="33"/>
-      <c r="C203" s="38"/>
-      <c r="D203" s="20"/>
-      <c r="E203" s="20"/>
+      <c r="A203" s="26"/>
+      <c r="B203" s="23"/>
+      <c r="C203" s="34"/>
+      <c r="D203" s="30"/>
+      <c r="E203" s="30"/>
       <c r="F203" s="3" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="G203" s="3"/>
       <c r="H203" s="12"/>
       <c r="I203" s="3"/>
     </row>
     <row r="204" spans="1:9">
-      <c r="A204" s="36"/>
-      <c r="B204" s="33"/>
-      <c r="C204" s="38"/>
-      <c r="D204" s="20"/>
-      <c r="E204" s="20"/>
+      <c r="A204" s="26"/>
+      <c r="B204" s="23"/>
+      <c r="C204" s="34"/>
+      <c r="D204" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="E204" s="28" t="s">
+        <v>133</v>
+      </c>
       <c r="F204" s="3" t="s">
-        <v>376</v>
+        <v>285</v>
       </c>
       <c r="G204" s="3"/>
       <c r="H204" s="12"/>
       <c r="I204" s="3"/>
     </row>
     <row r="205" spans="1:9">
-      <c r="A205" s="36"/>
-      <c r="B205" s="33"/>
-      <c r="C205" s="38"/>
-      <c r="D205" s="21"/>
-      <c r="E205" s="21"/>
+      <c r="A205" s="26"/>
+      <c r="B205" s="23"/>
+      <c r="C205" s="34"/>
+      <c r="D205" s="29"/>
+      <c r="E205" s="29"/>
       <c r="F205" s="3" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G205" s="3"/>
       <c r="H205" s="12"/>
       <c r="I205" s="3"/>
     </row>
     <row r="206" spans="1:9">
-      <c r="A206" s="36"/>
-      <c r="B206" s="33"/>
-      <c r="C206" s="38"/>
-      <c r="D206" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="E206" s="19" t="s">
-        <v>132</v>
-      </c>
+      <c r="A206" s="26"/>
+      <c r="B206" s="23"/>
+      <c r="C206" s="34"/>
+      <c r="D206" s="29"/>
+      <c r="E206" s="29"/>
       <c r="F206" s="3" t="s">
-        <v>292</v>
+        <v>370</v>
       </c>
       <c r="G206" s="3"/>
       <c r="H206" s="12"/>
       <c r="I206" s="3"/>
     </row>
     <row r="207" spans="1:9">
-      <c r="A207" s="36"/>
-      <c r="B207" s="33"/>
-      <c r="C207" s="38"/>
-      <c r="D207" s="20"/>
-      <c r="E207" s="20"/>
+      <c r="A207" s="26"/>
+      <c r="B207" s="23"/>
+      <c r="C207" s="34"/>
+      <c r="D207" s="30"/>
+      <c r="E207" s="30"/>
       <c r="F207" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G207" s="3"/>
       <c r="H207" s="12"/>
       <c r="I207" s="3"/>
     </row>
     <row r="208" spans="1:9">
-      <c r="A208" s="36"/>
-      <c r="B208" s="33"/>
-      <c r="C208" s="38"/>
-      <c r="D208" s="20"/>
-      <c r="E208" s="20"/>
+      <c r="A208" s="26"/>
+      <c r="B208" s="23"/>
+      <c r="C208" s="34"/>
+      <c r="D208" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="E208" s="28" t="s">
+        <v>132</v>
+      </c>
       <c r="F208" s="3" t="s">
-        <v>379</v>
+        <v>286</v>
       </c>
       <c r="G208" s="3"/>
       <c r="H208" s="12"/>
       <c r="I208" s="3"/>
     </row>
     <row r="209" spans="1:9">
-      <c r="A209" s="36"/>
-      <c r="B209" s="33"/>
-      <c r="C209" s="38"/>
-      <c r="D209" s="21"/>
-      <c r="E209" s="21"/>
+      <c r="A209" s="26"/>
+      <c r="B209" s="23"/>
+      <c r="C209" s="34"/>
+      <c r="D209" s="29"/>
+      <c r="E209" s="29"/>
       <c r="F209" s="3" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G209" s="3"/>
       <c r="H209" s="12"/>
       <c r="I209" s="3"/>
     </row>
     <row r="210" spans="1:9">
-      <c r="A210" s="36"/>
-      <c r="B210" s="33"/>
-      <c r="C210" s="38"/>
-      <c r="D210" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="E210" s="22" t="s">
-        <v>131</v>
-      </c>
+      <c r="A210" s="26"/>
+      <c r="B210" s="23"/>
+      <c r="C210" s="34"/>
+      <c r="D210" s="29"/>
+      <c r="E210" s="29"/>
       <c r="F210" s="3" t="s">
-        <v>293</v>
+        <v>373</v>
       </c>
       <c r="G210" s="3"/>
       <c r="H210" s="12"/>
       <c r="I210" s="3"/>
     </row>
     <row r="211" spans="1:9">
-      <c r="A211" s="36"/>
-      <c r="B211" s="33"/>
-      <c r="C211" s="38"/>
-      <c r="D211" s="24"/>
-      <c r="E211" s="22"/>
+      <c r="A211" s="26"/>
+      <c r="B211" s="23"/>
+      <c r="C211" s="34"/>
+      <c r="D211" s="30"/>
+      <c r="E211" s="30"/>
       <c r="F211" s="3" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="G211" s="3"/>
       <c r="H211" s="12"/>
       <c r="I211" s="3"/>
     </row>
     <row r="212" spans="1:9">
-      <c r="A212" s="36"/>
-      <c r="B212" s="33"/>
-      <c r="C212" s="38"/>
-      <c r="D212" s="24"/>
-      <c r="E212" s="22"/>
+      <c r="A212" s="26"/>
+      <c r="B212" s="23"/>
+      <c r="C212" s="34"/>
+      <c r="D212" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="E212" s="38" t="s">
+        <v>131</v>
+      </c>
       <c r="F212" s="3" t="s">
-        <v>382</v>
+        <v>287</v>
       </c>
       <c r="G212" s="3"/>
       <c r="H212" s="12"/>
       <c r="I212" s="3"/>
     </row>
     <row r="213" spans="1:9">
-      <c r="A213" s="36"/>
-      <c r="B213" s="33"/>
-      <c r="C213" s="38"/>
-      <c r="D213" s="25"/>
-      <c r="E213" s="22"/>
+      <c r="A213" s="26"/>
+      <c r="B213" s="23"/>
+      <c r="C213" s="34"/>
+      <c r="D213" s="36"/>
+      <c r="E213" s="38"/>
       <c r="F213" s="3" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="G213" s="3"/>
       <c r="H213" s="12"/>
       <c r="I213" s="3"/>
     </row>
     <row r="214" spans="1:9">
-      <c r="A214" s="36"/>
-      <c r="B214" s="33"/>
-      <c r="C214" s="38"/>
-      <c r="D214" s="13"/>
-      <c r="E214" s="13"/>
-      <c r="F214" s="3"/>
+      <c r="A214" s="26"/>
+      <c r="B214" s="23"/>
+      <c r="C214" s="34"/>
+      <c r="D214" s="36"/>
+      <c r="E214" s="38"/>
+      <c r="F214" s="3" t="s">
+        <v>376</v>
+      </c>
       <c r="G214" s="3"/>
       <c r="H214" s="12"/>
       <c r="I214" s="3"/>
     </row>
     <row r="215" spans="1:9">
-      <c r="A215" s="36"/>
-      <c r="B215" s="33"/>
-      <c r="C215" s="38"/>
-      <c r="D215" s="13"/>
-      <c r="E215" s="13"/>
-      <c r="F215" s="3"/>
+      <c r="A215" s="26"/>
+      <c r="B215" s="23"/>
+      <c r="C215" s="34"/>
+      <c r="D215" s="37"/>
+      <c r="E215" s="38"/>
+      <c r="F215" s="3" t="s">
+        <v>377</v>
+      </c>
       <c r="G215" s="3"/>
       <c r="H215" s="12"/>
       <c r="I215" s="3"/>
     </row>
     <row r="216" spans="1:9">
-      <c r="A216" s="36"/>
-      <c r="B216" s="33"/>
-      <c r="C216" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="D216" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="E216" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F216" s="3" t="s">
-        <v>294</v>
-      </c>
+      <c r="A216" s="26"/>
+      <c r="B216" s="23"/>
+      <c r="C216" s="34"/>
+      <c r="D216" s="13"/>
+      <c r="E216" s="13"/>
+      <c r="F216" s="3"/>
       <c r="G216" s="3"/>
       <c r="H216" s="12"/>
       <c r="I216" s="3"/>
     </row>
     <row r="217" spans="1:9">
-      <c r="A217" s="36"/>
-      <c r="B217" s="33"/>
-      <c r="C217" s="38"/>
-      <c r="D217" s="20"/>
-      <c r="E217" s="20"/>
-      <c r="F217" s="3" t="s">
-        <v>384</v>
-      </c>
+      <c r="A217" s="26"/>
+      <c r="B217" s="23"/>
+      <c r="C217" s="34"/>
+      <c r="D217" s="13"/>
+      <c r="E217" s="13"/>
+      <c r="F217" s="3"/>
       <c r="G217" s="3"/>
       <c r="H217" s="12"/>
       <c r="I217" s="3"/>
     </row>
     <row r="218" spans="1:9">
-      <c r="A218" s="36"/>
-      <c r="B218" s="33"/>
-      <c r="C218" s="38"/>
-      <c r="D218" s="20"/>
-      <c r="E218" s="20"/>
+      <c r="A218" s="26"/>
+      <c r="B218" s="23"/>
+      <c r="C218" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="D218" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E218" s="28" t="s">
+        <v>138</v>
+      </c>
       <c r="F218" s="3" t="s">
-        <v>385</v>
+        <v>288</v>
       </c>
       <c r="G218" s="3"/>
       <c r="H218" s="12"/>
       <c r="I218" s="3"/>
     </row>
     <row r="219" spans="1:9">
-      <c r="A219" s="36"/>
-      <c r="B219" s="33"/>
-      <c r="C219" s="38"/>
-      <c r="D219" s="21"/>
-      <c r="E219" s="21"/>
+      <c r="A219" s="26"/>
+      <c r="B219" s="23"/>
+      <c r="C219" s="34"/>
+      <c r="D219" s="29"/>
+      <c r="E219" s="29"/>
       <c r="F219" s="3" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G219" s="3"/>
       <c r="H219" s="12"/>
       <c r="I219" s="3"/>
     </row>
     <row r="220" spans="1:9">
-      <c r="A220" s="36"/>
-      <c r="B220" s="33"/>
-      <c r="C220" s="38"/>
-      <c r="D220" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="E220" s="19" t="s">
-        <v>139</v>
-      </c>
+      <c r="A220" s="26"/>
+      <c r="B220" s="23"/>
+      <c r="C220" s="34"/>
+      <c r="D220" s="29"/>
+      <c r="E220" s="29"/>
       <c r="F220" s="3" t="s">
-        <v>295</v>
+        <v>379</v>
       </c>
       <c r="G220" s="3"/>
       <c r="H220" s="12"/>
       <c r="I220" s="3"/>
     </row>
     <row r="221" spans="1:9">
-      <c r="A221" s="36"/>
-      <c r="B221" s="33"/>
-      <c r="C221" s="38"/>
-      <c r="D221" s="20"/>
-      <c r="E221" s="20"/>
+      <c r="A221" s="26"/>
+      <c r="B221" s="23"/>
+      <c r="C221" s="34"/>
+      <c r="D221" s="30"/>
+      <c r="E221" s="30"/>
       <c r="F221" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="G221" s="3"/>
       <c r="H221" s="12"/>
       <c r="I221" s="3"/>
     </row>
     <row r="222" spans="1:9">
-      <c r="A222" s="36"/>
-      <c r="B222" s="33"/>
-      <c r="C222" s="38"/>
-      <c r="D222" s="20"/>
-      <c r="E222" s="20"/>
+      <c r="A222" s="26"/>
+      <c r="B222" s="23"/>
+      <c r="C222" s="34"/>
+      <c r="D222" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="E222" s="28" t="s">
+        <v>139</v>
+      </c>
       <c r="F222" s="3" t="s">
-        <v>388</v>
+        <v>289</v>
       </c>
       <c r="G222" s="3"/>
       <c r="H222" s="12"/>
       <c r="I222" s="3"/>
     </row>
     <row r="223" spans="1:9">
-      <c r="A223" s="36"/>
-      <c r="B223" s="33"/>
-      <c r="C223" s="38"/>
-      <c r="D223" s="21"/>
-      <c r="E223" s="21"/>
+      <c r="A223" s="26"/>
+      <c r="B223" s="23"/>
+      <c r="C223" s="34"/>
+      <c r="D223" s="29"/>
+      <c r="E223" s="29"/>
       <c r="F223" s="3" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="G223" s="3"/>
       <c r="H223" s="12"/>
       <c r="I223" s="3"/>
     </row>
     <row r="224" spans="1:9">
-      <c r="A224" s="36"/>
-      <c r="B224" s="33"/>
-      <c r="C224" s="38"/>
-      <c r="D224" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="E224" s="19" t="s">
-        <v>140</v>
-      </c>
+      <c r="A224" s="26"/>
+      <c r="B224" s="23"/>
+      <c r="C224" s="34"/>
+      <c r="D224" s="29"/>
+      <c r="E224" s="29"/>
       <c r="F224" s="3" t="s">
-        <v>296</v>
+        <v>382</v>
       </c>
       <c r="G224" s="3"/>
       <c r="H224" s="12"/>
       <c r="I224" s="3"/>
     </row>
     <row r="225" spans="1:9">
-      <c r="A225" s="36"/>
-      <c r="B225" s="33"/>
-      <c r="C225" s="38"/>
-      <c r="D225" s="20"/>
-      <c r="E225" s="20"/>
+      <c r="A225" s="26"/>
+      <c r="B225" s="23"/>
+      <c r="C225" s="34"/>
+      <c r="D225" s="30"/>
+      <c r="E225" s="30"/>
       <c r="F225" s="3" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G225" s="3"/>
       <c r="H225" s="12"/>
       <c r="I225" s="3"/>
     </row>
     <row r="226" spans="1:9">
-      <c r="A226" s="36"/>
-      <c r="B226" s="33"/>
-      <c r="C226" s="38"/>
-      <c r="D226" s="20"/>
-      <c r="E226" s="20"/>
+      <c r="A226" s="26"/>
+      <c r="B226" s="23"/>
+      <c r="C226" s="34"/>
+      <c r="D226" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="E226" s="28" t="s">
+        <v>140</v>
+      </c>
       <c r="F226" s="3" t="s">
-        <v>391</v>
+        <v>290</v>
       </c>
       <c r="G226" s="3"/>
       <c r="H226" s="12"/>
       <c r="I226" s="3"/>
     </row>
     <row r="227" spans="1:9">
-      <c r="A227" s="36"/>
-      <c r="B227" s="33"/>
-      <c r="C227" s="38"/>
-      <c r="D227" s="21"/>
-      <c r="E227" s="21"/>
+      <c r="A227" s="26"/>
+      <c r="B227" s="23"/>
+      <c r="C227" s="34"/>
+      <c r="D227" s="29"/>
+      <c r="E227" s="29"/>
       <c r="F227" s="3" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G227" s="3"/>
       <c r="H227" s="12"/>
       <c r="I227" s="3"/>
     </row>
     <row r="228" spans="1:9">
-      <c r="A228" s="36"/>
-      <c r="B228" s="33"/>
-      <c r="C228" s="38"/>
-      <c r="D228" s="13"/>
-      <c r="E228" s="13"/>
-      <c r="F228" s="3"/>
+      <c r="A228" s="26"/>
+      <c r="B228" s="23"/>
+      <c r="C228" s="34"/>
+      <c r="D228" s="29"/>
+      <c r="E228" s="29"/>
+      <c r="F228" s="3" t="s">
+        <v>385</v>
+      </c>
       <c r="G228" s="3"/>
       <c r="H228" s="12"/>
       <c r="I228" s="3"/>
     </row>
     <row r="229" spans="1:9">
-      <c r="A229" s="36"/>
-      <c r="B229" s="33"/>
-      <c r="C229" s="38"/>
-      <c r="D229" s="13"/>
-      <c r="E229" s="13"/>
-      <c r="F229" s="3"/>
+      <c r="A229" s="26"/>
+      <c r="B229" s="23"/>
+      <c r="C229" s="34"/>
+      <c r="D229" s="30"/>
+      <c r="E229" s="30"/>
+      <c r="F229" s="3" t="s">
+        <v>386</v>
+      </c>
       <c r="G229" s="3"/>
       <c r="H229" s="12"/>
       <c r="I229" s="3"/>
     </row>
     <row r="230" spans="1:9">
-      <c r="A230" s="36"/>
-      <c r="B230" s="33"/>
-      <c r="C230" s="26"/>
+      <c r="A230" s="26"/>
+      <c r="B230" s="23"/>
+      <c r="C230" s="34"/>
       <c r="D230" s="13"/>
       <c r="E230" s="13"/>
       <c r="F230" s="3"/>
@@ -7095,9 +7155,9 @@
       <c r="I230" s="3"/>
     </row>
     <row r="231" spans="1:9">
-      <c r="A231" s="36"/>
-      <c r="B231" s="33"/>
-      <c r="C231" s="27"/>
+      <c r="A231" s="26"/>
+      <c r="B231" s="23"/>
+      <c r="C231" s="34"/>
       <c r="D231" s="13"/>
       <c r="E231" s="13"/>
       <c r="F231" s="3"/>
@@ -7106,9 +7166,9 @@
       <c r="I231" s="3"/>
     </row>
     <row r="232" spans="1:9">
-      <c r="A232" s="36"/>
-      <c r="B232" s="33"/>
-      <c r="C232" s="27"/>
+      <c r="A232" s="26"/>
+      <c r="B232" s="23"/>
+      <c r="C232" s="31"/>
       <c r="D232" s="13"/>
       <c r="E232" s="13"/>
       <c r="F232" s="3"/>
@@ -7117,9 +7177,9 @@
       <c r="I232" s="3"/>
     </row>
     <row r="233" spans="1:9">
-      <c r="A233" s="36"/>
-      <c r="B233" s="33"/>
-      <c r="C233" s="28"/>
+      <c r="A233" s="26"/>
+      <c r="B233" s="23"/>
+      <c r="C233" s="32"/>
       <c r="D233" s="13"/>
       <c r="E233" s="13"/>
       <c r="F233" s="3"/>
@@ -7128,9 +7188,9 @@
       <c r="I233" s="3"/>
     </row>
     <row r="234" spans="1:9">
-      <c r="A234" s="36"/>
-      <c r="B234" s="33"/>
-      <c r="C234" s="38"/>
+      <c r="A234" s="26"/>
+      <c r="B234" s="23"/>
+      <c r="C234" s="32"/>
       <c r="D234" s="13"/>
       <c r="E234" s="13"/>
       <c r="F234" s="3"/>
@@ -7139,9 +7199,9 @@
       <c r="I234" s="3"/>
     </row>
     <row r="235" spans="1:9">
-      <c r="A235" s="36"/>
-      <c r="B235" s="33"/>
-      <c r="C235" s="38"/>
+      <c r="A235" s="26"/>
+      <c r="B235" s="23"/>
+      <c r="C235" s="33"/>
       <c r="D235" s="13"/>
       <c r="E235" s="13"/>
       <c r="F235" s="3"/>
@@ -7150,9 +7210,9 @@
       <c r="I235" s="3"/>
     </row>
     <row r="236" spans="1:9">
-      <c r="A236" s="36"/>
-      <c r="B236" s="33"/>
-      <c r="C236" s="38"/>
+      <c r="A236" s="26"/>
+      <c r="B236" s="23"/>
+      <c r="C236" s="34"/>
       <c r="D236" s="13"/>
       <c r="E236" s="13"/>
       <c r="F236" s="3"/>
@@ -7161,9 +7221,9 @@
       <c r="I236" s="3"/>
     </row>
     <row r="237" spans="1:9">
-      <c r="A237" s="37"/>
-      <c r="B237" s="34"/>
-      <c r="C237" s="38"/>
+      <c r="A237" s="26"/>
+      <c r="B237" s="23"/>
+      <c r="C237" s="34"/>
       <c r="D237" s="13"/>
       <c r="E237" s="13"/>
       <c r="F237" s="3"/>
@@ -7171,120 +7231,142 @@
       <c r="H237" s="12"/>
       <c r="I237" s="3"/>
     </row>
+    <row r="238" spans="1:9">
+      <c r="A238" s="26"/>
+      <c r="B238" s="23"/>
+      <c r="C238" s="34"/>
+      <c r="D238" s="13"/>
+      <c r="E238" s="13"/>
+      <c r="F238" s="3"/>
+      <c r="G238" s="3"/>
+      <c r="H238" s="12"/>
+      <c r="I238" s="3"/>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239" s="27"/>
+      <c r="B239" s="24"/>
+      <c r="C239" s="34"/>
+      <c r="D239" s="13"/>
+      <c r="E239" s="13"/>
+      <c r="F239" s="3"/>
+      <c r="G239" s="3"/>
+      <c r="H239" s="12"/>
+      <c r="I239" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="C5:C25"/>
-    <mergeCell ref="B5:B237"/>
-    <mergeCell ref="A5:A237"/>
-    <mergeCell ref="C26:C59"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="C194:C215"/>
-    <mergeCell ref="C216:C229"/>
-    <mergeCell ref="C234:C237"/>
-    <mergeCell ref="C230:C233"/>
-    <mergeCell ref="C60:C105"/>
-    <mergeCell ref="C106:C139"/>
-    <mergeCell ref="C158:C175"/>
-    <mergeCell ref="E40:E44"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="E74:E78"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="E35:E39"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="E45:E49"/>
-    <mergeCell ref="D60:D64"/>
-    <mergeCell ref="E60:E64"/>
-    <mergeCell ref="D69:D73"/>
-    <mergeCell ref="E69:E73"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="E84:E87"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="E88:E91"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="E92:E95"/>
-    <mergeCell ref="D125:D129"/>
-    <mergeCell ref="E125:E129"/>
+    <mergeCell ref="D208:D211"/>
+    <mergeCell ref="E208:E211"/>
+    <mergeCell ref="D196:D199"/>
+    <mergeCell ref="E196:E199"/>
+    <mergeCell ref="D164:D167"/>
+    <mergeCell ref="E164:E167"/>
+    <mergeCell ref="D168:D171"/>
+    <mergeCell ref="E168:E171"/>
+    <mergeCell ref="D226:D229"/>
+    <mergeCell ref="E226:E229"/>
+    <mergeCell ref="D182:D185"/>
+    <mergeCell ref="D186:D189"/>
+    <mergeCell ref="D190:D193"/>
+    <mergeCell ref="E182:E185"/>
+    <mergeCell ref="E186:E189"/>
+    <mergeCell ref="E190:E193"/>
+    <mergeCell ref="D212:D215"/>
+    <mergeCell ref="E212:E215"/>
+    <mergeCell ref="D218:D221"/>
+    <mergeCell ref="E218:E221"/>
+    <mergeCell ref="D222:D225"/>
+    <mergeCell ref="E222:E225"/>
+    <mergeCell ref="D200:D203"/>
+    <mergeCell ref="E200:E203"/>
+    <mergeCell ref="D204:D207"/>
+    <mergeCell ref="E204:E207"/>
+    <mergeCell ref="D160:D163"/>
+    <mergeCell ref="E160:E163"/>
+    <mergeCell ref="D132:D135"/>
+    <mergeCell ref="E132:E135"/>
+    <mergeCell ref="D136:D139"/>
+    <mergeCell ref="E136:E139"/>
+    <mergeCell ref="D172:D175"/>
+    <mergeCell ref="E172:E175"/>
+    <mergeCell ref="C178:C195"/>
+    <mergeCell ref="D178:D181"/>
+    <mergeCell ref="E178:E181"/>
+    <mergeCell ref="C142:C159"/>
+    <mergeCell ref="D142:D145"/>
+    <mergeCell ref="E142:E145"/>
+    <mergeCell ref="D146:D149"/>
+    <mergeCell ref="E146:E149"/>
+    <mergeCell ref="D150:D153"/>
+    <mergeCell ref="D97:D100"/>
+    <mergeCell ref="E97:E100"/>
+    <mergeCell ref="E101:E104"/>
+    <mergeCell ref="D101:D104"/>
+    <mergeCell ref="D112:D116"/>
+    <mergeCell ref="E112:E116"/>
+    <mergeCell ref="E150:E153"/>
+    <mergeCell ref="D154:D157"/>
+    <mergeCell ref="E154:E157"/>
+    <mergeCell ref="D85:D88"/>
+    <mergeCell ref="E85:E88"/>
+    <mergeCell ref="D89:D92"/>
+    <mergeCell ref="E89:E92"/>
+    <mergeCell ref="D93:D96"/>
+    <mergeCell ref="E93:E96"/>
+    <mergeCell ref="D127:D131"/>
+    <mergeCell ref="E127:E131"/>
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="D18:D21"/>
     <mergeCell ref="E18:E21"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="D106:D110"/>
-    <mergeCell ref="E106:E110"/>
-    <mergeCell ref="D115:D119"/>
-    <mergeCell ref="E115:E119"/>
-    <mergeCell ref="D120:D124"/>
-    <mergeCell ref="E120:E124"/>
-    <mergeCell ref="D79:D83"/>
-    <mergeCell ref="E79:E83"/>
-    <mergeCell ref="D40:D44"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="E96:E99"/>
-    <mergeCell ref="E100:E103"/>
-    <mergeCell ref="D100:D103"/>
-    <mergeCell ref="D111:D114"/>
-    <mergeCell ref="E111:E114"/>
-    <mergeCell ref="E148:E151"/>
-    <mergeCell ref="D152:D155"/>
-    <mergeCell ref="E152:E155"/>
-    <mergeCell ref="C176:C193"/>
-    <mergeCell ref="D176:D179"/>
-    <mergeCell ref="E176:E179"/>
-    <mergeCell ref="C140:C157"/>
-    <mergeCell ref="D140:D143"/>
-    <mergeCell ref="E140:E143"/>
-    <mergeCell ref="D144:D147"/>
-    <mergeCell ref="E144:E147"/>
-    <mergeCell ref="D148:D151"/>
-    <mergeCell ref="D202:D205"/>
-    <mergeCell ref="E202:E205"/>
-    <mergeCell ref="D158:D161"/>
-    <mergeCell ref="E158:E161"/>
-    <mergeCell ref="D130:D133"/>
-    <mergeCell ref="E130:E133"/>
-    <mergeCell ref="D134:D137"/>
-    <mergeCell ref="E134:E137"/>
-    <mergeCell ref="D170:D173"/>
-    <mergeCell ref="E170:E173"/>
-    <mergeCell ref="D206:D209"/>
-    <mergeCell ref="E206:E209"/>
-    <mergeCell ref="D194:D197"/>
-    <mergeCell ref="E194:E197"/>
-    <mergeCell ref="D162:D165"/>
-    <mergeCell ref="E162:E165"/>
-    <mergeCell ref="D166:D169"/>
-    <mergeCell ref="E166:E169"/>
-    <mergeCell ref="D224:D227"/>
-    <mergeCell ref="E224:E227"/>
-    <mergeCell ref="D180:D183"/>
-    <mergeCell ref="D184:D187"/>
-    <mergeCell ref="D188:D191"/>
-    <mergeCell ref="E180:E183"/>
-    <mergeCell ref="E184:E187"/>
-    <mergeCell ref="E188:E191"/>
-    <mergeCell ref="D210:D213"/>
-    <mergeCell ref="E210:E213"/>
-    <mergeCell ref="D216:D219"/>
-    <mergeCell ref="E216:E219"/>
-    <mergeCell ref="D220:D223"/>
-    <mergeCell ref="E220:E223"/>
-    <mergeCell ref="D198:D201"/>
-    <mergeCell ref="E198:E201"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="D107:D111"/>
+    <mergeCell ref="E107:E111"/>
+    <mergeCell ref="D117:D121"/>
+    <mergeCell ref="E117:E121"/>
+    <mergeCell ref="D122:D126"/>
+    <mergeCell ref="E122:E126"/>
+    <mergeCell ref="D80:D84"/>
+    <mergeCell ref="E80:E84"/>
+    <mergeCell ref="D41:D45"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="E46:E50"/>
+    <mergeCell ref="D60:D64"/>
+    <mergeCell ref="E60:E64"/>
+    <mergeCell ref="D70:D74"/>
+    <mergeCell ref="E70:E74"/>
+    <mergeCell ref="D65:D69"/>
+    <mergeCell ref="E65:E69"/>
+    <mergeCell ref="D55:D59"/>
+    <mergeCell ref="E55:E59"/>
+    <mergeCell ref="C5:C25"/>
+    <mergeCell ref="B5:B239"/>
+    <mergeCell ref="A5:A239"/>
+    <mergeCell ref="C26:C59"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="C196:C217"/>
+    <mergeCell ref="C218:C231"/>
+    <mergeCell ref="C236:C239"/>
+    <mergeCell ref="C232:C235"/>
+    <mergeCell ref="C60:C106"/>
+    <mergeCell ref="C107:C141"/>
+    <mergeCell ref="C160:C177"/>
+    <mergeCell ref="E41:E45"/>
+    <mergeCell ref="D75:D79"/>
+    <mergeCell ref="E75:E79"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="E51:E54"/>
+    <mergeCell ref="E31:E35"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H237">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H239">
       <formula1>"Open, Priority, On Hold, Dev In Progress, Closed, Ready For Release"</formula1>
     </dataValidation>
   </dataValidations>
